--- a/t12_segCAMs/outputs/networkIndicators.xlsx
+++ b/t12_segCAMs/outputs/networkIndicators.xlsx
@@ -1021,7 +1021,7 @@
         <v>0.373015873015873</v>
       </c>
       <c r="K2" t="n">
-        <v>0.740385687575861</v>
+        <v>0.7403856875758613</v>
       </c>
       <c r="L2" t="n">
         <v>2.1333333333333333</v>
@@ -1122,7 +1122,7 @@
         <v>0.6723484848484849</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7039631414544357</v>
+        <v>0.703963141454436</v>
       </c>
       <c r="L3" t="n">
         <v>3.5789473684210527</v>
@@ -1223,7 +1223,7 @@
         <v>0.6502525252525253</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6459729144432844</v>
+        <v>0.6459729144432846</v>
       </c>
       <c r="L4" t="n">
         <v>4.181818181818182</v>
@@ -1526,7 +1526,7 @@
         <v>0.8699494949494949</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7730948816876567</v>
+        <v>0.7730948816876566</v>
       </c>
       <c r="L7" t="n">
         <v>3.391304347826087</v>
@@ -1728,7 +1728,7 @@
         <v>0.40067340067340057</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5001923783242049</v>
+        <v>0.500192378324205</v>
       </c>
       <c r="L9" t="n">
         <v>3.017543859649123</v>
@@ -1829,7 +1829,7 @@
         <v>0.4940828402366864</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6661966366553166</v>
+        <v>0.666196636655317</v>
       </c>
       <c r="L10" t="n">
         <v>6.016949152542373</v>
@@ -1930,7 +1930,7 @@
         <v>0.4911616161616162</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6687610599583357</v>
+        <v>0.6687610599583359</v>
       </c>
       <c r="L11" t="n">
         <v>6.057142857142857</v>
@@ -2132,7 +2132,7 @@
         <v>0.4683597883597884</v>
       </c>
       <c r="K13" t="n">
-        <v>0.689824832853583</v>
+        <v>0.6898248328535826</v>
       </c>
       <c r="L13" t="n">
         <v>3.7260273972602738</v>
@@ -2334,7 +2334,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.7759907622602042</v>
       </c>
       <c r="L15" t="n">
         <v>1.625</v>
@@ -2536,7 +2536,7 @@
         <v>0.8005050505050505</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7094200825169517</v>
+        <v>0.7094200825169519</v>
       </c>
       <c r="L17" t="n">
         <v>3.425925925925926</v>
@@ -2637,7 +2637,7 @@
         <v>0.5943458251150558</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6384209554272585</v>
+        <v>0.6384209554272581</v>
       </c>
       <c r="L18" t="n">
         <v>5.568181818181818</v>
@@ -2940,7 +2940,7 @@
         <v>0.6656200941915228</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7456299505271808</v>
+        <v>0.7456299505271807</v>
       </c>
       <c r="L21" t="n">
         <v>5.257142857142857</v>
@@ -3041,7 +3041,7 @@
         <v>0.8648915187376726</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7802593038528179</v>
+        <v>0.7802593038528177</v>
       </c>
       <c r="L22" t="n">
         <v>1.7222222222222223</v>
@@ -3142,7 +3142,7 @@
         <v>0.5482731554160125</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6305888847153066</v>
+        <v>0.6305888847153069</v>
       </c>
       <c r="L23" t="n">
         <v>3.0833333333333335</v>
@@ -3243,7 +3243,7 @@
         <v>0.7389473684210527</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7562500316434446</v>
+        <v>0.7562500316434445</v>
       </c>
       <c r="L24" t="n">
         <v>2.0943396226415096</v>
@@ -3647,7 +3647,7 @@
         <v>0.29945286195286186</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6165075123235564</v>
+        <v>0.616507512323556</v>
       </c>
       <c r="L28" t="n">
         <v>4.67741935483871</v>
@@ -3748,7 +3748,7 @@
         <v>0.5276134122287969</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6452743060553273</v>
+        <v>0.645274306055327</v>
       </c>
       <c r="L29" t="n">
         <v>6.611111111111111</v>
@@ -3849,7 +3849,7 @@
         <v>0.6981946624803768</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7545868038477974</v>
+        <v>0.7545868038477972</v>
       </c>
       <c r="L30" t="n">
         <v>2.4310344827586206</v>
@@ -4051,7 +4051,7 @@
         <v>0.648989898989899</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6614982610535995</v>
+        <v>0.6614982610535999</v>
       </c>
       <c r="L32" t="n">
         <v>3.28</v>
@@ -4354,7 +4354,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6794615015976845</v>
+        <v>0.6794615015976844</v>
       </c>
       <c r="L35" t="n">
         <v>3.55</v>
@@ -4455,7 +4455,7 @@
         <v>0.3194662480376766</v>
       </c>
       <c r="K36" t="n">
-        <v>0.6561121091631207</v>
+        <v>0.6561121091631202</v>
       </c>
       <c r="L36" t="n">
         <v>4.222222222222222</v>
@@ -4556,7 +4556,7 @@
         <v>0.6734375</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7192975424790956</v>
+        <v>0.7192975424790958</v>
       </c>
       <c r="L37" t="n">
         <v>3.8461538461538463</v>
@@ -4657,7 +4657,7 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="K38" t="n">
-        <v>0.6948826958819588</v>
+        <v>0.6948826958819585</v>
       </c>
       <c r="L38" t="n">
         <v>6.519230769230769</v>
@@ -4758,7 +4758,7 @@
         <v>0.7746539792387545</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7448042470895522</v>
+        <v>0.7448042470895524</v>
       </c>
       <c r="L39" t="n">
         <v>4.2272727272727275</v>
@@ -4859,7 +4859,7 @@
         <v>0.8446969696969697</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7067166389319384</v>
+        <v>0.7067166389319385</v>
       </c>
       <c r="L40" t="n">
         <v>1.8387096774193548</v>
@@ -5061,7 +5061,7 @@
         <v>0.6300505050505051</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6814509521019753</v>
+        <v>0.6814509521019754</v>
       </c>
       <c r="L42" t="n">
         <v>1.4838709677419355</v>
@@ -5263,7 +5263,7 @@
         <v>0.3963893249607535</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5528351157564724</v>
+        <v>0.5528351157564726</v>
       </c>
       <c r="L44" t="n">
         <v>6.206185567010309</v>
@@ -5364,7 +5364,7 @@
         <v>0.31786948853615515</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6109976549649964</v>
+        <v>0.6109976549649963</v>
       </c>
       <c r="L45" t="n">
         <v>2.888</v>
@@ -5465,7 +5465,7 @@
         <v>0.8598484848484849</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7117226763030791</v>
+        <v>0.7117226763030792</v>
       </c>
       <c r="L46" t="n">
         <v>4.1</v>
@@ -5667,7 +5667,7 @@
         <v>1.0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="L48" t="n">
         <v>3.25</v>
@@ -5869,7 +5869,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5876751203535701</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L50" t="n">
         <v>1.52</v>
@@ -5970,7 +5970,7 @@
         <v>0.8793388429752066</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7649371473690575</v>
+        <v>0.7649371473690573</v>
       </c>
       <c r="L51" t="n">
         <v>1.6666666666666667</v>
@@ -6071,7 +6071,7 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6991548881373775</v>
+        <v>0.6991548881373778</v>
       </c>
       <c r="L52" t="n">
         <v>3.4375</v>
@@ -6172,7 +6172,7 @@
         <v>1.0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="L53" t="n">
         <v>4.212765957446808</v>
@@ -6273,7 +6273,7 @@
         <v>0.827020202020202</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7608344969958325</v>
+        <v>0.7608344969958328</v>
       </c>
       <c r="L54" t="n">
         <v>3.1621621621621623</v>
@@ -6374,7 +6374,7 @@
         <v>0.2632996632996633</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5579632877250355</v>
+        <v>0.5579632877250357</v>
       </c>
       <c r="L55" t="n">
         <v>4.096774193548387</v>
@@ -6475,7 +6475,7 @@
         <v>1.0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7683375209644598</v>
+        <v>0.7683375209644603</v>
       </c>
       <c r="L56" t="n">
         <v>2.1379310344827585</v>
@@ -6576,7 +6576,7 @@
         <v>0.7001972386587771</v>
       </c>
       <c r="K57" t="n">
-        <v>0.721472565065563</v>
+        <v>0.7214725650655626</v>
       </c>
       <c r="L57" t="n">
         <v>4.585365853658536</v>
@@ -6677,7 +6677,7 @@
         <v>0.740484429065744</v>
       </c>
       <c r="K58" t="n">
-        <v>0.7467269103335881</v>
+        <v>0.7467269103335876</v>
       </c>
       <c r="L58" t="n">
         <v>2.727272727272727</v>
@@ -6778,7 +6778,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6864100233833474</v>
+        <v>0.6864100233833476</v>
       </c>
       <c r="L59" t="n">
         <v>2.7222222222222223</v>
@@ -6879,7 +6879,7 @@
         <v>0.5250544662309368</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6096235412027468</v>
+        <v>0.6096235412027466</v>
       </c>
       <c r="L60" t="n">
         <v>3.408333333333333</v>
@@ -6980,7 +6980,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6303361469402884</v>
+        <v>0.6303361469402873</v>
       </c>
       <c r="L61" t="n">
         <v>2.65</v>
@@ -7081,7 +7081,7 @@
         <v>0.9381313131313131</v>
       </c>
       <c r="K62" t="n">
-        <v>0.7419796269483413</v>
+        <v>0.7419796269483416</v>
       </c>
       <c r="L62" t="n">
         <v>1.6875</v>
@@ -7182,7 +7182,7 @@
         <v>0.7915456305979182</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7704379740217014</v>
+        <v>0.7704379740217013</v>
       </c>
       <c r="L63" t="n">
         <v>4.157407407407407</v>
@@ -7384,7 +7384,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7670059672747954</v>
+        <v>0.7670059672747956</v>
       </c>
       <c r="L65" t="n">
         <v>4.764705882352941</v>
@@ -7485,7 +7485,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="K66" t="n">
-        <v>0.651843641426868</v>
+        <v>0.6518436414268679</v>
       </c>
       <c r="L66" t="n">
         <v>3.806451612903226</v>
@@ -7586,7 +7586,7 @@
         <v>0.6301775147928994</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6487310688403937</v>
+        <v>0.6487310688403934</v>
       </c>
       <c r="L67" t="n">
         <v>2.967741935483871</v>
@@ -7687,7 +7687,7 @@
         <v>0.5907297830374754</v>
       </c>
       <c r="K68" t="n">
-        <v>0.6972948089468821</v>
+        <v>0.6972948089468822</v>
       </c>
       <c r="L68" t="n">
         <v>4.645161290322581</v>
@@ -7788,7 +7788,7 @@
         <v>0.4751683501683501</v>
       </c>
       <c r="K69" t="n">
-        <v>0.6995900777392825</v>
+        <v>0.6995900777392826</v>
       </c>
       <c r="L69" t="n">
         <v>1.8157894736842106</v>
@@ -7990,7 +7990,7 @@
         <v>0.1671085858585859</v>
       </c>
       <c r="K71" t="n">
-        <v>0.4150188528908394</v>
+        <v>0.41501885289083906</v>
       </c>
       <c r="L71" t="n">
         <v>4.8977272727272725</v>
@@ -8089,7 +8089,7 @@
         <v>0.40622895622895616</v>
       </c>
       <c r="K72" t="n">
-        <v>0.589029733534097</v>
+        <v>0.5890297335340977</v>
       </c>
       <c r="L72" t="n">
         <v>6.423076923076923</v>
@@ -8190,7 +8190,7 @@
         <v>0.5128205128205128</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6541075676695761</v>
+        <v>0.6541075676695762</v>
       </c>
       <c r="L73" t="n">
         <v>5.931818181818182</v>
@@ -8291,7 +8291,7 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7419526491669418</v>
+        <v>0.7419526491669419</v>
       </c>
       <c r="L74" t="n">
         <v>3.9622641509433962</v>
@@ -8392,7 +8392,7 @@
         <v>0.6856060606060606</v>
       </c>
       <c r="K75" t="n">
-        <v>0.6903631718354524</v>
+        <v>0.6903631718354526</v>
       </c>
       <c r="L75" t="n">
         <v>1.72</v>
@@ -8493,7 +8493,7 @@
         <v>0.39730639730639733</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6646145954904615</v>
+        <v>0.6646145954904612</v>
       </c>
       <c r="L76" t="n">
         <v>3.475</v>
@@ -8594,7 +8594,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="K77" t="n">
-        <v>0.6864100233833476</v>
+        <v>0.6864100233833473</v>
       </c>
       <c r="L77" t="n">
         <v>2.888888888888889</v>
@@ -8695,7 +8695,7 @@
         <v>0.8421717171717171</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7633270405226223</v>
+        <v>0.7633270405226221</v>
       </c>
       <c r="L78" t="n">
         <v>3.48</v>
@@ -8794,7 +8794,7 @@
         <v>0.5851239669421487</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6929632483024006</v>
+        <v>0.6929632483024005</v>
       </c>
       <c r="L79" t="n">
         <v>1.7272727272727273</v>
@@ -8895,7 +8895,7 @@
         <v>0.7563131313131313</v>
       </c>
       <c r="K80" t="n">
-        <v>0.6818432807724643</v>
+        <v>0.6818432807724647</v>
       </c>
       <c r="L80" t="n">
         <v>1.84375</v>
@@ -9097,7 +9097,7 @@
         <v>1.0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="L82" t="n">
         <v>1.7446808510638299</v>
@@ -9299,7 +9299,7 @@
         <v>0.5661718750000001</v>
       </c>
       <c r="K84" t="n">
-        <v>0.6724618248782622</v>
+        <v>0.6724618248782626</v>
       </c>
       <c r="L84" t="n">
         <v>2.6161137440758293</v>
@@ -9400,7 +9400,7 @@
         <v>0.6891679748822606</v>
       </c>
       <c r="K85" t="n">
-        <v>0.6919737827513827</v>
+        <v>0.691973782751383</v>
       </c>
       <c r="L85" t="n">
         <v>1.375</v>
@@ -9602,7 +9602,7 @@
         <v>0.18550084175084178</v>
       </c>
       <c r="K87" t="n">
-        <v>0.4892434027867939</v>
+        <v>0.48924340278679385</v>
       </c>
       <c r="L87" t="n">
         <v>7.4</v>
@@ -9901,7 +9901,7 @@
         <v>0.8802083333333334</v>
       </c>
       <c r="K90" t="n">
-        <v>0.7930455728646292</v>
+        <v>0.793045572864629</v>
       </c>
       <c r="L90" t="n">
         <v>4.0588235294117645</v>
@@ -10002,7 +10002,7 @@
         <v>0.2819834710743802</v>
       </c>
       <c r="K91" t="n">
-        <v>0.328601761666982</v>
+        <v>0.3286017616669817</v>
       </c>
       <c r="L91" t="n">
         <v>3.2222222222222223</v>
@@ -10103,7 +10103,7 @@
         <v>0.4972643097643097</v>
       </c>
       <c r="K92" t="n">
-        <v>0.6061860976384704</v>
+        <v>0.6061860976384708</v>
       </c>
       <c r="L92" t="n">
         <v>6.856060606060606</v>
@@ -10204,7 +10204,7 @@
         <v>0.5464856902356902</v>
       </c>
       <c r="K93" t="n">
-        <v>0.6728497817027043</v>
+        <v>0.6728497817027036</v>
       </c>
       <c r="L93" t="n">
         <v>4.3076923076923075</v>
@@ -10305,7 +10305,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="K94" t="n">
-        <v>0.6794615015976849</v>
+        <v>0.6794615015976846</v>
       </c>
       <c r="L94" t="n">
         <v>3.696969696969697</v>
@@ -10406,7 +10406,7 @@
         <v>0.6382575757575758</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7514790618967372</v>
+        <v>0.7514790618967374</v>
       </c>
       <c r="L95" t="n">
         <v>2.227272727272727</v>
@@ -10608,7 +10608,7 @@
         <v>0.7291666666666666</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7281974999558514</v>
+        <v>0.7281974999558517</v>
       </c>
       <c r="L97" t="n">
         <v>2.5238095238095237</v>
@@ -10709,7 +10709,7 @@
         <v>1.0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="L98" t="n">
         <v>1.0</v>
@@ -10911,7 +10911,7 @@
         <v>0.9305785123966942</v>
       </c>
       <c r="K100" t="n">
-        <v>0.7717188152054519</v>
+        <v>0.7717188152054522</v>
       </c>
       <c r="L100" t="n">
         <v>1.9565217391304348</v>
@@ -11012,7 +11012,7 @@
         <v>0.5019723865877712</v>
       </c>
       <c r="K101" t="n">
-        <v>0.696491429139917</v>
+        <v>0.6964914291399165</v>
       </c>
       <c r="L101" t="n">
         <v>1.5</v>
@@ -11214,7 +11214,7 @@
         <v>0.23758417508417512</v>
       </c>
       <c r="K103" t="n">
-        <v>0.5248565426737827</v>
+        <v>0.5248565426737829</v>
       </c>
       <c r="L103" t="n">
         <v>5.855555555555555</v>
@@ -11416,7 +11416,7 @@
         <v>0.5088383838383839</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5298498999513522</v>
+        <v>0.5298498999513521</v>
       </c>
       <c r="L105" t="n">
         <v>2.2045454545454546</v>
@@ -11517,7 +11517,7 @@
         <v>0.5801652892561984</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5996258034517246</v>
+        <v>0.5996258034517241</v>
       </c>
       <c r="L106" t="n">
         <v>1.588235294117647</v>
@@ -11618,7 +11618,7 @@
         <v>0.577020202020202</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5919173910257381</v>
+        <v>0.5919173910257379</v>
       </c>
       <c r="L107" t="n">
         <v>2.7625</v>
@@ -11719,7 +11719,7 @@
         <v>0.509469696969697</v>
       </c>
       <c r="K108" t="n">
-        <v>0.6856155533238778</v>
+        <v>0.6856155533238777</v>
       </c>
       <c r="L108" t="n">
         <v>2.8</v>
@@ -11921,7 +11921,7 @@
         <v>0.6475168350168351</v>
       </c>
       <c r="K110" t="n">
-        <v>0.6949192071523782</v>
+        <v>0.6949192071523784</v>
       </c>
       <c r="L110" t="n">
         <v>2.3043478260869565</v>
@@ -12022,7 +12022,7 @@
         <v>0.6081649831649831</v>
       </c>
       <c r="K111" t="n">
-        <v>0.588527383152124</v>
+        <v>0.5885273831521242</v>
       </c>
       <c r="L111" t="n">
         <v>5.152941176470589</v>
@@ -12224,7 +12224,7 @@
         <v>0.7933884297520661</v>
       </c>
       <c r="K113" t="n">
-        <v>0.7387592154231895</v>
+        <v>0.7387592154231897</v>
       </c>
       <c r="L113" t="n">
         <v>1.72</v>
@@ -12325,7 +12325,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K114" t="n">
-        <v>0.6922340897759256</v>
+        <v>0.6922340897759259</v>
       </c>
       <c r="L114" t="n">
         <v>1.8571428571428572</v>
@@ -12426,7 +12426,7 @@
         <v>0.6760330578512397</v>
       </c>
       <c r="K115" t="n">
-        <v>0.6817290787845064</v>
+        <v>0.6817290787845063</v>
       </c>
       <c r="L115" t="n">
         <v>3.4516129032258065</v>
@@ -12527,7 +12527,7 @@
         <v>0.44297520661157025</v>
       </c>
       <c r="K116" t="n">
-        <v>0.6531555214579817</v>
+        <v>0.6531555214579814</v>
       </c>
       <c r="L116" t="n">
         <v>2.40625</v>
@@ -12628,7 +12628,7 @@
         <v>0.7171717171717171</v>
       </c>
       <c r="K117" t="n">
-        <v>0.7161395173470756</v>
+        <v>0.7161395173470759</v>
       </c>
       <c r="L117" t="n">
         <v>6.3076923076923075</v>
@@ -12729,7 +12729,7 @@
         <v>0.5997474747474747</v>
       </c>
       <c r="K118" t="n">
-        <v>0.6402035492877844</v>
+        <v>0.6402035492877843</v>
       </c>
       <c r="L118" t="n">
         <v>4.785714285714286</v>
@@ -12830,7 +12830,7 @@
         <v>0.6483516483516484</v>
       </c>
       <c r="K119" t="n">
-        <v>0.6438228895554109</v>
+        <v>0.6438228895554112</v>
       </c>
       <c r="L119" t="n">
         <v>3.9056603773584904</v>
@@ -12931,7 +12931,7 @@
         <v>0.5147174254317112</v>
       </c>
       <c r="K120" t="n">
-        <v>0.5581881001638295</v>
+        <v>0.5581881001638296</v>
       </c>
       <c r="L120" t="n">
         <v>3.323943661971831</v>
@@ -13032,7 +13032,7 @@
         <v>0.5611439842209073</v>
       </c>
       <c r="K121" t="n">
-        <v>0.6462097425793843</v>
+        <v>0.6462097425793841</v>
       </c>
       <c r="L121" t="n">
         <v>2.5</v>
@@ -13133,7 +13133,7 @@
         <v>0.32386363636363635</v>
       </c>
       <c r="K122" t="n">
-        <v>0.5757134300352919</v>
+        <v>0.5757134300352917</v>
       </c>
       <c r="L122" t="n">
         <v>6.988095238095238</v>
@@ -13234,7 +13234,7 @@
         <v>0.4810606060606061</v>
       </c>
       <c r="K123" t="n">
-        <v>0.6400157487287919</v>
+        <v>0.6400157487287917</v>
       </c>
       <c r="L123" t="n">
         <v>1.3888888888888888</v>

--- a/t12_segCAMs/outputs/networkIndicators.xlsx
+++ b/t12_segCAMs/outputs/networkIndicators.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="274">
   <si>
     <t>CAM_ID</t>
   </si>
@@ -473,9 +473,6 @@
     <t>121</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>65410ad762a7e3c570b6273c</t>
   </si>
   <si>
@@ -816,9 +813,6 @@
   </si>
   <si>
     <t>65562093cb3d4b04b4d3e8da</t>
-  </si>
-  <si>
-    <t>63cedc8a97a0bb604736baea</t>
   </si>
   <si>
     <t>647648baa82fb44bb109f367</t>
@@ -994,10 +988,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" t="n">
         <v>-0.18181818181818182</v>
@@ -1021,7 +1015,7 @@
         <v>0.373015873015873</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7403856875758613</v>
+        <v>0.740385687575861</v>
       </c>
       <c r="L2" t="n">
         <v>2.1333333333333333</v>
@@ -1078,16 +1072,16 @@
         <v>-0.3253856942496493</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.0</v>
+        <v>2.5454545454545454</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0</v>
+        <v>-0.18181818181818182</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.0</v>
+        <v>0.6487658267349983</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.25</v>
+        <v>0.4510582010582011</v>
       </c>
     </row>
     <row r="3">
@@ -1095,10 +1089,10 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" t="n">
         <v>-0.46153846153846156</v>
@@ -1122,7 +1116,7 @@
         <v>0.6723484848484849</v>
       </c>
       <c r="K3" t="n">
-        <v>0.703963141454436</v>
+        <v>0.7039631414544361</v>
       </c>
       <c r="L3" t="n">
         <v>3.5789473684210527</v>
@@ -1179,16 +1173,16 @@
         <v>-0.29971988795518206</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.0</v>
+        <v>2.4615384615384617</v>
       </c>
       <c r="AE3" t="n">
-        <v>-3.0</v>
+        <v>-0.46153846153846156</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.0</v>
+        <v>0.6501952759715706</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.2761904761904762</v>
       </c>
     </row>
     <row r="4">
@@ -1196,10 +1190,10 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" t="n">
         <v>-0.07692307692307693</v>
@@ -1223,7 +1217,7 @@
         <v>0.6502525252525253</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6459729144432846</v>
+        <v>0.6459729144432843</v>
       </c>
       <c r="L4" t="n">
         <v>4.181818181818182</v>
@@ -1280,16 +1274,16 @@
         <v>-0.5527777777777781</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.0</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.0</v>
+        <v>0.6658426622412432</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="5">
@@ -1297,10 +1291,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" t="n">
         <v>-0.8461538461538461</v>
@@ -1324,7 +1318,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7256314504280085</v>
+        <v>0.7256314504280087</v>
       </c>
       <c r="L5" t="n">
         <v>4.517241379310345</v>
@@ -1381,13 +1375,13 @@
         <v>-0.24414715719063534</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0</v>
+        <v>-0.8461538461538461</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.0</v>
+        <v>0.6502993020113096</v>
       </c>
       <c r="AG5" t="n">
         <v>0.0</v>
@@ -1398,10 +1392,10 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" t="n">
         <v>-0.6666666666666666</v>
@@ -1425,7 +1419,7 @@
         <v>0.5735537190082645</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5821576144967795</v>
+        <v>0.5821576144967798</v>
       </c>
       <c r="L6" t="n">
         <v>4.035714285714286</v>
@@ -1482,16 +1476,16 @@
         <v>-0.17293233082706774</v>
       </c>
       <c r="AD6" t="n">
-        <v>4.0</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="AE6" t="n">
-        <v>-3.0</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.0</v>
+        <v>0.6787931943441321</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0</v>
+        <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="7">
@@ -1499,10 +1493,10 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" t="n">
         <v>-0.9230769230769231</v>
@@ -1526,7 +1520,7 @@
         <v>0.8699494949494949</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7730948816876566</v>
+        <v>0.7730948816876565</v>
       </c>
       <c r="L7" t="n">
         <v>3.391304347826087</v>
@@ -1583,13 +1577,13 @@
         <v>-0.554083885209713</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0</v>
+        <v>-0.9230769230769231</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.0</v>
+        <v>0.5975908074117794</v>
       </c>
       <c r="AG7" t="n">
         <v>0.0</v>
@@ -1600,10 +1594,10 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" t="n">
         <v>-0.25</v>
@@ -1627,7 +1621,7 @@
         <v>0.7950413223140496</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6992949937059292</v>
+        <v>0.6992949937059291</v>
       </c>
       <c r="L8" t="n">
         <v>3.6</v>
@@ -1684,16 +1678,16 @@
         <v>-0.42857142857142855</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>-0.25</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.0</v>
+        <v>0.6225176889313512</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="9">
@@ -1701,10 +1695,10 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" t="n">
         <v>0.07692307692307693</v>
@@ -1728,7 +1722,7 @@
         <v>0.40067340067340057</v>
       </c>
       <c r="K9" t="n">
-        <v>0.500192378324205</v>
+        <v>0.5001923783242052</v>
       </c>
       <c r="L9" t="n">
         <v>3.017543859649123</v>
@@ -1785,16 +1779,16 @@
         <v>-0.12941176470588237</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.0</v>
+        <v>2.4615384615384617</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.0</v>
+        <v>0.7298103016217787</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
@@ -1802,10 +1796,10 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="n">
         <v>-2.2857142857142856</v>
@@ -1829,7 +1823,7 @@
         <v>0.4940828402366864</v>
       </c>
       <c r="K10" t="n">
-        <v>0.666196636655317</v>
+        <v>0.6661966366553171</v>
       </c>
       <c r="L10" t="n">
         <v>6.016949152542373</v>
@@ -1886,16 +1880,16 @@
         <v>-0.22448979591836785</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.0</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="AE10" t="n">
-        <v>-3.0</v>
+        <v>-2.2857142857142856</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.862068965517241</v>
+        <v>0.6928932500574584</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="11">
@@ -1903,10 +1897,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" t="n">
         <v>0.46153846153846156</v>
@@ -1930,7 +1924,7 @@
         <v>0.4911616161616162</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6687610599583359</v>
+        <v>0.6687610599583352</v>
       </c>
       <c r="L11" t="n">
         <v>6.057142857142857</v>
@@ -1987,16 +1981,16 @@
         <v>0.06306306306306307</v>
       </c>
       <c r="AD11" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.0</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.0</v>
+        <v>0.6784584697802</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.166666666666667</v>
+        <v>0.09523809523809527</v>
       </c>
     </row>
     <row r="12">
@@ -2004,10 +1998,10 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" t="n">
         <v>-1.0769230769230769</v>
@@ -2088,13 +2082,13 @@
         <v>-0.804705882352941</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0</v>
+        <v>-1.0769230769230769</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.0</v>
+        <v>0.575090232348297</v>
       </c>
       <c r="AG12" t="n">
         <v>0.0</v>
@@ -2105,10 +2099,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" t="n">
         <v>-0.25</v>
@@ -2132,7 +2126,7 @@
         <v>0.4683597883597884</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6898248328535826</v>
+        <v>0.689824832853583</v>
       </c>
       <c r="L13" t="n">
         <v>3.7260273972602738</v>
@@ -2189,16 +2183,16 @@
         <v>-0.5165794066317627</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.0</v>
+        <v>2.75</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0</v>
+        <v>-0.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.892857142857143</v>
+        <v>0.7398766819611393</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0</v>
+        <v>0.09595959595959587</v>
       </c>
     </row>
     <row r="14">
@@ -2206,10 +2200,10 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" t="n">
         <v>-1.7857142857142858</v>
@@ -2233,7 +2227,7 @@
         <v>0.5256410256410257</v>
       </c>
       <c r="K14" t="n">
-        <v>0.644501139690758</v>
+        <v>0.6445011396907581</v>
       </c>
       <c r="L14" t="n">
         <v>4.5</v>
@@ -2290,13 +2284,13 @@
         <v>-0.5440613026819925</v>
       </c>
       <c r="AD14" t="n">
-        <v>4.0</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AE14" t="n">
-        <v>-3.0</v>
+        <v>-1.7857142857142858</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.0</v>
+        <v>0.6959949753772947</v>
       </c>
       <c r="AG14" t="n">
         <v>0.0</v>
@@ -2307,10 +2301,10 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" t="n">
         <v>-0.8461538461538461</v>
@@ -2334,7 +2328,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="L15" t="n">
         <v>1.625</v>
@@ -2391,13 +2385,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>12.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0</v>
+        <v>-0.8461538461538461</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.0</v>
+        <v>0.5585284280936459</v>
       </c>
       <c r="AG15" t="n">
         <v>0.0</v>
@@ -2408,10 +2402,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" t="n">
         <v>0.2857142857142857</v>
@@ -2435,7 +2429,7 @@
         <v>0.97534516765286</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7860614906997364</v>
+        <v>0.7860614906997361</v>
       </c>
       <c r="L16" t="n">
         <v>1.7346938775510203</v>
@@ -2492,13 +2486,13 @@
         <v>-0.8758565094719873</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.0</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AE16" t="n">
-        <v>3.0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.0</v>
+        <v>0.5639499389499386</v>
       </c>
       <c r="AG16" t="n">
         <v>0.0</v>
@@ -2509,10 +2503,10 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" t="n">
         <v>-1.0769230769230769</v>
@@ -2536,7 +2530,7 @@
         <v>0.8005050505050505</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7094200825169519</v>
+        <v>0.7094200825169517</v>
       </c>
       <c r="L17" t="n">
         <v>3.425925925925926</v>
@@ -2593,16 +2587,16 @@
         <v>-0.46527777777777773</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.0</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="AE17" t="n">
-        <v>-3.0</v>
+        <v>-1.0769230769230769</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.0</v>
+        <v>0.5990209971188233</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.127272727272727</v>
+        <v>0.7539944903581267</v>
       </c>
     </row>
     <row r="18">
@@ -2610,10 +2604,10 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D18" t="n">
         <v>-1.2857142857142858</v>
@@ -2637,7 +2631,7 @@
         <v>0.5943458251150558</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6384209554272581</v>
+        <v>0.6384209554272583</v>
       </c>
       <c r="L18" t="n">
         <v>5.568181818181818</v>
@@ -2694,13 +2688,13 @@
         <v>-0.28859060402684567</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.0</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="AE18" t="n">
-        <v>-3.0</v>
+        <v>-1.2857142857142858</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.0</v>
+        <v>0.6605215860034092</v>
       </c>
       <c r="AG18" t="n">
         <v>0.0</v>
@@ -2711,10 +2705,10 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" t="n">
         <v>-0.6923076923076923</v>
@@ -2738,7 +2732,7 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6800727431914517</v>
+        <v>0.6800727431914514</v>
       </c>
       <c r="L19" t="n">
         <v>1.641025641025641</v>
@@ -2795,16 +2789,16 @@
         <v>-0.13586956521739185</v>
       </c>
       <c r="AD19" t="n">
-        <v>5.0</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0</v>
+        <v>-0.6923076923076923</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.0</v>
+        <v>0.709651248540978</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.2</v>
+        <v>0.4611111111111111</v>
       </c>
     </row>
     <row r="20">
@@ -2812,10 +2806,10 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" t="n">
         <v>-1.0</v>
@@ -2839,7 +2833,7 @@
         <v>0.18543956043956045</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5836291076644481</v>
+        <v>0.5836291076644483</v>
       </c>
       <c r="L20" t="n">
         <v>5.4520547945205475</v>
@@ -2896,16 +2890,16 @@
         <v>-0.02678571428571349</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.0</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="AE20" t="n">
-        <v>-2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.882352941176471</v>
+        <v>0.8223141042109626</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0</v>
+        <v>0.32619047619047614</v>
       </c>
     </row>
     <row r="21">
@@ -2913,10 +2907,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" t="n">
         <v>-1.0</v>
@@ -2940,7 +2934,7 @@
         <v>0.6656200941915228</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7456299505271807</v>
+        <v>0.7456299505271813</v>
       </c>
       <c r="L21" t="n">
         <v>5.257142857142857</v>
@@ -2997,16 +2991,16 @@
         <v>-0.06578947368421083</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.0</v>
+        <v>0.6369399821769232</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.1</v>
+        <v>0.09583333333333324</v>
       </c>
     </row>
     <row r="22">
@@ -3014,10 +3008,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" t="n">
         <v>-0.35714285714285715</v>
@@ -3041,7 +3035,7 @@
         <v>0.8648915187376726</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7802593038528177</v>
+        <v>0.780259303852818</v>
       </c>
       <c r="L22" t="n">
         <v>1.7222222222222223</v>
@@ -3098,13 +3092,13 @@
         <v>-0.464546056991385</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.0</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.0</v>
+        <v>-0.35714285714285715</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.0</v>
+        <v>0.5941605387094109</v>
       </c>
       <c r="AG22" t="n">
         <v>0.0</v>
@@ -3115,10 +3109,10 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" t="n">
         <v>-1.2</v>
@@ -3142,7 +3136,7 @@
         <v>0.5482731554160125</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6305888847153069</v>
+        <v>0.6305888847153067</v>
       </c>
       <c r="L23" t="n">
         <v>3.0833333333333335</v>
@@ -3199,16 +3193,16 @@
         <v>-0.23021582733813</v>
       </c>
       <c r="AD23" t="n">
-        <v>5.0</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="AE23" t="n">
-        <v>-2.0</v>
+        <v>-1.2</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.0</v>
+        <v>0.7007642043061327</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.1</v>
+        <v>0.36666666666666653</v>
       </c>
     </row>
     <row r="24">
@@ -3216,10 +3210,10 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24" t="n">
         <v>-0.09523809523809523</v>
@@ -3300,13 +3294,13 @@
         <v>-0.37978339350180496</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.0</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.0</v>
+        <v>0.6128908037272442</v>
       </c>
       <c r="AG24" t="n">
         <v>0.0</v>
@@ -3317,10 +3311,10 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" t="n">
         <v>-0.23076923076923078</v>
@@ -3344,7 +3338,7 @@
         <v>0.44938973063973064</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5604292923717348</v>
+        <v>0.560429292371735</v>
       </c>
       <c r="L25" t="n">
         <v>2.1327433628318584</v>
@@ -3401,16 +3395,16 @@
         <v>-0.3360488798370672</v>
       </c>
       <c r="AD25" t="n">
-        <v>12.0</v>
+        <v>4.923076923076923</v>
       </c>
       <c r="AE25" t="n">
-        <v>-3.0</v>
+        <v>-0.23076923076923078</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.0</v>
+        <v>0.6435094317447259</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.303030303030303</v>
+        <v>0.7266067266067268</v>
       </c>
     </row>
     <row r="26">
@@ -3418,10 +3412,10 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D26" t="n">
         <v>-0.35294117647058826</v>
@@ -3445,7 +3439,7 @@
         <v>0.7901041666666667</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7848416809344698</v>
+        <v>0.78484168093447</v>
       </c>
       <c r="L26" t="n">
         <v>3.7674418604651163</v>
@@ -3502,16 +3496,16 @@
         <v>-0.193702290076336</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.0</v>
+        <v>2.1176470588235294</v>
       </c>
       <c r="AE26" t="n">
-        <v>-3.0</v>
+        <v>-0.35294117647058826</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.0</v>
+        <v>0.602849722852135</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.23015873015873003</v>
       </c>
     </row>
     <row r="27">
@@ -3519,10 +3513,10 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D27" t="n">
         <v>0.5833333333333334</v>
@@ -3603,16 +3597,16 @@
         <v>-0.888</v>
       </c>
       <c r="AD27" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.0</v>
+        <v>0.567857142857143</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0181818181818182</v>
+        <v>0.6727272727272727</v>
       </c>
     </row>
     <row r="28">
@@ -3620,10 +3614,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" t="n">
         <v>-2.5384615384615383</v>
@@ -3647,7 +3641,7 @@
         <v>0.29945286195286186</v>
       </c>
       <c r="K28" t="n">
-        <v>0.616507512323556</v>
+        <v>0.6165075123235558</v>
       </c>
       <c r="L28" t="n">
         <v>4.67741935483871</v>
@@ -3704,16 +3698,16 @@
         <v>-0.31933842239185756</v>
       </c>
       <c r="AD28" t="n">
-        <v>5.0</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="AE28" t="n">
-        <v>-3.0</v>
+        <v>-2.5384615384615383</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.0</v>
+        <v>0.7458684432009495</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -3721,10 +3715,10 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" t="n">
         <v>-1.0</v>
@@ -3748,7 +3742,7 @@
         <v>0.5276134122287969</v>
       </c>
       <c r="K29" t="n">
-        <v>0.645274306055327</v>
+        <v>0.6452743060553274</v>
       </c>
       <c r="L29" t="n">
         <v>6.611111111111111</v>
@@ -3805,16 +3799,16 @@
         <v>-0.40816326530612274</v>
       </c>
       <c r="AD29" t="n">
-        <v>4.0</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="AE29" t="n">
-        <v>-3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.0</v>
+        <v>0.6939008555307139</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.166666666666667</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="30">
@@ -3822,10 +3816,10 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" t="n">
         <v>-1.0666666666666667</v>
@@ -3906,16 +3900,16 @@
         <v>-0.3480801335559264</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.0</v>
+        <v>2.2666666666666666</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.0</v>
+        <v>-1.0666666666666667</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.0</v>
+        <v>0.6507524701168798</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.1255411255411255</v>
       </c>
     </row>
     <row r="31">
@@ -3923,10 +3917,10 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31" t="n">
         <v>-1.3888888888888888</v>
@@ -3950,7 +3944,7 @@
         <v>0.39641003460207613</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6416182230273746</v>
+        <v>0.6416182230273744</v>
       </c>
       <c r="L31" t="n">
         <v>5.7894736842105265</v>
@@ -4007,16 +4001,16 @@
         <v>-0.2480620155038759</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.0</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="AE31" t="n">
-        <v>-3.0</v>
+        <v>-1.3888888888888888</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.0</v>
+        <v>0.6957114498065575</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.142857142857143</v>
+        <v>0.261344537815126</v>
       </c>
     </row>
     <row r="32">
@@ -4024,10 +4018,10 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" t="n">
         <v>-0.23076923076923078</v>
@@ -4051,7 +4045,7 @@
         <v>0.648989898989899</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6614982610535999</v>
+        <v>0.6614982610536001</v>
       </c>
       <c r="L32" t="n">
         <v>3.28</v>
@@ -4108,16 +4102,16 @@
         <v>-0.8752997601918464</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.0</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="AE32" t="n">
-        <v>-2.0</v>
+        <v>-0.23076923076923078</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.8</v>
+        <v>0.5945272119185161</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.222222222222222</v>
+        <v>0.8343434343434343</v>
       </c>
     </row>
     <row r="33">
@@ -4125,10 +4119,10 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33" t="n">
         <v>-1.3571428571428572</v>
@@ -4152,7 +4146,7 @@
         <v>0.3869165023011177</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5535908241110467</v>
+        <v>0.5535908241110464</v>
       </c>
       <c r="L33" t="n">
         <v>5.504504504504505</v>
@@ -4209,16 +4203,16 @@
         <v>-0.2481997119539121</v>
       </c>
       <c r="AD33" t="n">
-        <v>8.0</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="AE33" t="n">
-        <v>-3.0</v>
+        <v>-1.3571428571428572</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.0</v>
+        <v>0.7241026817831273</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.107142857142857</v>
+        <v>0.26717687074829916</v>
       </c>
     </row>
     <row r="34">
@@ -4226,10 +4220,10 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" t="n">
         <v>-1.1666666666666667</v>
@@ -4310,13 +4304,13 @@
         <v>-0.2099056603773584</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-2.0</v>
+        <v>-1.1666666666666667</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.0</v>
+        <v>0.6266092996457882</v>
       </c>
       <c r="AG34" t="n">
         <v>0.0</v>
@@ -4327,10 +4321,10 @@
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D35" t="n">
         <v>-2.25</v>
@@ -4354,7 +4348,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6794615015976844</v>
+        <v>0.679461501597685</v>
       </c>
       <c r="L35" t="n">
         <v>3.55</v>
@@ -4411,13 +4405,13 @@
         <v>-0.07317073170731705</v>
       </c>
       <c r="AD35" t="n">
-        <v>4.0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.0</v>
+        <v>-2.25</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.0</v>
+        <v>0.7010488555325511</v>
       </c>
       <c r="AG35" t="n">
         <v>0.0</v>
@@ -4428,10 +4422,10 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D36" t="n">
         <v>-1.1333333333333333</v>
@@ -4455,7 +4449,7 @@
         <v>0.3194662480376766</v>
       </c>
       <c r="K36" t="n">
-        <v>0.6561121091631202</v>
+        <v>0.6561121091631203</v>
       </c>
       <c r="L36" t="n">
         <v>4.222222222222222</v>
@@ -4512,16 +4506,16 @@
         <v>-0.43116883116883137</v>
       </c>
       <c r="AD36" t="n">
-        <v>5.0</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="AE36" t="n">
-        <v>-3.0</v>
+        <v>-1.1333333333333333</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.0</v>
+        <v>0.6847745550427498</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.4</v>
+        <v>0.40952380952380957</v>
       </c>
     </row>
     <row r="37">
@@ -4529,10 +4523,10 @@
         <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D37" t="n">
         <v>-1.6470588235294117</v>
@@ -4556,7 +4550,7 @@
         <v>0.6734375</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7192975424790958</v>
+        <v>0.7192975424790956</v>
       </c>
       <c r="L37" t="n">
         <v>3.8461538461538463</v>
@@ -4613,16 +4607,16 @@
         <v>-0.12888888888888894</v>
       </c>
       <c r="AD37" t="n">
-        <v>8.0</v>
+        <v>2.823529411764706</v>
       </c>
       <c r="AE37" t="n">
-        <v>-3.0</v>
+        <v>-1.6470588235294117</v>
       </c>
       <c r="AF37" t="n">
-        <v>1.0</v>
+        <v>0.6256927214235076</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.142857142857143</v>
+        <v>0.6526785714285713</v>
       </c>
     </row>
     <row r="38">
@@ -4630,10 +4624,10 @@
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" t="n">
         <v>-2.230769230769231</v>
@@ -4657,7 +4651,7 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="K38" t="n">
-        <v>0.6948826958819585</v>
+        <v>0.6948826958819586</v>
       </c>
       <c r="L38" t="n">
         <v>6.519230769230769</v>
@@ -4714,13 +4708,13 @@
         <v>-0.8387096774193549</v>
       </c>
       <c r="AD38" t="n">
-        <v>7.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0</v>
+        <v>-2.230769230769231</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.0</v>
+        <v>0.6552566207738619</v>
       </c>
       <c r="AG38" t="n">
         <v>0.0</v>
@@ -4731,10 +4725,10 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D39" t="n">
         <v>-0.6666666666666666</v>
@@ -4815,16 +4809,16 @@
         <v>-0.3277525022747954</v>
       </c>
       <c r="AD39" t="n">
-        <v>10.0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AE39" t="n">
-        <v>-3.0</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.0</v>
+        <v>0.6110314654283273</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.0444444444444444</v>
+        <v>0.2341880341880342</v>
       </c>
     </row>
     <row r="40">
@@ -4832,10 +4826,10 @@
         <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" t="n">
         <v>-2.3846153846153846</v>
@@ -4859,7 +4853,7 @@
         <v>0.8446969696969697</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7067166389319385</v>
+        <v>0.7067166389319381</v>
       </c>
       <c r="L40" t="n">
         <v>1.8387096774193548</v>
@@ -4916,16 +4910,16 @@
         <v>-0.561933955691793</v>
       </c>
       <c r="AD40" t="n">
-        <v>12.0</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.0</v>
+        <v>-2.3846153846153846</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.0</v>
+        <v>0.5851366025279067</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.106060606060606</v>
+        <v>0.7606060606060607</v>
       </c>
     </row>
     <row r="41">
@@ -4933,10 +4927,10 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D41" t="n">
         <v>0.5</v>
@@ -4960,7 +4954,7 @@
         <v>0.7919132149901381</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7472947271454687</v>
+        <v>0.747294727145469</v>
       </c>
       <c r="L41" t="n">
         <v>4.131578947368421</v>
@@ -5017,13 +5011,13 @@
         <v>-0.26729559748427667</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.0</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.0</v>
+        <v>0.6103290506485994</v>
       </c>
       <c r="AG41" t="n">
         <v>0.0</v>
@@ -5034,10 +5028,10 @@
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42" t="n">
         <v>-2.769230769230769</v>
@@ -5061,7 +5055,7 @@
         <v>0.6300505050505051</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6814509521019754</v>
+        <v>0.6814509521019753</v>
       </c>
       <c r="L42" t="n">
         <v>1.4838709677419355</v>
@@ -5118,16 +5112,16 @@
         <v>-0.19847743338771093</v>
       </c>
       <c r="AD42" t="n">
-        <v>8.0</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.0</v>
+        <v>-2.769230769230769</v>
       </c>
       <c r="AF42" t="n">
-        <v>1.0</v>
+        <v>0.6541393906830052</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.178571428571429</v>
+        <v>0.47321428571428575</v>
       </c>
     </row>
     <row r="43">
@@ -5135,10 +5129,10 @@
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" t="n">
         <v>-1.3333333333333333</v>
@@ -5219,16 +5213,16 @@
         <v>-0.35285505124451</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.0</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="AE43" t="n">
-        <v>-3.0</v>
+        <v>-1.3333333333333333</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.0</v>
+        <v>0.7593142584334197</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.285714285714286</v>
+        <v>0.4515873015873016</v>
       </c>
     </row>
     <row r="44">
@@ -5236,10 +5230,10 @@
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" t="n">
         <v>-0.8666666666666667</v>
@@ -5263,7 +5257,7 @@
         <v>0.3963893249607535</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5528351157564726</v>
+        <v>0.5528351157564725</v>
       </c>
       <c r="L44" t="n">
         <v>6.206185567010309</v>
@@ -5320,16 +5314,16 @@
         <v>-0.12340425531914963</v>
       </c>
       <c r="AD44" t="n">
-        <v>5.0</v>
+        <v>3.2</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.0</v>
+        <v>-0.8666666666666667</v>
       </c>
       <c r="AF44" t="n">
-        <v>1.0</v>
+        <v>0.7149008725268416</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.2</v>
+        <v>0.2733333333333333</v>
       </c>
     </row>
     <row r="45">
@@ -5337,10 +5331,10 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" t="n">
         <v>-0.6875</v>
@@ -5364,7 +5358,7 @@
         <v>0.31786948853615515</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6109976549649963</v>
+        <v>0.6109976549649965</v>
       </c>
       <c r="L45" t="n">
         <v>2.888</v>
@@ -5421,16 +5415,16 @@
         <v>-0.38461538461538464</v>
       </c>
       <c r="AD45" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE45" t="n">
-        <v>-3.0</v>
+        <v>-0.6875</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.689655172413793</v>
+        <v>0.7074221693761219</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.0</v>
+        <v>0.35619047619047617</v>
       </c>
     </row>
     <row r="46">
@@ -5438,10 +5432,10 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" t="n">
         <v>-1.3846153846153846</v>
@@ -5522,16 +5516,16 @@
         <v>-0.6380697050938341</v>
       </c>
       <c r="AD46" t="n">
-        <v>12.0</v>
+        <v>2.769230769230769</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.0</v>
+        <v>-1.3846153846153846</v>
       </c>
       <c r="AF46" t="n">
-        <v>1.0</v>
+        <v>0.581488077140251</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.6988636363636365</v>
       </c>
     </row>
     <row r="47">
@@ -5539,10 +5533,10 @@
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" t="n">
         <v>-0.23076923076923078</v>
@@ -5566,7 +5560,7 @@
         <v>0.9002525252525253</v>
       </c>
       <c r="K47" t="n">
-        <v>0.758488450651388</v>
+        <v>0.7584884506513884</v>
       </c>
       <c r="L47" t="n">
         <v>2.7142857142857144</v>
@@ -5623,16 +5617,16 @@
         <v>-0.6614210777300907</v>
       </c>
       <c r="AD47" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.0</v>
+        <v>-0.23076923076923078</v>
       </c>
       <c r="AF47" t="n">
-        <v>1.0</v>
+        <v>0.5931808576039346</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.0</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="48">
@@ -5640,10 +5634,10 @@
         <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D48" t="n">
         <v>-0.15384615384615385</v>
@@ -5667,7 +5661,7 @@
         <v>1.0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.775990762260204</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="L48" t="n">
         <v>3.25</v>
@@ -5724,13 +5718,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD48" t="n">
-        <v>12.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE48" t="n">
-        <v>-1.0</v>
+        <v>-0.15384615384615385</v>
       </c>
       <c r="AF48" t="n">
-        <v>1.0</v>
+        <v>0.5585284280936459</v>
       </c>
       <c r="AG48" t="n">
         <v>0.0</v>
@@ -5741,10 +5735,10 @@
         <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" t="n">
         <v>-1.0</v>
@@ -5768,7 +5762,7 @@
         <v>0.6429752066115703</v>
       </c>
       <c r="K49" t="n">
-        <v>0.6001663826186268</v>
+        <v>0.6001663826186264</v>
       </c>
       <c r="L49" t="n">
         <v>3.462686567164179</v>
@@ -5825,16 +5819,16 @@
         <v>-0.37931034482758624</v>
       </c>
       <c r="AD49" t="n">
-        <v>10.0</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AF49" t="n">
-        <v>1.0</v>
+        <v>0.6488269470467615</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.222222222222222</v>
+        <v>0.6414141414141414</v>
       </c>
     </row>
     <row r="50">
@@ -5842,10 +5836,10 @@
         <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" t="n">
         <v>0.0</v>
@@ -5869,7 +5863,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535702</v>
       </c>
       <c r="L50" t="n">
         <v>1.52</v>
@@ -5926,13 +5920,13 @@
         <v>-0.9882491186839014</v>
       </c>
       <c r="AD50" t="n">
-        <v>2.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE50" t="n">
         <v>0.0</v>
       </c>
       <c r="AF50" t="n">
-        <v>1.0</v>
+        <v>0.7218178241196146</v>
       </c>
       <c r="AG50" t="n">
         <v>0.0</v>
@@ -5943,10 +5937,10 @@
         <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" t="n">
         <v>-0.08333333333333333</v>
@@ -5970,7 +5964,7 @@
         <v>0.8793388429752066</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7649371473690573</v>
+        <v>0.7649371473690574</v>
       </c>
       <c r="L51" t="n">
         <v>1.6666666666666667</v>
@@ -6027,13 +6021,13 @@
         <v>-0.6559139784946237</v>
       </c>
       <c r="AD51" t="n">
-        <v>8.0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.0</v>
+        <v>-0.08333333333333333</v>
       </c>
       <c r="AF51" t="n">
-        <v>1.0</v>
+        <v>0.6005997474747473</v>
       </c>
       <c r="AG51" t="n">
         <v>0.0</v>
@@ -6044,10 +6038,10 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52" t="n">
         <v>-0.6153846153846154</v>
@@ -6071,7 +6065,7 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6991548881373778</v>
+        <v>0.6991548881373775</v>
       </c>
       <c r="L52" t="n">
         <v>3.4375</v>
@@ -6128,16 +6122,16 @@
         <v>-0.6112621359223303</v>
       </c>
       <c r="AD52" t="n">
-        <v>11.0</v>
+        <v>2.769230769230769</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.0</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.0</v>
+        <v>0.6016432868796162</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.7582491582491583</v>
       </c>
     </row>
     <row r="53">
@@ -6145,10 +6139,10 @@
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" t="n">
         <v>0.38461538461538464</v>
@@ -6229,13 +6223,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD53" t="n">
-        <v>12.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.0</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AF53" t="n">
-        <v>1.0</v>
+        <v>0.5585284280936459</v>
       </c>
       <c r="AG53" t="n">
         <v>0.0</v>
@@ -6246,10 +6240,10 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D54" t="n">
         <v>0.23076923076923078</v>
@@ -6330,13 +6324,13 @@
         <v>-0.479638009049774</v>
       </c>
       <c r="AD54" t="n">
-        <v>7.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.0</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="AF54" t="n">
-        <v>1.0</v>
+        <v>0.6078000654923732</v>
       </c>
       <c r="AG54" t="n">
         <v>0.0</v>
@@ -6347,10 +6341,10 @@
         <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" t="n">
         <v>1.2307692307692308</v>
@@ -6431,16 +6425,16 @@
         <v>-0.25148514851485176</v>
       </c>
       <c r="AD55" t="n">
-        <v>6.0</v>
+        <v>4.3076923076923075</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.0</v>
+        <v>1.2307692307692308</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.833333333333333</v>
+        <v>0.7186196555893791</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5611111111111111</v>
       </c>
     </row>
     <row r="56">
@@ -6448,10 +6442,10 @@
         <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" t="n">
         <v>-0.4166666666666667</v>
@@ -6475,7 +6469,7 @@
         <v>1.0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7683375209644603</v>
+        <v>0.7683375209644598</v>
       </c>
       <c r="L56" t="n">
         <v>2.1379310344827585</v>
@@ -6532,13 +6526,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD56" t="n">
-        <v>11.0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.0</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="AF56" t="n">
-        <v>1.0</v>
+        <v>0.5634920634920636</v>
       </c>
       <c r="AG56" t="n">
         <v>0.0</v>
@@ -6549,10 +6543,10 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" t="n">
         <v>-0.42857142857142855</v>
@@ -6576,7 +6570,7 @@
         <v>0.7001972386587771</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7214725650655626</v>
+        <v>0.7214725650655627</v>
       </c>
       <c r="L57" t="n">
         <v>4.585365853658536</v>
@@ -6633,13 +6627,13 @@
         <v>-0.48477157360406076</v>
       </c>
       <c r="AD57" t="n">
-        <v>5.0</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.0</v>
+        <v>-0.42857142857142855</v>
       </c>
       <c r="AF57" t="n">
-        <v>1.0</v>
+        <v>0.6396799641187764</v>
       </c>
       <c r="AG57" t="n">
         <v>0.0</v>
@@ -6650,10 +6644,10 @@
         <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" t="n">
         <v>-1.0555555555555556</v>
@@ -6677,7 +6671,7 @@
         <v>0.740484429065744</v>
       </c>
       <c r="K58" t="n">
-        <v>0.7467269103335876</v>
+        <v>0.746726910333588</v>
       </c>
       <c r="L58" t="n">
         <v>2.727272727272727</v>
@@ -6734,13 +6728,13 @@
         <v>-0.16315789473684197</v>
       </c>
       <c r="AD58" t="n">
-        <v>5.0</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.0</v>
+        <v>-1.0555555555555556</v>
       </c>
       <c r="AF58" t="n">
-        <v>1.0</v>
+        <v>0.6122245516114628</v>
       </c>
       <c r="AG58" t="n">
         <v>0.0</v>
@@ -6751,10 +6745,10 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D59" t="n">
         <v>-0.5384615384615384</v>
@@ -6778,7 +6772,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6864100233833476</v>
+        <v>0.6864100233833473</v>
       </c>
       <c r="L59" t="n">
         <v>2.7222222222222223</v>
@@ -6835,13 +6829,13 @@
         <v>-0.2</v>
       </c>
       <c r="AD59" t="n">
-        <v>4.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE59" t="n">
-        <v>0.0</v>
+        <v>-0.5384615384615384</v>
       </c>
       <c r="AF59" t="n">
-        <v>1.0</v>
+        <v>0.6287299445194181</v>
       </c>
       <c r="AG59" t="n">
         <v>0.0</v>
@@ -6852,10 +6846,10 @@
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" t="n">
         <v>-1.368421052631579</v>
@@ -6879,7 +6873,7 @@
         <v>0.5250544662309368</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6096235412027466</v>
+        <v>0.6096235412027469</v>
       </c>
       <c r="L60" t="n">
         <v>3.408333333333333</v>
@@ -6936,16 +6930,16 @@
         <v>-0.29166666666666674</v>
       </c>
       <c r="AD60" t="n">
-        <v>6.0</v>
+        <v>3.263157894736842</v>
       </c>
       <c r="AE60" t="n">
-        <v>-3.0</v>
+        <v>-1.368421052631579</v>
       </c>
       <c r="AF60" t="n">
-        <v>1.0</v>
+        <v>0.6880745776766</v>
       </c>
       <c r="AG60" t="n">
-        <v>0.2</v>
+        <v>0.40325814536340854</v>
       </c>
     </row>
     <row r="61">
@@ -6953,10 +6947,10 @@
         <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D61" t="n">
         <v>-0.6923076923076923</v>
@@ -6980,7 +6974,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6303361469402873</v>
+        <v>0.6303361469402874</v>
       </c>
       <c r="L61" t="n">
         <v>2.65</v>
@@ -7037,13 +7031,13 @@
         <v>-0.13043478260869637</v>
       </c>
       <c r="AD61" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.0</v>
+        <v>-0.6923076923076923</v>
       </c>
       <c r="AF61" t="n">
-        <v>1.0</v>
+        <v>0.731449842155488</v>
       </c>
       <c r="AG61" t="n">
         <v>0.0</v>
@@ -7054,10 +7048,10 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D62" t="n">
         <v>0.6923076923076923</v>
@@ -7081,7 +7075,7 @@
         <v>0.9381313131313131</v>
       </c>
       <c r="K62" t="n">
-        <v>0.7419796269483416</v>
+        <v>0.7419796269483414</v>
       </c>
       <c r="L62" t="n">
         <v>1.6875</v>
@@ -7138,16 +7132,16 @@
         <v>-0.7763157894736843</v>
       </c>
       <c r="AD62" t="n">
-        <v>12.0</v>
+        <v>2.3076923076923075</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.0</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="AF62" t="n">
-        <v>1.0</v>
+        <v>0.5698214828649613</v>
       </c>
       <c r="AG62" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.6757575757575759</v>
       </c>
     </row>
     <row r="63">
@@ -7155,10 +7149,10 @@
         <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D63" t="n">
         <v>-0.6842105263157895</v>
@@ -7182,7 +7176,7 @@
         <v>0.7915456305979182</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7704379740217013</v>
+        <v>0.7704379740217012</v>
       </c>
       <c r="L63" t="n">
         <v>4.157407407407407</v>
@@ -7239,16 +7233,16 @@
         <v>-0.3315128345166575</v>
       </c>
       <c r="AD63" t="n">
-        <v>10.0</v>
+        <v>2.4210526315789473</v>
       </c>
       <c r="AE63" t="n">
-        <v>0.0</v>
+        <v>-0.6842105263157895</v>
       </c>
       <c r="AF63" t="n">
-        <v>1.0</v>
+        <v>0.5949563429154252</v>
       </c>
       <c r="AG63" t="n">
-        <v>0.0222222222222222</v>
+        <v>0.30740740740740735</v>
       </c>
     </row>
     <row r="64">
@@ -7256,10 +7250,10 @@
         <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D64" t="n">
         <v>-1.0</v>
@@ -7283,7 +7277,7 @@
         <v>0.3586456278763971</v>
       </c>
       <c r="K64" t="n">
-        <v>0.6591804531074175</v>
+        <v>0.6591804531074174</v>
       </c>
       <c r="L64" t="n">
         <v>5.34</v>
@@ -7340,16 +7334,16 @@
         <v>-0.3267882187938283</v>
       </c>
       <c r="AD64" t="n">
-        <v>5.0</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="AE64" t="n">
-        <v>-3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AF64" t="n">
-        <v>1.0</v>
+        <v>0.7296513894066733</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.3</v>
+        <v>0.4818181818181818</v>
       </c>
     </row>
     <row r="65">
@@ -7357,10 +7351,10 @@
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D65" t="n">
         <v>-0.4</v>
@@ -7384,7 +7378,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7670059672747956</v>
+        <v>0.7670059672747954</v>
       </c>
       <c r="L65" t="n">
         <v>4.764705882352941</v>
@@ -7441,13 +7435,13 @@
         <v>-0.9444444444444444</v>
       </c>
       <c r="AD65" t="n">
-        <v>2.0</v>
+        <v>1.8666666666666667</v>
       </c>
       <c r="AE65" t="n">
-        <v>0.0</v>
+        <v>-0.4</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.961538461538461</v>
+        <v>0.6936707374093941</v>
       </c>
       <c r="AG65" t="n">
         <v>0.0</v>
@@ -7458,10 +7452,10 @@
         <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D66" t="n">
         <v>-1.5384615384615385</v>
@@ -7542,16 +7536,16 @@
         <v>-0.6129032258064515</v>
       </c>
       <c r="AD66" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE66" t="n">
-        <v>-3.0</v>
+        <v>-1.5384615384615385</v>
       </c>
       <c r="AF66" t="n">
-        <v>1.0</v>
+        <v>0.660036636780582</v>
       </c>
       <c r="AG66" t="n">
-        <v>0.166666666666667</v>
+        <v>0.2666666666666668</v>
       </c>
     </row>
     <row r="67">
@@ -7559,10 +7553,10 @@
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D67" t="n">
         <v>-1.0</v>
@@ -7586,7 +7580,7 @@
         <v>0.6301775147928994</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6487310688403934</v>
+        <v>0.6487310688403933</v>
       </c>
       <c r="L67" t="n">
         <v>2.967741935483871</v>
@@ -7643,13 +7637,13 @@
         <v>-0.4313099041533548</v>
       </c>
       <c r="AD67" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE67" t="n">
-        <v>-2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AF67" t="n">
-        <v>1.0</v>
+        <v>0.6407596371882086</v>
       </c>
       <c r="AG67" t="n">
         <v>0.0</v>
@@ -7660,10 +7654,10 @@
         <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68" t="n">
         <v>-0.7142857142857143</v>
@@ -7687,7 +7681,7 @@
         <v>0.5907297830374754</v>
       </c>
       <c r="K68" t="n">
-        <v>0.6972948089468822</v>
+        <v>0.6972948089468826</v>
       </c>
       <c r="L68" t="n">
         <v>4.645161290322581</v>
@@ -7744,16 +7738,16 @@
         <v>-0.41830065359477103</v>
       </c>
       <c r="AD68" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE68" t="n">
-        <v>0.0</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="AF68" t="n">
-        <v>1.0</v>
+        <v>0.6638271460641795</v>
       </c>
       <c r="AG68" t="n">
-        <v>0.166666666666667</v>
+        <v>0.19047619047619058</v>
       </c>
     </row>
     <row r="69">
@@ -7761,10 +7755,10 @@
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D69" t="n">
         <v>-1.6153846153846154</v>
@@ -7845,16 +7839,16 @@
         <v>-0.16031746031746022</v>
       </c>
       <c r="AD69" t="n">
-        <v>6.0</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="AE69" t="n">
-        <v>0.0</v>
+        <v>-1.6153846153846154</v>
       </c>
       <c r="AF69" t="n">
-        <v>0.954545454545454</v>
+        <v>0.7086869556619251</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.2</v>
+        <v>0.2606060606060606</v>
       </c>
     </row>
     <row r="70">
@@ -7862,10 +7856,10 @@
         <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D70" t="n">
         <v>-1.3846153846153846</v>
@@ -7889,7 +7883,7 @@
         <v>1.0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.775990762260204</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="L70" t="n">
         <v>4.425531914893617</v>
@@ -7946,13 +7940,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD70" t="n">
-        <v>12.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE70" t="n">
-        <v>-3.0</v>
+        <v>-1.3846153846153846</v>
       </c>
       <c r="AF70" t="n">
-        <v>1.0</v>
+        <v>0.5585284280936459</v>
       </c>
       <c r="AG70" t="n">
         <v>0.0</v>
@@ -7963,10 +7957,10 @@
         <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D71" t="n">
         <v>-3.0</v>
@@ -7990,7 +7984,7 @@
         <v>0.1671085858585859</v>
       </c>
       <c r="K71" t="n">
-        <v>0.41501885289083906</v>
+        <v>0.41501885289083923</v>
       </c>
       <c r="L71" t="n">
         <v>4.8977272727272725</v>
@@ -8045,16 +8039,16 @@
         <v>-0.4635520212060964</v>
       </c>
       <c r="AD71" t="n">
-        <v>4.0</v>
+        <v>6.461538461538462</v>
       </c>
       <c r="AE71" t="n">
         <v>-3.0</v>
       </c>
       <c r="AF71" t="n">
-        <v>0.6</v>
+        <v>0.7087044534412955</v>
       </c>
       <c r="AG71" t="n">
-        <v>1.0</v>
+        <v>0.8103452103452103</v>
       </c>
     </row>
     <row r="72">
@@ -8062,10 +8056,10 @@
         <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D72" t="n">
         <v>-2.769230769230769</v>
@@ -8089,7 +8083,7 @@
         <v>0.40622895622895616</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5890297335340977</v>
+        <v>0.589029733534097</v>
       </c>
       <c r="L72" t="n">
         <v>6.423076923076923</v>
@@ -8146,16 +8140,16 @@
         <v>-0.3617472434266336</v>
       </c>
       <c r="AD72" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE72" t="n">
-        <v>0.0</v>
+        <v>-2.769230769230769</v>
       </c>
       <c r="AF72" t="n">
-        <v>1.0</v>
+        <v>0.688754312244895</v>
       </c>
       <c r="AG72" t="n">
-        <v>0.222222222222222</v>
+        <v>0.5042735042735043</v>
       </c>
     </row>
     <row r="73">
@@ -8163,10 +8157,10 @@
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D73" t="n">
         <v>-1.0</v>
@@ -8190,7 +8184,7 @@
         <v>0.5128205128205128</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6541075676695762</v>
+        <v>0.6541075676695756</v>
       </c>
       <c r="L73" t="n">
         <v>5.931818181818182</v>
@@ -8247,16 +8241,16 @@
         <v>-0.21794871794871837</v>
       </c>
       <c r="AD73" t="n">
-        <v>4.0</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="AE73" t="n">
-        <v>-3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AF73" t="n">
-        <v>1.0</v>
+        <v>0.6878842371819917</v>
       </c>
       <c r="AG73" t="n">
-        <v>0.166666666666667</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="74">
@@ -8264,10 +8258,10 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" t="n">
         <v>-0.7692307692307693</v>
@@ -8291,7 +8285,7 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7419526491669419</v>
+        <v>0.7419526491669418</v>
       </c>
       <c r="L74" t="n">
         <v>3.9622641509433962</v>
@@ -8348,13 +8342,13 @@
         <v>-0.4</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE74" t="n">
-        <v>0.0</v>
+        <v>-0.7692307692307693</v>
       </c>
       <c r="AF74" t="n">
-        <v>1.0</v>
+        <v>0.6170822281167109</v>
       </c>
       <c r="AG74" t="n">
         <v>0.0</v>
@@ -8365,10 +8359,10 @@
         <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" t="n">
         <v>-0.38461538461538464</v>
@@ -8392,7 +8386,7 @@
         <v>0.6856060606060606</v>
       </c>
       <c r="K75" t="n">
-        <v>0.6903631718354526</v>
+        <v>0.6903631718354523</v>
       </c>
       <c r="L75" t="n">
         <v>1.72</v>
@@ -8449,13 +8443,13 @@
         <v>-0.07784431137724564</v>
       </c>
       <c r="AD75" t="n">
-        <v>4.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE75" t="n">
-        <v>-3.0</v>
+        <v>-0.38461538461538464</v>
       </c>
       <c r="AF75" t="n">
-        <v>1.0</v>
+        <v>0.6382940684759759</v>
       </c>
       <c r="AG75" t="n">
         <v>0.0</v>
@@ -8466,10 +8460,10 @@
         <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" t="n">
         <v>-0.7692307692307693</v>
@@ -8493,7 +8487,7 @@
         <v>0.39730639730639733</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6646145954904612</v>
+        <v>0.6646145954904615</v>
       </c>
       <c r="L76" t="n">
         <v>3.475</v>
@@ -8550,16 +8544,16 @@
         <v>-0.3017319963536909</v>
       </c>
       <c r="AD76" t="n">
-        <v>2.0</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="AE76" t="n">
-        <v>0.0</v>
+        <v>-0.7692307692307693</v>
       </c>
       <c r="AF76" t="n">
-        <v>0.869565217391304</v>
+        <v>0.7634822288522587</v>
       </c>
       <c r="AG76" t="n">
-        <v>0.0</v>
+        <v>0.6626984126984128</v>
       </c>
     </row>
     <row r="77">
@@ -8567,10 +8561,10 @@
         <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" t="n">
         <v>-1.6153846153846154</v>
@@ -8594,7 +8588,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="K77" t="n">
-        <v>0.6864100233833473</v>
+        <v>0.6864100233833474</v>
       </c>
       <c r="L77" t="n">
         <v>2.888888888888889</v>
@@ -8651,13 +8645,13 @@
         <v>-0.2</v>
       </c>
       <c r="AD77" t="n">
-        <v>4.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE77" t="n">
-        <v>0.0</v>
+        <v>-1.6153846153846154</v>
       </c>
       <c r="AF77" t="n">
-        <v>1.0</v>
+        <v>0.6287299445194181</v>
       </c>
       <c r="AG77" t="n">
         <v>0.0</v>
@@ -8668,10 +8662,10 @@
         <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" t="n">
         <v>-3.0</v>
@@ -8750,13 +8744,13 @@
         <v>-0.6560885608856084</v>
       </c>
       <c r="AD78" t="n">
-        <v>2.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE78" t="n">
         <v>-3.0</v>
       </c>
       <c r="AF78" t="n">
-        <v>0.64</v>
+        <v>0.607838827838828</v>
       </c>
       <c r="AG78" t="n">
         <v>0.0</v>
@@ -8767,10 +8761,10 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" t="n">
         <v>-2.0</v>
@@ -8794,7 +8788,7 @@
         <v>0.5851239669421487</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6929632483024005</v>
+        <v>0.6929632483024004</v>
       </c>
       <c r="L79" t="n">
         <v>1.7272727272727273</v>
@@ -8851,13 +8845,13 @@
         <v>-0.16260162601626008</v>
       </c>
       <c r="AD79" t="n">
-        <v>3.0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="AE79" t="n">
-        <v>-3.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AF79" t="n">
-        <v>0.916666666666667</v>
+        <v>0.6816882604173121</v>
       </c>
       <c r="AG79" t="n">
         <v>0.0</v>
@@ -8868,10 +8862,10 @@
         <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" t="n">
         <v>-1.0</v>
@@ -8895,7 +8889,7 @@
         <v>0.7563131313131313</v>
       </c>
       <c r="K80" t="n">
-        <v>0.6818432807724647</v>
+        <v>0.6818432807724646</v>
       </c>
       <c r="L80" t="n">
         <v>1.84375</v>
@@ -8952,16 +8946,16 @@
         <v>-0.17799352750809064</v>
       </c>
       <c r="AD80" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE80" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AF80" t="n">
-        <v>1.0</v>
+        <v>0.623153965461658</v>
       </c>
       <c r="AG80" t="n">
-        <v>0.0</v>
+        <v>0.33333333333333326</v>
       </c>
     </row>
     <row r="81">
@@ -8969,10 +8963,10 @@
         <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" t="n">
         <v>-1.1333333333333333</v>
@@ -9053,16 +9047,16 @@
         <v>-0.3955715140634348</v>
       </c>
       <c r="AD81" t="n">
-        <v>5.0</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="AE81" t="n">
-        <v>0.0</v>
+        <v>-1.1333333333333333</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.916666666666667</v>
+        <v>0.6883964364475562</v>
       </c>
       <c r="AG81" t="n">
-        <v>0.3</v>
+        <v>0.6246753246753247</v>
       </c>
     </row>
     <row r="82">
@@ -9070,10 +9064,10 @@
         <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" t="n">
         <v>-2.6153846153846154</v>
@@ -9097,7 +9091,7 @@
         <v>1.0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.775990762260204</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="L82" t="n">
         <v>1.7446808510638299</v>
@@ -9154,13 +9148,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD82" t="n">
-        <v>12.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE82" t="n">
-        <v>-3.0</v>
+        <v>-2.6153846153846154</v>
       </c>
       <c r="AF82" t="n">
-        <v>1.0</v>
+        <v>0.5585284280936459</v>
       </c>
       <c r="AG82" t="n">
         <v>0.0</v>
@@ -9171,10 +9165,10 @@
         <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" t="n">
         <v>-1.4615384615384615</v>
@@ -9198,7 +9192,7 @@
         <v>0.8907828282828283</v>
       </c>
       <c r="K83" t="n">
-        <v>0.7628503064972033</v>
+        <v>0.7628503064972031</v>
       </c>
       <c r="L83" t="n">
         <v>1.9069767441860466</v>
@@ -9255,13 +9249,13 @@
         <v>-0.582236842105263</v>
       </c>
       <c r="AD83" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE83" t="n">
-        <v>0.0</v>
+        <v>-1.4615384615384615</v>
       </c>
       <c r="AF83" t="n">
-        <v>1.0</v>
+        <v>0.5920233612541306</v>
       </c>
       <c r="AG83" t="n">
         <v>0.0</v>
@@ -9272,10 +9266,10 @@
         <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" t="n">
         <v>-1.411764705882353</v>
@@ -9299,7 +9293,7 @@
         <v>0.5661718750000001</v>
       </c>
       <c r="K84" t="n">
-        <v>0.6724618248782626</v>
+        <v>0.6724618248782627</v>
       </c>
       <c r="L84" t="n">
         <v>2.6161137440758293</v>
@@ -9356,16 +9350,16 @@
         <v>-0.3609565829017203</v>
       </c>
       <c r="AD84" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE84" t="n">
-        <v>0.0</v>
+        <v>-1.411764705882353</v>
       </c>
       <c r="AF84" t="n">
-        <v>1.0</v>
+        <v>0.6258907628942716</v>
       </c>
       <c r="AG84" t="n">
-        <v>0.205128205128205</v>
+        <v>0.5659622428853199</v>
       </c>
     </row>
     <row r="85">
@@ -9373,10 +9367,10 @@
         <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" t="n">
         <v>-0.4</v>
@@ -9400,7 +9394,7 @@
         <v>0.6891679748822606</v>
       </c>
       <c r="K85" t="n">
-        <v>0.691973782751383</v>
+        <v>0.6919737827513825</v>
       </c>
       <c r="L85" t="n">
         <v>1.375</v>
@@ -9457,16 +9451,16 @@
         <v>-0.2585616438356163</v>
       </c>
       <c r="AD85" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE85" t="n">
-        <v>-2.0</v>
+        <v>-0.4</v>
       </c>
       <c r="AF85" t="n">
-        <v>1.0</v>
+        <v>0.6426629795416982</v>
       </c>
       <c r="AG85" t="n">
-        <v>0.0</v>
+        <v>0.2047619047619047</v>
       </c>
     </row>
     <row r="86">
@@ -9474,10 +9468,10 @@
         <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D86" t="n">
         <v>-0.7142857142857143</v>
@@ -9501,7 +9495,7 @@
         <v>0.6439842209072978</v>
       </c>
       <c r="K86" t="n">
-        <v>0.6286140034427034</v>
+        <v>0.6286140034427037</v>
       </c>
       <c r="L86" t="n">
         <v>3.0714285714285716</v>
@@ -9558,16 +9552,16 @@
         <v>-0.20491803278688497</v>
       </c>
       <c r="AD86" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE86" t="n">
-        <v>0.0</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="AF86" t="n">
-        <v>1.0</v>
+        <v>0.6584126572703488</v>
       </c>
       <c r="AG86" t="n">
-        <v>0.0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="87">
@@ -9575,10 +9569,10 @@
         <v>117</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" t="n">
         <v>-2.769230769230769</v>
@@ -9602,7 +9596,7 @@
         <v>0.18550084175084178</v>
       </c>
       <c r="K87" t="n">
-        <v>0.48924340278679385</v>
+        <v>0.4892434027867939</v>
       </c>
       <c r="L87" t="n">
         <v>7.4</v>
@@ -9659,16 +9653,16 @@
         <v>-0.0037174721189577836</v>
       </c>
       <c r="AD87" t="n">
-        <v>3.0</v>
+        <v>2.769230769230769</v>
       </c>
       <c r="AE87" t="n">
-        <v>-3.0</v>
+        <v>-2.769230769230769</v>
       </c>
       <c r="AF87" t="n">
-        <v>0.916666666666667</v>
+        <v>0.8212040908825984</v>
       </c>
       <c r="AG87" t="n">
-        <v>0.0</v>
+        <v>0.10256410256410262</v>
       </c>
     </row>
     <row r="88">
@@ -9676,10 +9670,10 @@
         <v>118</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D88" t="n">
         <v>-2.8</v>
@@ -9703,7 +9697,7 @@
         <v>0.4403453689167976</v>
       </c>
       <c r="K88" t="n">
-        <v>0.6463453681635186</v>
+        <v>0.6463453681635187</v>
       </c>
       <c r="L88" t="n">
         <v>5.966101694915254</v>
@@ -9758,16 +9752,16 @@
         <v>-0.1282798833819244</v>
       </c>
       <c r="AD88" t="n">
-        <v>5.0</v>
+        <v>2.4</v>
       </c>
       <c r="AE88" t="n">
-        <v>-3.0</v>
+        <v>-2.8</v>
       </c>
       <c r="AF88" t="n">
-        <v>1.0</v>
+        <v>0.7004205126098291</v>
       </c>
       <c r="AG88" t="n">
-        <v>0.1</v>
+        <v>0.2466666666666667</v>
       </c>
     </row>
     <row r="89">
@@ -9775,10 +9769,10 @@
         <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D89" t="n">
         <v>-2.6</v>
@@ -9802,7 +9796,7 @@
         <v>0.7060439560439561</v>
       </c>
       <c r="K89" t="n">
-        <v>0.6669611518351822</v>
+        <v>0.6669611518351825</v>
       </c>
       <c r="L89" t="n">
         <v>2.127659574468085</v>
@@ -9857,16 +9851,16 @@
         <v>-0.17782909930715926</v>
       </c>
       <c r="AD89" t="n">
-        <v>5.0</v>
+        <v>2.2666666666666666</v>
       </c>
       <c r="AE89" t="n">
-        <v>-3.0</v>
+        <v>-2.6</v>
       </c>
       <c r="AF89" t="n">
-        <v>1.0</v>
+        <v>0.6357245797383172</v>
       </c>
       <c r="AG89" t="n">
-        <v>0.0</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="90">
@@ -9874,10 +9868,10 @@
         <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D90" t="n">
         <v>-0.23529411764705882</v>
@@ -9901,7 +9895,7 @@
         <v>0.8802083333333334</v>
       </c>
       <c r="K90" t="n">
-        <v>0.793045572864629</v>
+        <v>0.7930455728646292</v>
       </c>
       <c r="L90" t="n">
         <v>4.0588235294117645</v>
@@ -9958,16 +9952,16 @@
         <v>-0.5216434336023477</v>
       </c>
       <c r="AD90" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.0</v>
+        <v>-0.23529411764705882</v>
       </c>
       <c r="AF90" t="n">
-        <v>1.0</v>
+        <v>0.5842156298977327</v>
       </c>
       <c r="AG90" t="n">
-        <v>0.0</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="91">
@@ -9975,10 +9969,10 @@
         <v>121</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D91" t="n">
         <v>-2.25</v>
@@ -10002,7 +9996,7 @@
         <v>0.2819834710743802</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3286017616669817</v>
+        <v>0.3286017616669822</v>
       </c>
       <c r="L91" t="n">
         <v>3.2222222222222223</v>
@@ -10059,16 +10053,16 @@
         <v>-0.24271844660194175</v>
       </c>
       <c r="AD91" t="n">
-        <v>3.0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AE91" t="n">
-        <v>0.0</v>
+        <v>-2.25</v>
       </c>
       <c r="AF91" t="n">
-        <v>0.84</v>
+        <v>0.8135841923880718</v>
       </c>
       <c r="AG91" t="n">
-        <v>0.333333333333333</v>
+        <v>0.08333333333333325</v>
       </c>
     </row>
     <row r="92">
@@ -10076,10 +10070,10 @@
         <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D92" t="n">
         <v>-1.1538461538461537</v>
@@ -10103,7 +10097,7 @@
         <v>0.4972643097643097</v>
       </c>
       <c r="K92" t="n">
-        <v>0.6061860976384708</v>
+        <v>0.6061860976384703</v>
       </c>
       <c r="L92" t="n">
         <v>6.856060606060606</v>
@@ -10160,16 +10154,16 @@
         <v>-0.4539205155746513</v>
       </c>
       <c r="AD92" t="n">
-        <v>10.0</v>
+        <v>3.6923076923076925</v>
       </c>
       <c r="AE92" t="n">
-        <v>0.0</v>
+        <v>-1.1538461538461537</v>
       </c>
       <c r="AF92" t="n">
-        <v>1.0</v>
+        <v>0.6798167676886212</v>
       </c>
       <c r="AG92" t="n">
-        <v>0.177777777777778</v>
+        <v>0.6521367521367522</v>
       </c>
     </row>
     <row r="93">
@@ -10177,10 +10171,10 @@
         <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D93" t="n">
         <v>-2.076923076923077</v>
@@ -10204,7 +10198,7 @@
         <v>0.5464856902356902</v>
       </c>
       <c r="K93" t="n">
-        <v>0.6728497817027036</v>
+        <v>0.6728497817027043</v>
       </c>
       <c r="L93" t="n">
         <v>4.3076923076923075</v>
@@ -10261,13 +10255,13 @@
         <v>-0.3846153846153847</v>
       </c>
       <c r="AD93" t="n">
-        <v>6.0</v>
+        <v>2.3076923076923075</v>
       </c>
       <c r="AE93" t="n">
-        <v>-3.0</v>
+        <v>-2.076923076923077</v>
       </c>
       <c r="AF93" t="n">
-        <v>1.0</v>
+        <v>0.6923347564504964</v>
       </c>
       <c r="AG93" t="n">
         <v>0.0</v>
@@ -10278,10 +10272,10 @@
         <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D94" t="n">
         <v>-0.16666666666666666</v>
@@ -10305,7 +10299,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="K94" t="n">
-        <v>0.6794615015976846</v>
+        <v>0.6794615015976847</v>
       </c>
       <c r="L94" t="n">
         <v>3.696969696969697</v>
@@ -10362,13 +10356,13 @@
         <v>-0.07317073170731705</v>
       </c>
       <c r="AD94" t="n">
-        <v>3.0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="AE94" t="n">
-        <v>0.0</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="AF94" t="n">
-        <v>1.0</v>
+        <v>0.7010488555325511</v>
       </c>
       <c r="AG94" t="n">
         <v>0.0</v>
@@ -10379,10 +10373,10 @@
         <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D95" t="n">
         <v>-0.5384615384615384</v>
@@ -10406,7 +10400,7 @@
         <v>0.6382575757575758</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7514790618967374</v>
+        <v>0.7514790618967375</v>
       </c>
       <c r="L95" t="n">
         <v>2.227272727272727</v>
@@ -10463,16 +10457,16 @@
         <v>-0.6833667334669334</v>
       </c>
       <c r="AD95" t="n">
-        <v>3.0</v>
+        <v>2.1538461538461537</v>
       </c>
       <c r="AE95" t="n">
-        <v>0.0</v>
+        <v>-0.5384615384615384</v>
       </c>
       <c r="AF95" t="n">
-        <v>0.904761904761905</v>
+        <v>0.6761213402460087</v>
       </c>
       <c r="AG95" t="n">
-        <v>0.333333333333333</v>
+        <v>0.41428571428571426</v>
       </c>
     </row>
     <row r="96">
@@ -10480,10 +10474,10 @@
         <v>126</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D96" t="n">
         <v>-0.46153846153846156</v>
@@ -10564,16 +10558,16 @@
         <v>-0.5475797579757974</v>
       </c>
       <c r="AD96" t="n">
-        <v>10.0</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="AE96" t="n">
-        <v>0.0</v>
+        <v>-0.46153846153846156</v>
       </c>
       <c r="AF96" t="n">
-        <v>1.0</v>
+        <v>0.600380904742756</v>
       </c>
       <c r="AG96" t="n">
-        <v>0.0888888888888889</v>
+        <v>0.7320987654320987</v>
       </c>
     </row>
     <row r="97">
@@ -10581,10 +10575,10 @@
         <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D97" t="n">
         <v>-0.6153846153846154</v>
@@ -10665,16 +10659,16 @@
         <v>-0.18954248366013055</v>
       </c>
       <c r="AD97" t="n">
-        <v>6.0</v>
+        <v>2.1538461538461537</v>
       </c>
       <c r="AE97" t="n">
-        <v>0.0</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="AF97" t="n">
-        <v>1.0</v>
+        <v>0.6256680161943321</v>
       </c>
       <c r="AG97" t="n">
-        <v>0.133333333333333</v>
+        <v>0.3523809523809523</v>
       </c>
     </row>
     <row r="98">
@@ -10682,10 +10676,10 @@
         <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D98" t="n">
         <v>-0.6153846153846154</v>
@@ -10709,7 +10703,7 @@
         <v>1.0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.775990762260204</v>
+        <v>0.7759907622602042</v>
       </c>
       <c r="L98" t="n">
         <v>1.0</v>
@@ -10766,13 +10760,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD98" t="n">
-        <v>12.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE98" t="n">
-        <v>0.0</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="AF98" t="n">
-        <v>1.0</v>
+        <v>0.5585284280936459</v>
       </c>
       <c r="AG98" t="n">
         <v>0.0</v>
@@ -10783,10 +10777,10 @@
         <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D99" t="n">
         <v>-0.38461538461538464</v>
@@ -10867,16 +10861,16 @@
         <v>-0.8935950413223142</v>
       </c>
       <c r="AD99" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE99" t="n">
-        <v>0.0</v>
+        <v>-0.38461538461538464</v>
       </c>
       <c r="AF99" t="n">
-        <v>1.0</v>
+        <v>0.5621769534813016</v>
       </c>
       <c r="AG99" t="n">
-        <v>0.0151515151515152</v>
+        <v>0.6717171717171717</v>
       </c>
     </row>
     <row r="100">
@@ -10884,10 +10878,10 @@
         <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D100" t="n">
         <v>-1.1666666666666667</v>
@@ -10968,13 +10962,13 @@
         <v>-0.7262313860252004</v>
       </c>
       <c r="AD100" t="n">
-        <v>9.0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="AE100" t="n">
-        <v>0.0</v>
+        <v>-1.1666666666666667</v>
       </c>
       <c r="AF100" t="n">
-        <v>1.0</v>
+        <v>0.5861105545537524</v>
       </c>
       <c r="AG100" t="n">
         <v>0.0</v>
@@ -10985,10 +10979,10 @@
         <v>131</v>
       </c>
       <c r="B101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D101" t="n">
         <v>-0.07142857142857142</v>
@@ -11012,7 +11006,7 @@
         <v>0.5019723865877712</v>
       </c>
       <c r="K101" t="n">
-        <v>0.6964914291399165</v>
+        <v>0.696491429139916</v>
       </c>
       <c r="L101" t="n">
         <v>1.5</v>
@@ -11069,13 +11063,13 @@
         <v>-0.15923566878980935</v>
       </c>
       <c r="AD101" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE101" t="n">
-        <v>0.0</v>
+        <v>-0.07142857142857142</v>
       </c>
       <c r="AF101" t="n">
-        <v>0.88235294117647</v>
+        <v>0.7064504120268517</v>
       </c>
       <c r="AG101" t="n">
         <v>0.0</v>
@@ -11086,10 +11080,10 @@
         <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C102" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D102" t="n">
         <v>-0.8461538461538461</v>
@@ -11170,13 +11164,13 @@
         <v>-0.08333333333333326</v>
       </c>
       <c r="AD102" t="n">
-        <v>5.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE102" t="n">
-        <v>0.0</v>
+        <v>-0.8461538461538461</v>
       </c>
       <c r="AF102" t="n">
-        <v>1.0</v>
+        <v>0.6218589267784156</v>
       </c>
       <c r="AG102" t="n">
         <v>0.0</v>
@@ -11187,10 +11181,10 @@
         <v>133</v>
       </c>
       <c r="B103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D103" t="n">
         <v>-2.6923076923076925</v>
@@ -11214,7 +11208,7 @@
         <v>0.23758417508417512</v>
       </c>
       <c r="K103" t="n">
-        <v>0.5248565426737829</v>
+        <v>0.5248565426737827</v>
       </c>
       <c r="L103" t="n">
         <v>5.855555555555555</v>
@@ -11271,16 +11265,16 @@
         <v>-0.038961038961039286</v>
       </c>
       <c r="AD103" t="n">
-        <v>3.0</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="AE103" t="n">
-        <v>0.0</v>
+        <v>-2.6923076923076925</v>
       </c>
       <c r="AF103" t="n">
-        <v>0.869565217391304</v>
+        <v>0.7567366449211196</v>
       </c>
       <c r="AG103" t="n">
-        <v>0.666666666666667</v>
+        <v>0.35277777777777775</v>
       </c>
     </row>
     <row r="104">
@@ -11288,10 +11282,10 @@
         <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D104" t="n">
         <v>0.5</v>
@@ -11315,7 +11309,7 @@
         <v>0.5140495867768595</v>
       </c>
       <c r="K104" t="n">
-        <v>0.5035429159959739</v>
+        <v>0.503542915995974</v>
       </c>
       <c r="L104" t="n">
         <v>4.011627906976744</v>
@@ -11372,16 +11366,16 @@
         <v>-0.12</v>
       </c>
       <c r="AD104" t="n">
-        <v>4.0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AE104" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AF104" t="n">
-        <v>0.857142857142857</v>
+        <v>0.7038043192231723</v>
       </c>
       <c r="AG104" t="n">
-        <v>0.166666666666667</v>
+        <v>0.2266666666666666</v>
       </c>
     </row>
     <row r="105">
@@ -11389,10 +11383,10 @@
         <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D105" t="n">
         <v>-1.0</v>
@@ -11416,7 +11410,7 @@
         <v>0.5088383838383839</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5298498999513521</v>
+        <v>0.5298498999513519</v>
       </c>
       <c r="L105" t="n">
         <v>2.2045454545454546</v>
@@ -11473,16 +11467,16 @@
         <v>-0.26378896882493935</v>
       </c>
       <c r="AD105" t="n">
-        <v>4.0</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="AE105" t="n">
         <v>-1.0</v>
       </c>
       <c r="AF105" t="n">
-        <v>1.0</v>
+        <v>0.7168803672576528</v>
       </c>
       <c r="AG105" t="n">
-        <v>0.166666666666667</v>
+        <v>0.5222222222222223</v>
       </c>
     </row>
     <row r="106">
@@ -11490,10 +11484,10 @@
         <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D106" t="n">
         <v>-1.5</v>
@@ -11517,7 +11511,7 @@
         <v>0.5801652892561984</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5996258034517241</v>
+        <v>0.5996258034517246</v>
       </c>
       <c r="L106" t="n">
         <v>1.588235294117647</v>
@@ -11574,13 +11568,13 @@
         <v>-0.6754966887417219</v>
       </c>
       <c r="AD106" t="n">
-        <v>3.0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="AE106" t="n">
-        <v>0.0</v>
+        <v>-1.5</v>
       </c>
       <c r="AF106" t="n">
-        <v>1.0</v>
+        <v>0.6745602093045053</v>
       </c>
       <c r="AG106" t="n">
         <v>0.0</v>
@@ -11591,10 +11585,10 @@
         <v>137</v>
       </c>
       <c r="B107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D107" t="n">
         <v>-1.4615384615384615</v>
@@ -11618,7 +11612,7 @@
         <v>0.577020202020202</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5919173910257379</v>
+        <v>0.5919173910257378</v>
       </c>
       <c r="L107" t="n">
         <v>2.7625</v>
@@ -11675,16 +11669,16 @@
         <v>-0.20491803278688578</v>
       </c>
       <c r="AD107" t="n">
-        <v>7.0</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="AE107" t="n">
-        <v>0.0</v>
+        <v>-1.4615384615384615</v>
       </c>
       <c r="AF107" t="n">
-        <v>1.0</v>
+        <v>0.6800009236017288</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.142857142857143</v>
+        <v>0.3827838827838827</v>
       </c>
     </row>
     <row r="108">
@@ -11692,10 +11686,10 @@
         <v>138</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C108" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D108" t="n">
         <v>-1.3076923076923077</v>
@@ -11719,7 +11713,7 @@
         <v>0.509469696969697</v>
       </c>
       <c r="K108" t="n">
-        <v>0.6856155533238777</v>
+        <v>0.6856155533238778</v>
       </c>
       <c r="L108" t="n">
         <v>2.8</v>
@@ -11776,16 +11770,16 @@
         <v>-0.2414089347079042</v>
       </c>
       <c r="AD108" t="n">
-        <v>7.0</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="AE108" t="n">
-        <v>0.0</v>
+        <v>-1.3076923076923077</v>
       </c>
       <c r="AF108" t="n">
-        <v>1.0</v>
+        <v>0.6607293401467531</v>
       </c>
       <c r="AG108" t="n">
-        <v>0.238095238095238</v>
+        <v>0.5130952380952379</v>
       </c>
     </row>
     <row r="109">
@@ -11793,10 +11787,10 @@
         <v>139</v>
       </c>
       <c r="B109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D109" t="n">
         <v>-1.3076923076923077</v>
@@ -11820,7 +11814,7 @@
         <v>1.0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="L109" t="n">
         <v>1.6923076923076923</v>
@@ -11877,13 +11871,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD109" t="n">
-        <v>12.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE109" t="n">
-        <v>0.0</v>
+        <v>-1.3076923076923077</v>
       </c>
       <c r="AF109" t="n">
-        <v>1.0</v>
+        <v>0.5585284280936459</v>
       </c>
       <c r="AG109" t="n">
         <v>0.0</v>
@@ -11894,10 +11888,10 @@
         <v>140</v>
       </c>
       <c r="B110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D110" t="n">
         <v>-1.1538461538461537</v>
@@ -11921,7 +11915,7 @@
         <v>0.6475168350168351</v>
       </c>
       <c r="K110" t="n">
-        <v>0.6949192071523784</v>
+        <v>0.6949192071523783</v>
       </c>
       <c r="L110" t="n">
         <v>2.3043478260869565</v>
@@ -11978,13 +11972,13 @@
         <v>-0.26829268292682923</v>
       </c>
       <c r="AD110" t="n">
-        <v>6.0</v>
+        <v>2.1538461538461537</v>
       </c>
       <c r="AE110" t="n">
-        <v>-1.0</v>
+        <v>-1.1538461538461537</v>
       </c>
       <c r="AF110" t="n">
-        <v>1.0</v>
+        <v>0.645797906405847</v>
       </c>
       <c r="AG110" t="n">
         <v>0.0</v>
@@ -11995,10 +11989,10 @@
         <v>141</v>
       </c>
       <c r="B111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D111" t="n">
         <v>-0.07692307692307693</v>
@@ -12079,16 +12073,16 @@
         <v>-0.30789049919484696</v>
       </c>
       <c r="AD111" t="n">
-        <v>12.0</v>
+        <v>4.769230769230769</v>
       </c>
       <c r="AE111" t="n">
-        <v>0.0</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="AF111" t="n">
-        <v>1.0</v>
+        <v>0.636791278896542</v>
       </c>
       <c r="AG111" t="n">
-        <v>0.287878787878788</v>
+        <v>0.7965034965034965</v>
       </c>
     </row>
     <row r="112">
@@ -12096,10 +12090,10 @@
         <v>142</v>
       </c>
       <c r="B112" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C112" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D112" t="n">
         <v>-1.375</v>
@@ -12123,7 +12117,7 @@
         <v>0.8533333333333334</v>
       </c>
       <c r="K112" t="n">
-        <v>0.7896680211760522</v>
+        <v>0.7896680211760521</v>
       </c>
       <c r="L112" t="n">
         <v>1.3181818181818181</v>
@@ -12180,13 +12174,13 @@
         <v>-0.3530066815144768</v>
       </c>
       <c r="AD112" t="n">
-        <v>8.0</v>
+        <v>1.875</v>
       </c>
       <c r="AE112" t="n">
-        <v>-2.0</v>
+        <v>-1.375</v>
       </c>
       <c r="AF112" t="n">
-        <v>1.0</v>
+        <v>0.5898470801364023</v>
       </c>
       <c r="AG112" t="n">
         <v>0.0</v>
@@ -12197,10 +12191,10 @@
         <v>143</v>
       </c>
       <c r="B113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D113" t="n">
         <v>-1.75</v>
@@ -12224,7 +12218,7 @@
         <v>0.7933884297520661</v>
       </c>
       <c r="K113" t="n">
-        <v>0.7387592154231897</v>
+        <v>0.7387592154231896</v>
       </c>
       <c r="L113" t="n">
         <v>1.72</v>
@@ -12281,13 +12275,13 @@
         <v>-0.43181818181818177</v>
       </c>
       <c r="AD113" t="n">
-        <v>6.0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="AE113" t="n">
-        <v>0.0</v>
+        <v>-1.75</v>
       </c>
       <c r="AF113" t="n">
-        <v>1.0</v>
+        <v>0.6198295168883403</v>
       </c>
       <c r="AG113" t="n">
         <v>0.0</v>
@@ -12298,10 +12292,10 @@
         <v>144</v>
       </c>
       <c r="B114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D114" t="n">
         <v>0.15384615384615385</v>
@@ -12382,13 +12376,13 @@
         <v>0.07874015748031477</v>
       </c>
       <c r="AD114" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE114" t="n">
-        <v>0.0</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="AF114" t="n">
-        <v>1.0</v>
+        <v>0.6861820920710676</v>
       </c>
       <c r="AG114" t="n">
         <v>0.0</v>
@@ -12399,10 +12393,10 @@
         <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C115" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D115" t="n">
         <v>-1.0833333333333333</v>
@@ -12426,7 +12420,7 @@
         <v>0.6760330578512397</v>
       </c>
       <c r="K115" t="n">
-        <v>0.6817290787845063</v>
+        <v>0.6817290787845062</v>
       </c>
       <c r="L115" t="n">
         <v>3.4516129032258065</v>
@@ -12483,16 +12477,16 @@
         <v>-0.10638297872340459</v>
       </c>
       <c r="AD115" t="n">
-        <v>5.0</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="AE115" t="n">
-        <v>0.0</v>
+        <v>-1.0833333333333333</v>
       </c>
       <c r="AF115" t="n">
-        <v>1.0</v>
+        <v>0.6543145212630506</v>
       </c>
       <c r="AG115" t="n">
-        <v>0.1</v>
+        <v>0.3476190476190477</v>
       </c>
     </row>
     <row r="116">
@@ -12500,100 +12494,100 @@
         <v>146</v>
       </c>
       <c r="B116" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C116" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.8333333333333333</v>
+        <v>-0.46153846153846156</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.5833333333333334</v>
+        <v>-0.15384615384615385</v>
       </c>
       <c r="F116" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.10897435897435898</v>
       </c>
       <c r="G116" t="n">
-        <v>0.15789473684210525</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="H116" t="n">
-        <v>0.09917355371900827</v>
+        <v>0.2881944444444444</v>
       </c>
       <c r="I116" t="n">
-        <v>0.38251725632250777</v>
+        <v>0.6741746341432863</v>
       </c>
       <c r="J116" t="n">
-        <v>0.44297520661157025</v>
+        <v>0.7171717171717171</v>
       </c>
       <c r="K116" t="n">
-        <v>0.6531555214579814</v>
+        <v>0.7161395173470759</v>
       </c>
       <c r="L116" t="n">
-        <v>2.40625</v>
+        <v>6.3076923076923075</v>
       </c>
       <c r="M116" t="n">
-        <v>3.590909090909091</v>
+        <v>5.756410256410256</v>
       </c>
       <c r="N116" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="O116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P116" t="n">
         <v>5.0</v>
       </c>
-      <c r="P116" t="n">
+      <c r="Q116" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="W116" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y116" t="n">
         <v>4.0</v>
       </c>
-      <c r="Q116" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="R116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S116" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="T116" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V116" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="W116" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="X116" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Z116" t="n">
-        <v>1.25</v>
+        <v>2.764705882352941</v>
       </c>
       <c r="AA116" t="n">
         <v>0.0</v>
       </c>
       <c r="AB116" t="n">
-        <v>-0.18032786885245847</v>
+        <v>-0.21240310077519223</v>
       </c>
       <c r="AC116" t="n">
-        <v>0.12041884816753931</v>
+        <v>-0.44302325581395346</v>
       </c>
       <c r="AD116" t="n">
-        <v>4.0</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="AE116" t="n">
-        <v>0.0</v>
+        <v>-0.46153846153846156</v>
       </c>
       <c r="AF116" t="n">
-        <v>1.0</v>
+        <v>0.627963830656715</v>
       </c>
       <c r="AG116" t="n">
-        <v>0.166666666666667</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="117">
@@ -12601,58 +12595,58 @@
         <v>147</v>
       </c>
       <c r="B117" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C117" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.46153846153846156</v>
+        <v>1.3076923076923077</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.15384615384615385</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="F117" t="n">
-        <v>0.10897435897435898</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G117" t="n">
-        <v>0.16981132075471697</v>
+        <v>0.0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="I117" t="n">
-        <v>0.6741746341432863</v>
+        <v>0.4368687618687618</v>
       </c>
       <c r="J117" t="n">
-        <v>0.7171717171717171</v>
+        <v>0.5997474747474747</v>
       </c>
       <c r="K117" t="n">
-        <v>0.7161395173470759</v>
+        <v>0.6402035492877842</v>
       </c>
       <c r="L117" t="n">
-        <v>6.3076923076923075</v>
+        <v>4.785714285714286</v>
       </c>
       <c r="M117" t="n">
-        <v>5.756410256410256</v>
+        <v>5.410256410256411</v>
       </c>
       <c r="N117" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="O117" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P117" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q117" t="n">
         <v>13.0</v>
       </c>
       <c r="R117" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="S117" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="T117" t="n">
         <v>1.0</v>
@@ -12661,40 +12655,40 @@
         <v>0.0</v>
       </c>
       <c r="V117" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="W117" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="X117" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y117" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z117" t="n">
-        <v>2.764705882352941</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="AA117" t="n">
         <v>0.0</v>
       </c>
       <c r="AB117" t="n">
-        <v>-0.21240310077519223</v>
+        <v>0.24738675958188214</v>
       </c>
       <c r="AC117" t="n">
-        <v>-0.44302325581395346</v>
+        <v>-0.7528089887640448</v>
       </c>
       <c r="AD117" t="n">
-        <v>9.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE117" t="n">
-        <v>0.0</v>
+        <v>1.3076923076923077</v>
       </c>
       <c r="AF117" t="n">
-        <v>1.0</v>
+        <v>0.6624860067167762</v>
       </c>
       <c r="AG117" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
@@ -12702,100 +12696,100 @@
         <v>148</v>
       </c>
       <c r="B118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D118" t="n">
-        <v>1.3076923076923077</v>
+        <v>-0.4666666666666667</v>
       </c>
       <c r="E118" t="n">
-        <v>0.46153846153846156</v>
+        <v>-0.13333333333333333</v>
       </c>
       <c r="F118" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="H118" t="n">
-        <v>0.1423611111111111</v>
+        <v>0.2372448979591837</v>
       </c>
       <c r="I118" t="n">
-        <v>0.4368687618687618</v>
+        <v>0.5680115103995789</v>
       </c>
       <c r="J118" t="n">
-        <v>0.5997474747474747</v>
+        <v>0.6483516483516484</v>
       </c>
       <c r="K118" t="n">
-        <v>0.6402035492877843</v>
+        <v>0.6438228895554109</v>
       </c>
       <c r="L118" t="n">
-        <v>4.785714285714286</v>
+        <v>3.9056603773584904</v>
       </c>
       <c r="M118" t="n">
-        <v>5.410256410256411</v>
+        <v>4.876190476190477</v>
       </c>
       <c r="N118" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="O118" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="P118" t="n">
         <v>4.0</v>
       </c>
       <c r="Q118" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="W118" t="n">
         <v>13.0</v>
       </c>
-      <c r="R118" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S118" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V118" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="W118" t="n">
-        <v>9.0</v>
-      </c>
       <c r="X118" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y118" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.9166666666666667</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="AA118" t="n">
         <v>0.0</v>
       </c>
       <c r="AB118" t="n">
-        <v>0.24738675958188214</v>
+        <v>0.2573673870333987</v>
       </c>
       <c r="AC118" t="n">
-        <v>-0.7528089887640448</v>
+        <v>-0.5413402959094862</v>
       </c>
       <c r="AD118" t="n">
-        <v>3.0</v>
+        <v>2.8</v>
       </c>
       <c r="AE118" t="n">
-        <v>0.0</v>
+        <v>-0.4666666666666667</v>
       </c>
       <c r="AF118" t="n">
-        <v>1.0</v>
+        <v>0.653583103534084</v>
       </c>
       <c r="AG118" t="n">
-        <v>0.0</v>
+        <v>0.5318181818181819</v>
       </c>
     </row>
     <row r="119">
@@ -12803,58 +12797,58 @@
         <v>149</v>
       </c>
       <c r="B119" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C119" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.4666666666666667</v>
+        <v>-0.26666666666666666</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.13333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.11904761904761905</v>
       </c>
       <c r="G119" t="n">
-        <v>0.25</v>
+        <v>0.39705882352941174</v>
       </c>
       <c r="H119" t="n">
-        <v>0.2372448979591837</v>
+        <v>0.10204081632653061</v>
       </c>
       <c r="I119" t="n">
-        <v>0.5680115103995789</v>
+        <v>0.44656215887281797</v>
       </c>
       <c r="J119" t="n">
-        <v>0.6483516483516484</v>
+        <v>0.5147174254317112</v>
       </c>
       <c r="K119" t="n">
-        <v>0.6438228895554112</v>
+        <v>0.5581881001638296</v>
       </c>
       <c r="L119" t="n">
-        <v>3.9056603773584904</v>
+        <v>3.323943661971831</v>
       </c>
       <c r="M119" t="n">
-        <v>4.876190476190477</v>
+        <v>3.657142857142857</v>
       </c>
       <c r="N119" t="n">
         <v>9.0</v>
       </c>
       <c r="O119" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P119" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q119" t="n">
         <v>15.0</v>
       </c>
       <c r="R119" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="S119" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="T119" t="n">
         <v>0.0</v>
@@ -12863,40 +12857,40 @@
         <v>1.0</v>
       </c>
       <c r="V119" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="W119" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="X119" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z119" t="n">
-        <v>2.380952380952381</v>
+        <v>1.72</v>
       </c>
       <c r="AA119" t="n">
         <v>0.0</v>
       </c>
       <c r="AB119" t="n">
-        <v>0.2573673870333987</v>
+        <v>0.26787252368647757</v>
       </c>
       <c r="AC119" t="n">
-        <v>-0.5413402959094862</v>
+        <v>0.0011098779134287855</v>
       </c>
       <c r="AD119" t="n">
-        <v>6.0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AE119" t="n">
-        <v>-3.0</v>
+        <v>-0.26666666666666666</v>
       </c>
       <c r="AF119" t="n">
-        <v>0.863636363636364</v>
+        <v>0.6846499322527755</v>
       </c>
       <c r="AG119" t="n">
-        <v>0.266666666666667</v>
+        <v>0.49555555555555547</v>
       </c>
     </row>
     <row r="120">
@@ -12904,100 +12898,100 @@
         <v>150</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C120" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.26666666666666666</v>
+        <v>-1.5</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0</v>
+        <v>-0.42857142857142855</v>
       </c>
       <c r="F120" t="n">
-        <v>0.11904761904761905</v>
+        <v>0.09890109890109891</v>
       </c>
       <c r="G120" t="n">
-        <v>0.39705882352941174</v>
+        <v>0.225</v>
       </c>
       <c r="H120" t="n">
-        <v>0.10204081632653061</v>
+        <v>0.14201183431952663</v>
       </c>
       <c r="I120" t="n">
-        <v>0.44656215887281797</v>
+        <v>0.36792936062540477</v>
       </c>
       <c r="J120" t="n">
-        <v>0.5147174254317112</v>
+        <v>0.5611439842209073</v>
       </c>
       <c r="K120" t="n">
-        <v>0.5581881001638296</v>
+        <v>0.6462097425793838</v>
       </c>
       <c r="L120" t="n">
-        <v>3.323943661971831</v>
+        <v>2.5</v>
       </c>
       <c r="M120" t="n">
-        <v>3.657142857142857</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="N120" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S120" t="n">
         <v>9.0</v>
       </c>
-      <c r="O120" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P120" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="R120" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="S120" t="n">
-        <v>7.0</v>
-      </c>
       <c r="T120" t="n">
         <v>0.0</v>
       </c>
       <c r="U120" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V120" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="W120" t="n">
         <v>14.0</v>
       </c>
       <c r="X120" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y120" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z120" t="n">
-        <v>1.72</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="AA120" t="n">
         <v>0.0</v>
       </c>
       <c r="AB120" t="n">
-        <v>0.26787252368647757</v>
+        <v>0.32075471698113345</v>
       </c>
       <c r="AC120" t="n">
-        <v>0.0011098779134287855</v>
+        <v>-0.6054054054054059</v>
       </c>
       <c r="AD120" t="n">
-        <v>6.0</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="AE120" t="n">
-        <v>0.0</v>
+        <v>-1.5</v>
       </c>
       <c r="AF120" t="n">
-        <v>1.0</v>
+        <v>0.6972466975425242</v>
       </c>
       <c r="AG120" t="n">
-        <v>0.2</v>
+        <v>0.4222222222222222</v>
       </c>
     </row>
     <row r="121">
@@ -13005,100 +12999,100 @@
         <v>151</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.5</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.42857142857142855</v>
+        <v>-0.15384615384615385</v>
       </c>
       <c r="F121" t="n">
-        <v>0.09890109890109891</v>
+        <v>0.12820512820512822</v>
       </c>
       <c r="G121" t="n">
-        <v>0.225</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="H121" t="n">
-        <v>0.14201183431952663</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="I121" t="n">
-        <v>0.36792936062540477</v>
+        <v>0.4170921543335336</v>
       </c>
       <c r="J121" t="n">
-        <v>0.5611439842209073</v>
+        <v>0.32386363636363635</v>
       </c>
       <c r="K121" t="n">
-        <v>0.6462097425793841</v>
+        <v>0.5757134300352925</v>
       </c>
       <c r="L121" t="n">
-        <v>2.5</v>
+        <v>6.988095238095238</v>
       </c>
       <c r="M121" t="n">
-        <v>4.571428571428571</v>
+        <v>4.923076923076923</v>
       </c>
       <c r="N121" t="n">
         <v>11.0</v>
       </c>
       <c r="O121" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P121" t="n">
         <v>6.0</v>
       </c>
-      <c r="P121" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Q121" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="R121" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="S121" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="T121" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U121" t="n">
         <v>2.0</v>
       </c>
       <c r="V121" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="W121" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="X121" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y121" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z121" t="n">
-        <v>1.8333333333333333</v>
+        <v>2.4</v>
       </c>
       <c r="AA121" t="n">
         <v>0.0</v>
       </c>
       <c r="AB121" t="n">
-        <v>0.32075471698113345</v>
+        <v>-0.3315579227696421</v>
       </c>
       <c r="AC121" t="n">
-        <v>-0.6054054054054059</v>
+        <v>-0.05865522174535</v>
       </c>
       <c r="AD121" t="n">
-        <v>2.0</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="AE121" t="n">
-        <v>-3.0</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="AF121" t="n">
-        <v>0.857142857142857</v>
+        <v>0.7237985064948507</v>
       </c>
       <c r="AG121" t="n">
-        <v>0.0</v>
+        <v>0.20277777777777767</v>
       </c>
     </row>
     <row r="122">
@@ -13106,200 +13100,99 @@
         <v>152</v>
       </c>
       <c r="B122" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C122" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.3076923076923077</v>
+        <v>-1.4615384615384615</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.15384615384615385</v>
+        <v>-0.5384615384615384</v>
       </c>
       <c r="F122" t="n">
-        <v>0.12820512820512822</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G122" t="n">
-        <v>0.17647058823529413</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.13194444444444445</v>
+        <v>0.052083333333333336</v>
       </c>
       <c r="I122" t="n">
-        <v>0.4170921543335336</v>
+        <v>0.27825797306237743</v>
       </c>
       <c r="J122" t="n">
-        <v>0.32386363636363635</v>
+        <v>0.4810606060606061</v>
       </c>
       <c r="K122" t="n">
-        <v>0.5757134300352917</v>
+        <v>0.640015748728792</v>
       </c>
       <c r="L122" t="n">
-        <v>6.988095238095238</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="M122" t="n">
-        <v>4.923076923076923</v>
+        <v>3.6153846153846154</v>
       </c>
       <c r="N122" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="O122" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="P122" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q122" t="n">
         <v>13.0</v>
       </c>
       <c r="R122" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="S122" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="T122" t="n">
         <v>1.0</v>
       </c>
       <c r="U122" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V122" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="W122" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="X122" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y122" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z122" t="n">
-        <v>2.4</v>
+        <v>1.0</v>
       </c>
       <c r="AA122" t="n">
         <v>0.0</v>
       </c>
       <c r="AB122" t="n">
-        <v>-0.3315579227696421</v>
+        <v>0.1884057971014497</v>
       </c>
       <c r="AC122" t="n">
-        <v>-0.05865522174535</v>
+        <v>0.18644067796610206</v>
       </c>
       <c r="AD122" t="n">
-        <v>6.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="AE122" t="n">
-        <v>-2.0</v>
+        <v>-1.4615384615384615</v>
       </c>
       <c r="AF122" t="n">
-        <v>1.0</v>
+        <v>0.7031294534886344</v>
       </c>
       <c r="AG122" t="n">
-        <v>0.133333333333333</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>153</v>
-      </c>
-      <c r="B123" t="s">
-        <v>275</v>
-      </c>
-      <c r="C123" t="s">
-        <v>275</v>
-      </c>
-      <c r="D123" t="n">
-        <v>-1.4615384615384615</v>
-      </c>
-      <c r="E123" t="n">
-        <v>-0.5384615384615384</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.052083333333333336</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.27825797306237743</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.4810606060606061</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.6400157487287917</v>
-      </c>
-      <c r="L123" t="n">
-        <v>1.3888888888888888</v>
-      </c>
-      <c r="M123" t="n">
-        <v>3.6153846153846154</v>
-      </c>
-      <c r="N123" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O123" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P123" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="R123" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S123" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V123" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="W123" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="X123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>0.1884057971014497</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>0.18644067796610206</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>0.90625</v>
-      </c>
-      <c r="AG123" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/t12_segCAMs/outputs/networkIndicators.xlsx
+++ b/t12_segCAMs/outputs/networkIndicators.xlsx
@@ -1015,7 +1015,7 @@
         <v>0.373015873015873</v>
       </c>
       <c r="K2" t="n">
-        <v>0.740385687575861</v>
+        <v>0.7403856875758612</v>
       </c>
       <c r="L2" t="n">
         <v>2.1333333333333333</v>
@@ -1072,16 +1072,16 @@
         <v>-0.3253856942496493</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.5454545454545454</v>
+        <v>8.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.18181818181818182</v>
+        <v>0.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6487658267349983</v>
+        <v>1.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.4510582010582011</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -1116,7 +1116,7 @@
         <v>0.6723484848484849</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7039631414544361</v>
+        <v>0.7039631414544358</v>
       </c>
       <c r="L3" t="n">
         <v>3.5789473684210527</v>
@@ -1173,16 +1173,16 @@
         <v>-0.29971988795518206</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.4615384615384617</v>
+        <v>7.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.46153846153846156</v>
+        <v>-3.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6501952759715706</v>
+        <v>1.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.2761904761904762</v>
+        <v>0.0952380952380952</v>
       </c>
     </row>
     <row r="4">
@@ -1217,7 +1217,7 @@
         <v>0.6502525252525253</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6459729144432843</v>
+        <v>0.6459729144432845</v>
       </c>
       <c r="L4" t="n">
         <v>4.181818181818182</v>
@@ -1274,16 +1274,16 @@
         <v>-0.5527777777777781</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.07692307692307693</v>
+        <v>3.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6658426622412432</v>
+        <v>1.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.38888888888888884</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,7 +1318,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7256314504280087</v>
+        <v>0.7256314504280088</v>
       </c>
       <c r="L5" t="n">
         <v>4.517241379310345</v>
@@ -1375,13 +1375,13 @@
         <v>-0.24414715719063534</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.8461538461538463</v>
+        <v>5.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.8461538461538461</v>
+        <v>0.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6502993020113096</v>
+        <v>1.0</v>
       </c>
       <c r="AG5" t="n">
         <v>0.0</v>
@@ -1476,16 +1476,16 @@
         <v>-0.17293233082706774</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.1666666666666665</v>
+        <v>4.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-3.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6787931943441321</v>
+        <v>1.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -1520,7 +1520,7 @@
         <v>0.8699494949494949</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7730948816876565</v>
+        <v>0.7730948816876566</v>
       </c>
       <c r="L7" t="n">
         <v>3.391304347826087</v>
@@ -1577,13 +1577,13 @@
         <v>-0.554083885209713</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.8461538461538463</v>
+        <v>8.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.9230769230769231</v>
+        <v>0.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.5975908074117794</v>
+        <v>1.0</v>
       </c>
       <c r="AG7" t="n">
         <v>0.0</v>
@@ -1621,7 +1621,7 @@
         <v>0.7950413223140496</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6992949937059291</v>
+        <v>0.6992949937059292</v>
       </c>
       <c r="L8" t="n">
         <v>3.6</v>
@@ -1678,16 +1678,16 @@
         <v>-0.42857142857142855</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.6225176889313512</v>
+        <v>1.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.38888888888888884</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -1722,7 +1722,7 @@
         <v>0.40067340067340057</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5001923783242052</v>
+        <v>0.5001923783242048</v>
       </c>
       <c r="L9" t="n">
         <v>3.017543859649123</v>
@@ -1779,16 +1779,16 @@
         <v>-0.12941176470588237</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.4615384615384617</v>
+        <v>4.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.7298103016217787</v>
+        <v>1.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1823,7 @@
         <v>0.4940828402366864</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6661966366553171</v>
+        <v>0.6661966366553169</v>
       </c>
       <c r="L10" t="n">
         <v>6.016949152542373</v>
@@ -1880,16 +1880,16 @@
         <v>-0.22448979591836785</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.142857142857143</v>
+        <v>3.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-2.2857142857142856</v>
+        <v>-3.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.6928932500574584</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +1924,7 @@
         <v>0.4911616161616162</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6687610599583352</v>
+        <v>0.6687610599583357</v>
       </c>
       <c r="L11" t="n">
         <v>6.057142857142857</v>
@@ -1981,16 +1981,16 @@
         <v>0.06306306306306307</v>
       </c>
       <c r="AD11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>2.0</v>
       </c>
-      <c r="AE11" t="n">
-        <v>0.46153846153846156</v>
-      </c>
       <c r="AF11" t="n">
-        <v>0.6784584697802</v>
+        <v>1.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.09523809523809527</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -2082,13 +2082,13 @@
         <v>-0.804705882352941</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-1.0769230769230769</v>
+        <v>0.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.575090232348297</v>
+        <v>1.0</v>
       </c>
       <c r="AG12" t="n">
         <v>0.0</v>
@@ -2126,7 +2126,7 @@
         <v>0.4683597883597884</v>
       </c>
       <c r="K13" t="n">
-        <v>0.689824832853583</v>
+        <v>0.6898248328535831</v>
       </c>
       <c r="L13" t="n">
         <v>3.7260273972602738</v>
@@ -2183,16 +2183,16 @@
         <v>-0.5165794066317627</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.75</v>
+        <v>3.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.7398766819611393</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.09595959595959587</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -2227,7 +2227,7 @@
         <v>0.5256410256410257</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6445011396907581</v>
+        <v>0.6445011396907582</v>
       </c>
       <c r="L14" t="n">
         <v>4.5</v>
@@ -2284,13 +2284,13 @@
         <v>-0.5440613026819925</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.8571428571428572</v>
+        <v>4.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-1.7857142857142858</v>
+        <v>-3.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.6959949753772947</v>
+        <v>1.0</v>
       </c>
       <c r="AG14" t="n">
         <v>0.0</v>
@@ -2328,7 +2328,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.7759907622602042</v>
       </c>
       <c r="L15" t="n">
         <v>1.625</v>
@@ -2385,13 +2385,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.8461538461538463</v>
+        <v>12.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.8461538461538461</v>
+        <v>0.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.5585284280936459</v>
+        <v>1.0</v>
       </c>
       <c r="AG15" t="n">
         <v>0.0</v>
@@ -2486,13 +2486,13 @@
         <v>-0.8758565094719873</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.8571428571428572</v>
+        <v>12.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.2857142857142857</v>
+        <v>3.0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.5639499389499386</v>
+        <v>1.0</v>
       </c>
       <c r="AG16" t="n">
         <v>0.0</v>
@@ -2530,7 +2530,7 @@
         <v>0.8005050505050505</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7094200825169517</v>
+        <v>0.7094200825169515</v>
       </c>
       <c r="L17" t="n">
         <v>3.425925925925926</v>
@@ -2587,16 +2587,16 @@
         <v>-0.46527777777777773</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.923076923076923</v>
+        <v>11.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-1.0769230769230769</v>
+        <v>-3.0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.5990209971188233</v>
+        <v>1.0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.7539944903581267</v>
+        <v>0.127272727272727</v>
       </c>
     </row>
     <row r="18">
@@ -2631,7 +2631,7 @@
         <v>0.5943458251150558</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6384209554272583</v>
+        <v>0.6384209554272582</v>
       </c>
       <c r="L18" t="n">
         <v>5.568181818181818</v>
@@ -2688,13 +2688,13 @@
         <v>-0.28859060402684567</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.2857142857142856</v>
+        <v>5.0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-1.2857142857142858</v>
+        <v>-3.0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.6605215860034092</v>
+        <v>1.0</v>
       </c>
       <c r="AG18" t="n">
         <v>0.0</v>
@@ -2732,7 +2732,7 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6800727431914514</v>
+        <v>0.6800727431914516</v>
       </c>
       <c r="L19" t="n">
         <v>1.641025641025641</v>
@@ -2789,16 +2789,16 @@
         <v>-0.13586956521739185</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.923076923076923</v>
+        <v>5.0</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.6923076923076923</v>
+        <v>0.0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.709651248540978</v>
+        <v>1.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.4611111111111111</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
@@ -2833,7 +2833,7 @@
         <v>0.18543956043956045</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5836291076644483</v>
+        <v>0.583629107664448</v>
       </c>
       <c r="L20" t="n">
         <v>5.4520547945205475</v>
@@ -2890,16 +2890,16 @@
         <v>-0.02678571428571349</v>
       </c>
       <c r="AD20" t="n">
-        <v>3.066666666666667</v>
+        <v>2.0</v>
       </c>
       <c r="AE20" t="n">
-        <v>-1.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.8223141042109626</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.32619047619047614</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -2991,16 +2991,16 @@
         <v>-0.06578947368421083</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.6369399821769232</v>
+        <v>1.0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.09583333333333324</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22">
@@ -3035,7 +3035,7 @@
         <v>0.8648915187376726</v>
       </c>
       <c r="K22" t="n">
-        <v>0.780259303852818</v>
+        <v>0.7802593038528182</v>
       </c>
       <c r="L22" t="n">
         <v>1.7222222222222223</v>
@@ -3092,13 +3092,13 @@
         <v>-0.464546056991385</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.8571428571428572</v>
+        <v>8.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.35714285714285715</v>
+        <v>0.0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.5941605387094109</v>
+        <v>1.0</v>
       </c>
       <c r="AG22" t="n">
         <v>0.0</v>
@@ -3136,7 +3136,7 @@
         <v>0.5482731554160125</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6305888847153067</v>
+        <v>0.6305888847153068</v>
       </c>
       <c r="L23" t="n">
         <v>3.0833333333333335</v>
@@ -3193,16 +3193,16 @@
         <v>-0.23021582733813</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.533333333333333</v>
+        <v>5.0</v>
       </c>
       <c r="AE23" t="n">
-        <v>-1.2</v>
+        <v>-2.0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.7007642043061327</v>
+        <v>1.0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.36666666666666653</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24">
@@ -3237,7 +3237,7 @@
         <v>0.7389473684210527</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7562500316434445</v>
+        <v>0.756250031643444</v>
       </c>
       <c r="L24" t="n">
         <v>2.0943396226415096</v>
@@ -3294,13 +3294,13 @@
         <v>-0.37978339350180496</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.09523809523809523</v>
+        <v>0.0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.6128908037272442</v>
+        <v>1.0</v>
       </c>
       <c r="AG24" t="n">
         <v>0.0</v>
@@ -3338,7 +3338,7 @@
         <v>0.44938973063973064</v>
       </c>
       <c r="K25" t="n">
-        <v>0.560429292371735</v>
+        <v>0.5604292923717346</v>
       </c>
       <c r="L25" t="n">
         <v>2.1327433628318584</v>
@@ -3395,16 +3395,16 @@
         <v>-0.3360488798370672</v>
       </c>
       <c r="AD25" t="n">
-        <v>4.923076923076923</v>
+        <v>12.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.23076923076923078</v>
+        <v>-3.0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.6435094317447259</v>
+        <v>1.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.7266067266067268</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="26">
@@ -3439,7 +3439,7 @@
         <v>0.7901041666666667</v>
       </c>
       <c r="K26" t="n">
-        <v>0.78484168093447</v>
+        <v>0.7848416809344698</v>
       </c>
       <c r="L26" t="n">
         <v>3.7674418604651163</v>
@@ -3496,16 +3496,16 @@
         <v>-0.193702290076336</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.1176470588235294</v>
+        <v>8.0</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.35294117647058826</v>
+        <v>-3.0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.602849722852135</v>
+        <v>1.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.23015873015873003</v>
+        <v>0.0714285714285714</v>
       </c>
     </row>
     <row r="27">
@@ -3540,7 +3540,7 @@
         <v>0.9818181818181818</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7561930600795044</v>
+        <v>0.7561930600795043</v>
       </c>
       <c r="L27" t="n">
         <v>2.6666666666666665</v>
@@ -3597,16 +3597,16 @@
         <v>-0.888</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.567857142857143</v>
+        <v>1.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.0181818181818182</v>
       </c>
     </row>
     <row r="28">
@@ -3641,7 +3641,7 @@
         <v>0.29945286195286186</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6165075123235558</v>
+        <v>0.6165075123235563</v>
       </c>
       <c r="L28" t="n">
         <v>4.67741935483871</v>
@@ -3698,16 +3698,16 @@
         <v>-0.31933842239185756</v>
       </c>
       <c r="AD28" t="n">
-        <v>2.6153846153846154</v>
+        <v>5.0</v>
       </c>
       <c r="AE28" t="n">
-        <v>-2.5384615384615383</v>
+        <v>-3.0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.7458684432009495</v>
+        <v>1.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29">
@@ -3742,7 +3742,7 @@
         <v>0.5276134122287969</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6452743060553274</v>
+        <v>0.6452743060553275</v>
       </c>
       <c r="L29" t="n">
         <v>6.611111111111111</v>
@@ -3799,16 +3799,16 @@
         <v>-0.40816326530612274</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.142857142857143</v>
+        <v>4.0</v>
       </c>
       <c r="AE29" t="n">
-        <v>-1.0</v>
+        <v>-3.0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.6939008555307139</v>
+        <v>1.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="30">
@@ -3900,16 +3900,16 @@
         <v>-0.3480801335559264</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.2666666666666666</v>
+        <v>7.0</v>
       </c>
       <c r="AE30" t="n">
-        <v>-1.0666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.6507524701168798</v>
+        <v>1.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.1255411255411255</v>
+        <v>0.0476190476190476</v>
       </c>
     </row>
     <row r="31">
@@ -4001,16 +4001,16 @@
         <v>-0.2480620155038759</v>
       </c>
       <c r="AD31" t="n">
-        <v>3.111111111111111</v>
+        <v>7.0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-1.3888888888888888</v>
+        <v>-3.0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.6957114498065575</v>
+        <v>1.0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.261344537815126</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="32">
@@ -4045,7 +4045,7 @@
         <v>0.648989898989899</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6614982610536001</v>
+        <v>0.6614982610536</v>
       </c>
       <c r="L32" t="n">
         <v>3.28</v>
@@ -4102,16 +4102,16 @@
         <v>-0.8752997601918464</v>
       </c>
       <c r="AD32" t="n">
-        <v>3.076923076923077</v>
+        <v>9.0</v>
       </c>
       <c r="AE32" t="n">
-        <v>-0.23076923076923078</v>
+        <v>-2.0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.5945272119185161</v>
+        <v>0.8</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.8343434343434343</v>
+        <v>0.222222222222222</v>
       </c>
     </row>
     <row r="33">
@@ -4146,7 +4146,7 @@
         <v>0.3869165023011177</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5535908241110464</v>
+        <v>0.5535908241110465</v>
       </c>
       <c r="L33" t="n">
         <v>5.504504504504505</v>
@@ -4203,16 +4203,16 @@
         <v>-0.2481997119539121</v>
       </c>
       <c r="AD33" t="n">
-        <v>3.7142857142857144</v>
+        <v>8.0</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1.3571428571428572</v>
+        <v>-3.0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.7241026817831273</v>
+        <v>1.0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.26717687074829916</v>
+        <v>0.107142857142857</v>
       </c>
     </row>
     <row r="34">
@@ -4304,13 +4304,13 @@
         <v>-0.2099056603773584</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="AE34" t="n">
-        <v>-1.1666666666666667</v>
+        <v>-2.0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.6266092996457882</v>
+        <v>1.0</v>
       </c>
       <c r="AG34" t="n">
         <v>0.0</v>
@@ -4348,7 +4348,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="K35" t="n">
-        <v>0.679461501597685</v>
+        <v>0.6794615015976848</v>
       </c>
       <c r="L35" t="n">
         <v>3.55</v>
@@ -4405,13 +4405,13 @@
         <v>-0.07317073170731705</v>
       </c>
       <c r="AD35" t="n">
-        <v>1.8333333333333333</v>
+        <v>4.0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-2.25</v>
+        <v>0.0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.7010488555325511</v>
+        <v>1.0</v>
       </c>
       <c r="AG35" t="n">
         <v>0.0</v>
@@ -4449,7 +4449,7 @@
         <v>0.3194662480376766</v>
       </c>
       <c r="K36" t="n">
-        <v>0.6561121091631203</v>
+        <v>0.6561121091631205</v>
       </c>
       <c r="L36" t="n">
         <v>4.222222222222222</v>
@@ -4506,16 +4506,16 @@
         <v>-0.43116883116883137</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.533333333333333</v>
+        <v>5.0</v>
       </c>
       <c r="AE36" t="n">
-        <v>-1.1333333333333333</v>
+        <v>-3.0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.6847745550427498</v>
+        <v>1.0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.40952380952380957</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37">
@@ -4550,7 +4550,7 @@
         <v>0.6734375</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7192975424790956</v>
+        <v>0.7192975424790959</v>
       </c>
       <c r="L37" t="n">
         <v>3.8461538461538463</v>
@@ -4607,16 +4607,16 @@
         <v>-0.12888888888888894</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.823529411764706</v>
+        <v>8.0</v>
       </c>
       <c r="AE37" t="n">
-        <v>-1.6470588235294117</v>
+        <v>-3.0</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.6256927214235076</v>
+        <v>1.0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.6526785714285713</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="38">
@@ -4651,7 +4651,7 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="K38" t="n">
-        <v>0.6948826958819586</v>
+        <v>0.6948826958819585</v>
       </c>
       <c r="L38" t="n">
         <v>6.519230769230769</v>
@@ -4708,13 +4708,13 @@
         <v>-0.8387096774193549</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.8461538461538463</v>
+        <v>7.0</v>
       </c>
       <c r="AE38" t="n">
-        <v>-2.230769230769231</v>
+        <v>0.0</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.6552566207738619</v>
+        <v>1.0</v>
       </c>
       <c r="AG38" t="n">
         <v>0.0</v>
@@ -4752,7 +4752,7 @@
         <v>0.7746539792387545</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7448042470895524</v>
+        <v>0.7448042470895522</v>
       </c>
       <c r="L39" t="n">
         <v>4.2272727272727275</v>
@@ -4809,16 +4809,16 @@
         <v>-0.3277525022747954</v>
       </c>
       <c r="AD39" t="n">
-        <v>2.6666666666666665</v>
+        <v>10.0</v>
       </c>
       <c r="AE39" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-3.0</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.6110314654283273</v>
+        <v>1.0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.2341880341880342</v>
+        <v>0.0444444444444444</v>
       </c>
     </row>
     <row r="40">
@@ -4853,7 +4853,7 @@
         <v>0.8446969696969697</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7067166389319381</v>
+        <v>0.7067166389319384</v>
       </c>
       <c r="L40" t="n">
         <v>1.8387096774193548</v>
@@ -4910,16 +4910,16 @@
         <v>-0.561933955691793</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.923076923076923</v>
+        <v>12.0</v>
       </c>
       <c r="AE40" t="n">
-        <v>-2.3846153846153846</v>
+        <v>0.0</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.5851366025279067</v>
+        <v>1.0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.7606060606060607</v>
+        <v>0.106060606060606</v>
       </c>
     </row>
     <row r="41">
@@ -4954,7 +4954,7 @@
         <v>0.7919132149901381</v>
       </c>
       <c r="K41" t="n">
-        <v>0.747294727145469</v>
+        <v>0.7472947271454687</v>
       </c>
       <c r="L41" t="n">
         <v>4.131578947368421</v>
@@ -5011,13 +5011,13 @@
         <v>-0.26729559748427667</v>
       </c>
       <c r="AD41" t="n">
-        <v>1.8571428571428572</v>
+        <v>6.0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.6103290506485994</v>
+        <v>1.0</v>
       </c>
       <c r="AG41" t="n">
         <v>0.0</v>
@@ -5055,7 +5055,7 @@
         <v>0.6300505050505051</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6814509521019753</v>
+        <v>0.6814509521019756</v>
       </c>
       <c r="L42" t="n">
         <v>1.4838709677419355</v>
@@ -5112,16 +5112,16 @@
         <v>-0.19847743338771093</v>
       </c>
       <c r="AD42" t="n">
-        <v>2.923076923076923</v>
+        <v>8.0</v>
       </c>
       <c r="AE42" t="n">
-        <v>-2.769230769230769</v>
+        <v>0.0</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.6541393906830052</v>
+        <v>1.0</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.47321428571428575</v>
+        <v>0.178571428571429</v>
       </c>
     </row>
     <row r="43">
@@ -5213,16 +5213,16 @@
         <v>-0.35285505124451</v>
       </c>
       <c r="AD43" t="n">
-        <v>3.6666666666666665</v>
+        <v>7.0</v>
       </c>
       <c r="AE43" t="n">
-        <v>-1.3333333333333333</v>
+        <v>-3.0</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.7593142584334197</v>
+        <v>1.0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.4515873015873016</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="44">
@@ -5257,7 +5257,7 @@
         <v>0.3963893249607535</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5528351157564725</v>
+        <v>0.5528351157564726</v>
       </c>
       <c r="L44" t="n">
         <v>6.206185567010309</v>
@@ -5314,16 +5314,16 @@
         <v>-0.12340425531914963</v>
       </c>
       <c r="AD44" t="n">
-        <v>3.2</v>
+        <v>5.0</v>
       </c>
       <c r="AE44" t="n">
-        <v>-0.8666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.7149008725268416</v>
+        <v>1.0</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.2733333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45">
@@ -5358,7 +5358,7 @@
         <v>0.31786948853615515</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6109976549649965</v>
+        <v>0.6109976549649964</v>
       </c>
       <c r="L45" t="n">
         <v>2.888</v>
@@ -5415,16 +5415,16 @@
         <v>-0.38461538461538464</v>
       </c>
       <c r="AD45" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="AE45" t="n">
-        <v>-0.6875</v>
+        <v>-3.0</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.7074221693761219</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.35619047619047617</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -5459,7 +5459,7 @@
         <v>0.8598484848484849</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7117226763030792</v>
+        <v>0.7117226763030794</v>
       </c>
       <c r="L46" t="n">
         <v>4.1</v>
@@ -5516,16 +5516,16 @@
         <v>-0.6380697050938341</v>
       </c>
       <c r="AD46" t="n">
-        <v>2.769230769230769</v>
+        <v>12.0</v>
       </c>
       <c r="AE46" t="n">
-        <v>-1.3846153846153846</v>
+        <v>0.0</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.581488077140251</v>
+        <v>1.0</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.6988636363636365</v>
+        <v>0.0909090909090909</v>
       </c>
     </row>
     <row r="47">
@@ -5560,7 +5560,7 @@
         <v>0.9002525252525253</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7584884506513884</v>
+        <v>0.758488450651388</v>
       </c>
       <c r="L47" t="n">
         <v>2.7142857142857144</v>
@@ -5617,16 +5617,16 @@
         <v>-0.6614210777300907</v>
       </c>
       <c r="AD47" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="AE47" t="n">
-        <v>-0.23076923076923078</v>
+        <v>0.0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.5931808576039346</v>
+        <v>1.0</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.4666666666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -5718,13 +5718,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD48" t="n">
-        <v>1.8461538461538463</v>
+        <v>12.0</v>
       </c>
       <c r="AE48" t="n">
-        <v>-0.15384615384615385</v>
+        <v>-1.0</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.5585284280936459</v>
+        <v>1.0</v>
       </c>
       <c r="AG48" t="n">
         <v>0.0</v>
@@ -5762,7 +5762,7 @@
         <v>0.6429752066115703</v>
       </c>
       <c r="K49" t="n">
-        <v>0.6001663826186264</v>
+        <v>0.6001663826186265</v>
       </c>
       <c r="L49" t="n">
         <v>3.462686567164179</v>
@@ -5819,16 +5819,16 @@
         <v>-0.37931034482758624</v>
       </c>
       <c r="AD49" t="n">
-        <v>3.8333333333333335</v>
+        <v>10.0</v>
       </c>
       <c r="AE49" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.6488269470467615</v>
+        <v>1.0</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.6414141414141414</v>
+        <v>0.222222222222222</v>
       </c>
     </row>
     <row r="50">
@@ -5863,7 +5863,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L50" t="n">
         <v>1.52</v>
@@ -5920,13 +5920,13 @@
         <v>-0.9882491186839014</v>
       </c>
       <c r="AD50" t="n">
-        <v>1.8461538461538463</v>
+        <v>2.0</v>
       </c>
       <c r="AE50" t="n">
         <v>0.0</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.7218178241196146</v>
+        <v>1.0</v>
       </c>
       <c r="AG50" t="n">
         <v>0.0</v>
@@ -5964,7 +5964,7 @@
         <v>0.8793388429752066</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7649371473690574</v>
+        <v>0.7649371473690575</v>
       </c>
       <c r="L51" t="n">
         <v>1.6666666666666667</v>
@@ -6021,13 +6021,13 @@
         <v>-0.6559139784946237</v>
       </c>
       <c r="AD51" t="n">
-        <v>1.8333333333333333</v>
+        <v>8.0</v>
       </c>
       <c r="AE51" t="n">
-        <v>-0.08333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.6005997474747473</v>
+        <v>1.0</v>
       </c>
       <c r="AG51" t="n">
         <v>0.0</v>
@@ -6065,7 +6065,7 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6991548881373775</v>
+        <v>0.6991548881373778</v>
       </c>
       <c r="L52" t="n">
         <v>3.4375</v>
@@ -6122,16 +6122,16 @@
         <v>-0.6112621359223303</v>
       </c>
       <c r="AD52" t="n">
-        <v>2.769230769230769</v>
+        <v>11.0</v>
       </c>
       <c r="AE52" t="n">
-        <v>-0.6153846153846154</v>
+        <v>0.0</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.6016432868796162</v>
+        <v>1.0</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.7582491582491583</v>
+        <v>0.0909090909090909</v>
       </c>
     </row>
     <row r="53">
@@ -6223,13 +6223,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD53" t="n">
-        <v>1.8461538461538463</v>
+        <v>12.0</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.38461538461538464</v>
+        <v>0.0</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.5585284280936459</v>
+        <v>1.0</v>
       </c>
       <c r="AG53" t="n">
         <v>0.0</v>
@@ -6267,7 +6267,7 @@
         <v>0.827020202020202</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7608344969958328</v>
+        <v>0.7608344969958327</v>
       </c>
       <c r="L54" t="n">
         <v>3.1621621621621623</v>
@@ -6324,13 +6324,13 @@
         <v>-0.479638009049774</v>
       </c>
       <c r="AD54" t="n">
-        <v>1.8461538461538463</v>
+        <v>7.0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.23076923076923078</v>
+        <v>0.0</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.6078000654923732</v>
+        <v>1.0</v>
       </c>
       <c r="AG54" t="n">
         <v>0.0</v>
@@ -6368,7 +6368,7 @@
         <v>0.2632996632996633</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5579632877250357</v>
+        <v>0.5579632877250358</v>
       </c>
       <c r="L55" t="n">
         <v>4.096774193548387</v>
@@ -6425,16 +6425,16 @@
         <v>-0.25148514851485176</v>
       </c>
       <c r="AD55" t="n">
-        <v>4.3076923076923075</v>
+        <v>6.0</v>
       </c>
       <c r="AE55" t="n">
-        <v>1.2307692307692308</v>
+        <v>0.0</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.7186196555893791</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.5611111111111111</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="56">
@@ -6469,7 +6469,7 @@
         <v>1.0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7683375209644598</v>
+        <v>0.7683375209644601</v>
       </c>
       <c r="L56" t="n">
         <v>2.1379310344827585</v>
@@ -6526,13 +6526,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD56" t="n">
-        <v>1.8333333333333333</v>
+        <v>11.0</v>
       </c>
       <c r="AE56" t="n">
-        <v>-0.4166666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.5634920634920636</v>
+        <v>1.0</v>
       </c>
       <c r="AG56" t="n">
         <v>0.0</v>
@@ -6570,7 +6570,7 @@
         <v>0.7001972386587771</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7214725650655627</v>
+        <v>0.721472565065563</v>
       </c>
       <c r="L57" t="n">
         <v>4.585365853658536</v>
@@ -6627,13 +6627,13 @@
         <v>-0.48477157360406076</v>
       </c>
       <c r="AD57" t="n">
-        <v>1.8571428571428572</v>
+        <v>5.0</v>
       </c>
       <c r="AE57" t="n">
-        <v>-0.42857142857142855</v>
+        <v>0.0</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.6396799641187764</v>
+        <v>1.0</v>
       </c>
       <c r="AG57" t="n">
         <v>0.0</v>
@@ -6671,7 +6671,7 @@
         <v>0.740484429065744</v>
       </c>
       <c r="K58" t="n">
-        <v>0.746726910333588</v>
+        <v>0.7467269103335877</v>
       </c>
       <c r="L58" t="n">
         <v>2.727272727272727</v>
@@ -6728,13 +6728,13 @@
         <v>-0.16315789473684197</v>
       </c>
       <c r="AD58" t="n">
-        <v>1.8888888888888888</v>
+        <v>5.0</v>
       </c>
       <c r="AE58" t="n">
-        <v>-1.0555555555555556</v>
+        <v>0.0</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.6122245516114628</v>
+        <v>1.0</v>
       </c>
       <c r="AG58" t="n">
         <v>0.0</v>
@@ -6772,7 +6772,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6864100233833473</v>
+        <v>0.6864100233833476</v>
       </c>
       <c r="L59" t="n">
         <v>2.7222222222222223</v>
@@ -6829,13 +6829,13 @@
         <v>-0.2</v>
       </c>
       <c r="AD59" t="n">
-        <v>1.8461538461538463</v>
+        <v>4.0</v>
       </c>
       <c r="AE59" t="n">
-        <v>-0.5384615384615384</v>
+        <v>0.0</v>
       </c>
       <c r="AF59" t="n">
-        <v>0.6287299445194181</v>
+        <v>1.0</v>
       </c>
       <c r="AG59" t="n">
         <v>0.0</v>
@@ -6873,7 +6873,7 @@
         <v>0.5250544662309368</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6096235412027469</v>
+        <v>0.6096235412027468</v>
       </c>
       <c r="L60" t="n">
         <v>3.408333333333333</v>
@@ -6930,16 +6930,16 @@
         <v>-0.29166666666666674</v>
       </c>
       <c r="AD60" t="n">
-        <v>3.263157894736842</v>
+        <v>6.0</v>
       </c>
       <c r="AE60" t="n">
-        <v>-1.368421052631579</v>
+        <v>-3.0</v>
       </c>
       <c r="AF60" t="n">
-        <v>0.6880745776766</v>
+        <v>1.0</v>
       </c>
       <c r="AG60" t="n">
-        <v>0.40325814536340854</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="61">
@@ -6974,7 +6974,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6303361469402874</v>
+        <v>0.6303361469402875</v>
       </c>
       <c r="L61" t="n">
         <v>2.65</v>
@@ -7031,13 +7031,13 @@
         <v>-0.13043478260869637</v>
       </c>
       <c r="AD61" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AE61" t="n">
-        <v>-0.6923076923076923</v>
+        <v>0.0</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.731449842155488</v>
+        <v>1.0</v>
       </c>
       <c r="AG61" t="n">
         <v>0.0</v>
@@ -7132,16 +7132,16 @@
         <v>-0.7763157894736843</v>
       </c>
       <c r="AD62" t="n">
-        <v>2.3076923076923075</v>
+        <v>12.0</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.0</v>
       </c>
       <c r="AF62" t="n">
-        <v>0.5698214828649613</v>
+        <v>1.0</v>
       </c>
       <c r="AG62" t="n">
-        <v>0.6757575757575759</v>
+        <v>0.0454545454545455</v>
       </c>
     </row>
     <row r="63">
@@ -7233,16 +7233,16 @@
         <v>-0.3315128345166575</v>
       </c>
       <c r="AD63" t="n">
-        <v>2.4210526315789473</v>
+        <v>10.0</v>
       </c>
       <c r="AE63" t="n">
-        <v>-0.6842105263157895</v>
+        <v>0.0</v>
       </c>
       <c r="AF63" t="n">
-        <v>0.5949563429154252</v>
+        <v>1.0</v>
       </c>
       <c r="AG63" t="n">
-        <v>0.30740740740740735</v>
+        <v>0.0222222222222222</v>
       </c>
     </row>
     <row r="64">
@@ -7334,16 +7334,16 @@
         <v>-0.3267882187938283</v>
       </c>
       <c r="AD64" t="n">
-        <v>3.142857142857143</v>
+        <v>5.0</v>
       </c>
       <c r="AE64" t="n">
-        <v>-1.0</v>
+        <v>-3.0</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.7296513894066733</v>
+        <v>1.0</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.4818181818181818</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="65">
@@ -7378,7 +7378,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7670059672747954</v>
+        <v>0.7670059672747956</v>
       </c>
       <c r="L65" t="n">
         <v>4.764705882352941</v>
@@ -7435,13 +7435,13 @@
         <v>-0.9444444444444444</v>
       </c>
       <c r="AD65" t="n">
-        <v>1.8666666666666667</v>
+        <v>2.0</v>
       </c>
       <c r="AE65" t="n">
-        <v>-0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.6936707374093941</v>
+        <v>0.961538461538461</v>
       </c>
       <c r="AG65" t="n">
         <v>0.0</v>
@@ -7479,7 +7479,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="K66" t="n">
-        <v>0.6518436414268679</v>
+        <v>0.6518436414268681</v>
       </c>
       <c r="L66" t="n">
         <v>3.806451612903226</v>
@@ -7536,16 +7536,16 @@
         <v>-0.6129032258064515</v>
       </c>
       <c r="AD66" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE66" t="n">
-        <v>-1.5384615384615385</v>
+        <v>-3.0</v>
       </c>
       <c r="AF66" t="n">
-        <v>0.660036636780582</v>
+        <v>1.0</v>
       </c>
       <c r="AG66" t="n">
-        <v>0.2666666666666668</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="67">
@@ -7580,7 +7580,7 @@
         <v>0.6301775147928994</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6487310688403933</v>
+        <v>0.6487310688403936</v>
       </c>
       <c r="L67" t="n">
         <v>2.967741935483871</v>
@@ -7637,13 +7637,13 @@
         <v>-0.4313099041533548</v>
       </c>
       <c r="AD67" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE67" t="n">
-        <v>-1.0</v>
+        <v>-2.0</v>
       </c>
       <c r="AF67" t="n">
-        <v>0.6407596371882086</v>
+        <v>1.0</v>
       </c>
       <c r="AG67" t="n">
         <v>0.0</v>
@@ -7681,7 +7681,7 @@
         <v>0.5907297830374754</v>
       </c>
       <c r="K68" t="n">
-        <v>0.6972948089468826</v>
+        <v>0.6972948089468821</v>
       </c>
       <c r="L68" t="n">
         <v>4.645161290322581</v>
@@ -7738,16 +7738,16 @@
         <v>-0.41830065359477103</v>
       </c>
       <c r="AD68" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE68" t="n">
-        <v>-0.7142857142857143</v>
+        <v>0.0</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.6638271460641795</v>
+        <v>1.0</v>
       </c>
       <c r="AG68" t="n">
-        <v>0.19047619047619058</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -7782,7 +7782,7 @@
         <v>0.4751683501683501</v>
       </c>
       <c r="K69" t="n">
-        <v>0.6995900777392826</v>
+        <v>0.699590077739283</v>
       </c>
       <c r="L69" t="n">
         <v>1.8157894736842106</v>
@@ -7839,16 +7839,16 @@
         <v>-0.16031746031746022</v>
       </c>
       <c r="AD69" t="n">
-        <v>2.6153846153846154</v>
+        <v>6.0</v>
       </c>
       <c r="AE69" t="n">
-        <v>-1.6153846153846154</v>
+        <v>0.0</v>
       </c>
       <c r="AF69" t="n">
-        <v>0.7086869556619251</v>
+        <v>0.954545454545454</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.2606060606060606</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="70">
@@ -7883,7 +7883,7 @@
         <v>1.0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.7759907622602042</v>
       </c>
       <c r="L70" t="n">
         <v>4.425531914893617</v>
@@ -7940,13 +7940,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD70" t="n">
-        <v>1.8461538461538463</v>
+        <v>12.0</v>
       </c>
       <c r="AE70" t="n">
-        <v>-1.3846153846153846</v>
+        <v>-3.0</v>
       </c>
       <c r="AF70" t="n">
-        <v>0.5585284280936459</v>
+        <v>1.0</v>
       </c>
       <c r="AG70" t="n">
         <v>0.0</v>
@@ -7984,7 +7984,7 @@
         <v>0.1671085858585859</v>
       </c>
       <c r="K71" t="n">
-        <v>0.41501885289083923</v>
+        <v>0.4150188528908394</v>
       </c>
       <c r="L71" t="n">
         <v>4.8977272727272725</v>
@@ -8039,16 +8039,16 @@
         <v>-0.4635520212060964</v>
       </c>
       <c r="AD71" t="n">
-        <v>6.461538461538462</v>
+        <v>4.0</v>
       </c>
       <c r="AE71" t="n">
         <v>-3.0</v>
       </c>
       <c r="AF71" t="n">
-        <v>0.7087044534412955</v>
+        <v>0.6</v>
       </c>
       <c r="AG71" t="n">
-        <v>0.8103452103452103</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -8083,7 +8083,7 @@
         <v>0.40622895622895616</v>
       </c>
       <c r="K72" t="n">
-        <v>0.589029733534097</v>
+        <v>0.5890297335340973</v>
       </c>
       <c r="L72" t="n">
         <v>6.423076923076923</v>
@@ -8140,16 +8140,16 @@
         <v>-0.3617472434266336</v>
       </c>
       <c r="AD72" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="AE72" t="n">
-        <v>-2.769230769230769</v>
+        <v>0.0</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.688754312244895</v>
+        <v>1.0</v>
       </c>
       <c r="AG72" t="n">
-        <v>0.5042735042735043</v>
+        <v>0.222222222222222</v>
       </c>
     </row>
     <row r="73">
@@ -8184,7 +8184,7 @@
         <v>0.5128205128205128</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6541075676695756</v>
+        <v>0.6541075676695761</v>
       </c>
       <c r="L73" t="n">
         <v>5.931818181818182</v>
@@ -8241,16 +8241,16 @@
         <v>-0.21794871794871837</v>
       </c>
       <c r="AD73" t="n">
-        <v>2.142857142857143</v>
+        <v>4.0</v>
       </c>
       <c r="AE73" t="n">
-        <v>-1.0</v>
+        <v>-3.0</v>
       </c>
       <c r="AF73" t="n">
-        <v>0.6878842371819917</v>
+        <v>1.0</v>
       </c>
       <c r="AG73" t="n">
-        <v>0.3</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="74">
@@ -8285,7 +8285,7 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7419526491669418</v>
+        <v>0.741952649166942</v>
       </c>
       <c r="L74" t="n">
         <v>3.9622641509433962</v>
@@ -8342,13 +8342,13 @@
         <v>-0.4</v>
       </c>
       <c r="AD74" t="n">
-        <v>1.8461538461538463</v>
+        <v>6.0</v>
       </c>
       <c r="AE74" t="n">
-        <v>-0.7692307692307693</v>
+        <v>0.0</v>
       </c>
       <c r="AF74" t="n">
-        <v>0.6170822281167109</v>
+        <v>1.0</v>
       </c>
       <c r="AG74" t="n">
         <v>0.0</v>
@@ -8386,7 +8386,7 @@
         <v>0.6856060606060606</v>
       </c>
       <c r="K75" t="n">
-        <v>0.6903631718354523</v>
+        <v>0.690363171835452</v>
       </c>
       <c r="L75" t="n">
         <v>1.72</v>
@@ -8443,13 +8443,13 @@
         <v>-0.07784431137724564</v>
       </c>
       <c r="AD75" t="n">
-        <v>1.8461538461538463</v>
+        <v>4.0</v>
       </c>
       <c r="AE75" t="n">
-        <v>-0.38461538461538464</v>
+        <v>-3.0</v>
       </c>
       <c r="AF75" t="n">
-        <v>0.6382940684759759</v>
+        <v>1.0</v>
       </c>
       <c r="AG75" t="n">
         <v>0.0</v>
@@ -8487,7 +8487,7 @@
         <v>0.39730639730639733</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6646145954904615</v>
+        <v>0.6646145954904611</v>
       </c>
       <c r="L76" t="n">
         <v>3.475</v>
@@ -8544,16 +8544,16 @@
         <v>-0.3017319963536909</v>
       </c>
       <c r="AD76" t="n">
-        <v>3.230769230769231</v>
+        <v>2.0</v>
       </c>
       <c r="AE76" t="n">
-        <v>-0.7692307692307693</v>
+        <v>0.0</v>
       </c>
       <c r="AF76" t="n">
-        <v>0.7634822288522587</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="AG76" t="n">
-        <v>0.6626984126984128</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -8645,13 +8645,13 @@
         <v>-0.2</v>
       </c>
       <c r="AD77" t="n">
-        <v>1.8461538461538463</v>
+        <v>4.0</v>
       </c>
       <c r="AE77" t="n">
-        <v>-1.6153846153846154</v>
+        <v>0.0</v>
       </c>
       <c r="AF77" t="n">
-        <v>0.6287299445194181</v>
+        <v>1.0</v>
       </c>
       <c r="AG77" t="n">
         <v>0.0</v>
@@ -8689,7 +8689,7 @@
         <v>0.8421717171717171</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7633270405226221</v>
+        <v>0.7633270405226223</v>
       </c>
       <c r="L78" t="n">
         <v>3.48</v>
@@ -8744,13 +8744,13 @@
         <v>-0.6560885608856084</v>
       </c>
       <c r="AD78" t="n">
-        <v>1.8461538461538463</v>
+        <v>2.0</v>
       </c>
       <c r="AE78" t="n">
         <v>-3.0</v>
       </c>
       <c r="AF78" t="n">
-        <v>0.607838827838828</v>
+        <v>0.64</v>
       </c>
       <c r="AG78" t="n">
         <v>0.0</v>
@@ -8788,7 +8788,7 @@
         <v>0.5851239669421487</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6929632483024004</v>
+        <v>0.6929632483024006</v>
       </c>
       <c r="L79" t="n">
         <v>1.7272727272727273</v>
@@ -8845,13 +8845,13 @@
         <v>-0.16260162601626008</v>
       </c>
       <c r="AD79" t="n">
-        <v>1.8333333333333333</v>
+        <v>3.0</v>
       </c>
       <c r="AE79" t="n">
-        <v>-2.0</v>
+        <v>-3.0</v>
       </c>
       <c r="AF79" t="n">
-        <v>0.6816882604173121</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="AG79" t="n">
         <v>0.0</v>
@@ -8889,7 +8889,7 @@
         <v>0.7563131313131313</v>
       </c>
       <c r="K80" t="n">
-        <v>0.6818432807724646</v>
+        <v>0.6818432807724641</v>
       </c>
       <c r="L80" t="n">
         <v>1.84375</v>
@@ -8946,16 +8946,16 @@
         <v>-0.17799352750809064</v>
       </c>
       <c r="AD80" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE80" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AF80" t="n">
-        <v>0.623153965461658</v>
+        <v>1.0</v>
       </c>
       <c r="AG80" t="n">
-        <v>0.33333333333333326</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -8990,7 +8990,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6470989296530397</v>
+        <v>0.6470989296530395</v>
       </c>
       <c r="L81" t="n">
         <v>2.656716417910448</v>
@@ -9047,16 +9047,16 @@
         <v>-0.3955715140634348</v>
       </c>
       <c r="AD81" t="n">
-        <v>2.933333333333333</v>
+        <v>5.0</v>
       </c>
       <c r="AE81" t="n">
-        <v>-1.1333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.6883964364475562</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="AG81" t="n">
-        <v>0.6246753246753247</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="82">
@@ -9148,13 +9148,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD82" t="n">
-        <v>1.8461538461538463</v>
+        <v>12.0</v>
       </c>
       <c r="AE82" t="n">
-        <v>-2.6153846153846154</v>
+        <v>-3.0</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.5585284280936459</v>
+        <v>1.0</v>
       </c>
       <c r="AG82" t="n">
         <v>0.0</v>
@@ -9192,7 +9192,7 @@
         <v>0.8907828282828283</v>
       </c>
       <c r="K83" t="n">
-        <v>0.7628503064972031</v>
+        <v>0.7628503064972033</v>
       </c>
       <c r="L83" t="n">
         <v>1.9069767441860466</v>
@@ -9249,13 +9249,13 @@
         <v>-0.582236842105263</v>
       </c>
       <c r="AD83" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="AE83" t="n">
-        <v>-1.4615384615384615</v>
+        <v>0.0</v>
       </c>
       <c r="AF83" t="n">
-        <v>0.5920233612541306</v>
+        <v>1.0</v>
       </c>
       <c r="AG83" t="n">
         <v>0.0</v>
@@ -9293,7 +9293,7 @@
         <v>0.5661718750000001</v>
       </c>
       <c r="K84" t="n">
-        <v>0.6724618248782627</v>
+        <v>0.6724618248782623</v>
       </c>
       <c r="L84" t="n">
         <v>2.6161137440758293</v>
@@ -9350,16 +9350,16 @@
         <v>-0.3609565829017203</v>
       </c>
       <c r="AD84" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="AE84" t="n">
-        <v>-1.411764705882353</v>
+        <v>0.0</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.6258907628942716</v>
+        <v>1.0</v>
       </c>
       <c r="AG84" t="n">
-        <v>0.5659622428853199</v>
+        <v>0.205128205128205</v>
       </c>
     </row>
     <row r="85">
@@ -9394,7 +9394,7 @@
         <v>0.6891679748822606</v>
       </c>
       <c r="K85" t="n">
-        <v>0.6919737827513825</v>
+        <v>0.691973782751383</v>
       </c>
       <c r="L85" t="n">
         <v>1.375</v>
@@ -9451,16 +9451,16 @@
         <v>-0.2585616438356163</v>
       </c>
       <c r="AD85" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="AE85" t="n">
-        <v>-0.4</v>
+        <v>-2.0</v>
       </c>
       <c r="AF85" t="n">
-        <v>0.6426629795416982</v>
+        <v>1.0</v>
       </c>
       <c r="AG85" t="n">
-        <v>0.2047619047619047</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -9495,7 +9495,7 @@
         <v>0.6439842209072978</v>
       </c>
       <c r="K86" t="n">
-        <v>0.6286140034427037</v>
+        <v>0.6286140034427038</v>
       </c>
       <c r="L86" t="n">
         <v>3.0714285714285716</v>
@@ -9552,16 +9552,16 @@
         <v>-0.20491803278688497</v>
       </c>
       <c r="AD86" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE86" t="n">
-        <v>-0.7142857142857143</v>
+        <v>0.0</v>
       </c>
       <c r="AF86" t="n">
-        <v>0.6584126572703488</v>
+        <v>1.0</v>
       </c>
       <c r="AG86" t="n">
-        <v>0.1875</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -9596,7 +9596,7 @@
         <v>0.18550084175084178</v>
       </c>
       <c r="K87" t="n">
-        <v>0.4892434027867939</v>
+        <v>0.4892434027867937</v>
       </c>
       <c r="L87" t="n">
         <v>7.4</v>
@@ -9653,16 +9653,16 @@
         <v>-0.0037174721189577836</v>
       </c>
       <c r="AD87" t="n">
-        <v>2.769230769230769</v>
+        <v>3.0</v>
       </c>
       <c r="AE87" t="n">
-        <v>-2.769230769230769</v>
+        <v>-3.0</v>
       </c>
       <c r="AF87" t="n">
-        <v>0.8212040908825984</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="AG87" t="n">
-        <v>0.10256410256410262</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -9697,7 +9697,7 @@
         <v>0.4403453689167976</v>
       </c>
       <c r="K88" t="n">
-        <v>0.6463453681635187</v>
+        <v>0.6463453681635188</v>
       </c>
       <c r="L88" t="n">
         <v>5.966101694915254</v>
@@ -9752,16 +9752,16 @@
         <v>-0.1282798833819244</v>
       </c>
       <c r="AD88" t="n">
-        <v>2.4</v>
+        <v>5.0</v>
       </c>
       <c r="AE88" t="n">
-        <v>-2.8</v>
+        <v>-3.0</v>
       </c>
       <c r="AF88" t="n">
-        <v>0.7004205126098291</v>
+        <v>1.0</v>
       </c>
       <c r="AG88" t="n">
-        <v>0.2466666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="89">
@@ -9796,7 +9796,7 @@
         <v>0.7060439560439561</v>
       </c>
       <c r="K89" t="n">
-        <v>0.6669611518351825</v>
+        <v>0.6669611518351822</v>
       </c>
       <c r="L89" t="n">
         <v>2.127659574468085</v>
@@ -9851,16 +9851,16 @@
         <v>-0.17782909930715926</v>
       </c>
       <c r="AD89" t="n">
-        <v>2.2666666666666666</v>
+        <v>5.0</v>
       </c>
       <c r="AE89" t="n">
-        <v>-2.6</v>
+        <v>-3.0</v>
       </c>
       <c r="AF89" t="n">
-        <v>0.6357245797383172</v>
+        <v>1.0</v>
       </c>
       <c r="AG89" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -9952,16 +9952,16 @@
         <v>-0.5216434336023477</v>
       </c>
       <c r="AD90" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="AE90" t="n">
-        <v>-0.23529411764705882</v>
+        <v>0.0</v>
       </c>
       <c r="AF90" t="n">
-        <v>0.5842156298977327</v>
+        <v>1.0</v>
       </c>
       <c r="AG90" t="n">
-        <v>0.38888888888888884</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -9996,7 +9996,7 @@
         <v>0.2819834710743802</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3286017616669822</v>
+        <v>0.328601761666982</v>
       </c>
       <c r="L91" t="n">
         <v>3.2222222222222223</v>
@@ -10053,16 +10053,16 @@
         <v>-0.24271844660194175</v>
       </c>
       <c r="AD91" t="n">
-        <v>2.6666666666666665</v>
+        <v>3.0</v>
       </c>
       <c r="AE91" t="n">
-        <v>-2.25</v>
+        <v>0.0</v>
       </c>
       <c r="AF91" t="n">
-        <v>0.8135841923880718</v>
+        <v>0.84</v>
       </c>
       <c r="AG91" t="n">
-        <v>0.08333333333333325</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="92">
@@ -10097,7 +10097,7 @@
         <v>0.4972643097643097</v>
       </c>
       <c r="K92" t="n">
-        <v>0.6061860976384703</v>
+        <v>0.6061860976384705</v>
       </c>
       <c r="L92" t="n">
         <v>6.856060606060606</v>
@@ -10154,16 +10154,16 @@
         <v>-0.4539205155746513</v>
       </c>
       <c r="AD92" t="n">
-        <v>3.6923076923076925</v>
+        <v>10.0</v>
       </c>
       <c r="AE92" t="n">
-        <v>-1.1538461538461537</v>
+        <v>0.0</v>
       </c>
       <c r="AF92" t="n">
-        <v>0.6798167676886212</v>
+        <v>1.0</v>
       </c>
       <c r="AG92" t="n">
-        <v>0.6521367521367522</v>
+        <v>0.177777777777778</v>
       </c>
     </row>
     <row r="93">
@@ -10198,7 +10198,7 @@
         <v>0.5464856902356902</v>
       </c>
       <c r="K93" t="n">
-        <v>0.6728497817027043</v>
+        <v>0.6728497817027038</v>
       </c>
       <c r="L93" t="n">
         <v>4.3076923076923075</v>
@@ -10255,13 +10255,13 @@
         <v>-0.3846153846153847</v>
       </c>
       <c r="AD93" t="n">
-        <v>2.3076923076923075</v>
+        <v>6.0</v>
       </c>
       <c r="AE93" t="n">
-        <v>-2.076923076923077</v>
+        <v>-3.0</v>
       </c>
       <c r="AF93" t="n">
-        <v>0.6923347564504964</v>
+        <v>1.0</v>
       </c>
       <c r="AG93" t="n">
         <v>0.0</v>
@@ -10299,7 +10299,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="K94" t="n">
-        <v>0.6794615015976847</v>
+        <v>0.6794615015976844</v>
       </c>
       <c r="L94" t="n">
         <v>3.696969696969697</v>
@@ -10356,13 +10356,13 @@
         <v>-0.07317073170731705</v>
       </c>
       <c r="AD94" t="n">
-        <v>1.8333333333333333</v>
+        <v>3.0</v>
       </c>
       <c r="AE94" t="n">
-        <v>-0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AF94" t="n">
-        <v>0.7010488555325511</v>
+        <v>1.0</v>
       </c>
       <c r="AG94" t="n">
         <v>0.0</v>
@@ -10400,7 +10400,7 @@
         <v>0.6382575757575758</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7514790618967375</v>
+        <v>0.7514790618967372</v>
       </c>
       <c r="L95" t="n">
         <v>2.227272727272727</v>
@@ -10457,16 +10457,16 @@
         <v>-0.6833667334669334</v>
       </c>
       <c r="AD95" t="n">
-        <v>2.1538461538461537</v>
+        <v>3.0</v>
       </c>
       <c r="AE95" t="n">
-        <v>-0.5384615384615384</v>
+        <v>0.0</v>
       </c>
       <c r="AF95" t="n">
-        <v>0.6761213402460087</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="AG95" t="n">
-        <v>0.41428571428571426</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="96">
@@ -10501,7 +10501,7 @@
         <v>0.8358585858585859</v>
       </c>
       <c r="K96" t="n">
-        <v>0.7243148930851242</v>
+        <v>0.7243148930851244</v>
       </c>
       <c r="L96" t="n">
         <v>2.27027027027027</v>
@@ -10558,16 +10558,16 @@
         <v>-0.5475797579757974</v>
       </c>
       <c r="AD96" t="n">
-        <v>2.6153846153846154</v>
+        <v>10.0</v>
       </c>
       <c r="AE96" t="n">
-        <v>-0.46153846153846156</v>
+        <v>0.0</v>
       </c>
       <c r="AF96" t="n">
-        <v>0.600380904742756</v>
+        <v>1.0</v>
       </c>
       <c r="AG96" t="n">
-        <v>0.7320987654320987</v>
+        <v>0.0888888888888889</v>
       </c>
     </row>
     <row r="97">
@@ -10602,7 +10602,7 @@
         <v>0.7291666666666666</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7281974999558517</v>
+        <v>0.7281974999558518</v>
       </c>
       <c r="L97" t="n">
         <v>2.5238095238095237</v>
@@ -10659,16 +10659,16 @@
         <v>-0.18954248366013055</v>
       </c>
       <c r="AD97" t="n">
-        <v>2.1538461538461537</v>
+        <v>6.0</v>
       </c>
       <c r="AE97" t="n">
-        <v>-0.6153846153846154</v>
+        <v>0.0</v>
       </c>
       <c r="AF97" t="n">
-        <v>0.6256680161943321</v>
+        <v>1.0</v>
       </c>
       <c r="AG97" t="n">
-        <v>0.3523809523809523</v>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="98">
@@ -10703,7 +10703,7 @@
         <v>1.0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="L98" t="n">
         <v>1.0</v>
@@ -10760,13 +10760,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD98" t="n">
-        <v>1.8461538461538463</v>
+        <v>12.0</v>
       </c>
       <c r="AE98" t="n">
-        <v>-0.6153846153846154</v>
+        <v>0.0</v>
       </c>
       <c r="AF98" t="n">
-        <v>0.5585284280936459</v>
+        <v>1.0</v>
       </c>
       <c r="AG98" t="n">
         <v>0.0</v>
@@ -10804,7 +10804,7 @@
         <v>0.9848484848484849</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7659569903204871</v>
+        <v>0.7659569903204869</v>
       </c>
       <c r="L99" t="n">
         <v>2.4489795918367347</v>
@@ -10861,16 +10861,16 @@
         <v>-0.8935950413223142</v>
       </c>
       <c r="AD99" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="AE99" t="n">
-        <v>-0.38461538461538464</v>
+        <v>0.0</v>
       </c>
       <c r="AF99" t="n">
-        <v>0.5621769534813016</v>
+        <v>1.0</v>
       </c>
       <c r="AG99" t="n">
-        <v>0.6717171717171717</v>
+        <v>0.0151515151515152</v>
       </c>
     </row>
     <row r="100">
@@ -10905,7 +10905,7 @@
         <v>0.9305785123966942</v>
       </c>
       <c r="K100" t="n">
-        <v>0.7717188152054522</v>
+        <v>0.7717188152054519</v>
       </c>
       <c r="L100" t="n">
         <v>1.9565217391304348</v>
@@ -10962,13 +10962,13 @@
         <v>-0.7262313860252004</v>
       </c>
       <c r="AD100" t="n">
-        <v>1.8333333333333333</v>
+        <v>9.0</v>
       </c>
       <c r="AE100" t="n">
-        <v>-1.1666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AF100" t="n">
-        <v>0.5861105545537524</v>
+        <v>1.0</v>
       </c>
       <c r="AG100" t="n">
         <v>0.0</v>
@@ -11006,7 +11006,7 @@
         <v>0.5019723865877712</v>
       </c>
       <c r="K101" t="n">
-        <v>0.696491429139916</v>
+        <v>0.696491429139917</v>
       </c>
       <c r="L101" t="n">
         <v>1.5</v>
@@ -11063,13 +11063,13 @@
         <v>-0.15923566878980935</v>
       </c>
       <c r="AD101" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE101" t="n">
-        <v>-0.07142857142857142</v>
+        <v>0.0</v>
       </c>
       <c r="AF101" t="n">
-        <v>0.7064504120268517</v>
+        <v>0.88235294117647</v>
       </c>
       <c r="AG101" t="n">
         <v>0.0</v>
@@ -11107,7 +11107,7 @@
         <v>0.7563131313131313</v>
       </c>
       <c r="K102" t="n">
-        <v>0.7391624752530124</v>
+        <v>0.7391624752530125</v>
       </c>
       <c r="L102" t="n">
         <v>2.5555555555555554</v>
@@ -11164,13 +11164,13 @@
         <v>-0.08333333333333326</v>
       </c>
       <c r="AD102" t="n">
-        <v>1.8461538461538463</v>
+        <v>5.0</v>
       </c>
       <c r="AE102" t="n">
-        <v>-0.8461538461538461</v>
+        <v>0.0</v>
       </c>
       <c r="AF102" t="n">
-        <v>0.6218589267784156</v>
+        <v>1.0</v>
       </c>
       <c r="AG102" t="n">
         <v>0.0</v>
@@ -11208,7 +11208,7 @@
         <v>0.23758417508417512</v>
       </c>
       <c r="K103" t="n">
-        <v>0.5248565426737827</v>
+        <v>0.5248565426737829</v>
       </c>
       <c r="L103" t="n">
         <v>5.855555555555555</v>
@@ -11265,16 +11265,16 @@
         <v>-0.038961038961039286</v>
       </c>
       <c r="AD103" t="n">
-        <v>3.076923076923077</v>
+        <v>3.0</v>
       </c>
       <c r="AE103" t="n">
-        <v>-2.6923076923076925</v>
+        <v>0.0</v>
       </c>
       <c r="AF103" t="n">
-        <v>0.7567366449211196</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="AG103" t="n">
-        <v>0.35277777777777775</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="104">
@@ -11309,7 +11309,7 @@
         <v>0.5140495867768595</v>
       </c>
       <c r="K104" t="n">
-        <v>0.503542915995974</v>
+        <v>0.5035429159959741</v>
       </c>
       <c r="L104" t="n">
         <v>4.011627906976744</v>
@@ -11366,16 +11366,16 @@
         <v>-0.12</v>
       </c>
       <c r="AD104" t="n">
-        <v>2.6666666666666665</v>
+        <v>4.0</v>
       </c>
       <c r="AE104" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="AF104" t="n">
-        <v>0.7038043192231723</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="AG104" t="n">
-        <v>0.2266666666666666</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="105">
@@ -11410,7 +11410,7 @@
         <v>0.5088383838383839</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5298498999513519</v>
+        <v>0.5298498999513523</v>
       </c>
       <c r="L105" t="n">
         <v>2.2045454545454546</v>
@@ -11467,16 +11467,16 @@
         <v>-0.26378896882493935</v>
       </c>
       <c r="AD105" t="n">
-        <v>2.6153846153846154</v>
+        <v>4.0</v>
       </c>
       <c r="AE105" t="n">
         <v>-1.0</v>
       </c>
       <c r="AF105" t="n">
-        <v>0.7168803672576528</v>
+        <v>1.0</v>
       </c>
       <c r="AG105" t="n">
-        <v>0.5222222222222223</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="106">
@@ -11568,13 +11568,13 @@
         <v>-0.6754966887417219</v>
       </c>
       <c r="AD106" t="n">
-        <v>1.8333333333333333</v>
+        <v>3.0</v>
       </c>
       <c r="AE106" t="n">
-        <v>-1.5</v>
+        <v>0.0</v>
       </c>
       <c r="AF106" t="n">
-        <v>0.6745602093045053</v>
+        <v>1.0</v>
       </c>
       <c r="AG106" t="n">
         <v>0.0</v>
@@ -11612,7 +11612,7 @@
         <v>0.577020202020202</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5919173910257378</v>
+        <v>0.5919173910257381</v>
       </c>
       <c r="L107" t="n">
         <v>2.7625</v>
@@ -11669,16 +11669,16 @@
         <v>-0.20491803278688578</v>
       </c>
       <c r="AD107" t="n">
-        <v>3.230769230769231</v>
+        <v>7.0</v>
       </c>
       <c r="AE107" t="n">
-        <v>-1.4615384615384615</v>
+        <v>0.0</v>
       </c>
       <c r="AF107" t="n">
-        <v>0.6800009236017288</v>
+        <v>1.0</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.3827838827838827</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="108">
@@ -11713,7 +11713,7 @@
         <v>0.509469696969697</v>
       </c>
       <c r="K108" t="n">
-        <v>0.6856155533238778</v>
+        <v>0.6856155533238777</v>
       </c>
       <c r="L108" t="n">
         <v>2.8</v>
@@ -11770,16 +11770,16 @@
         <v>-0.2414089347079042</v>
       </c>
       <c r="AD108" t="n">
-        <v>2.6153846153846154</v>
+        <v>7.0</v>
       </c>
       <c r="AE108" t="n">
-        <v>-1.3076923076923077</v>
+        <v>0.0</v>
       </c>
       <c r="AF108" t="n">
-        <v>0.6607293401467531</v>
+        <v>1.0</v>
       </c>
       <c r="AG108" t="n">
-        <v>0.5130952380952379</v>
+        <v>0.238095238095238</v>
       </c>
     </row>
     <row r="109">
@@ -11814,7 +11814,7 @@
         <v>1.0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.775990762260204</v>
+        <v>0.7759907622602042</v>
       </c>
       <c r="L109" t="n">
         <v>1.6923076923076923</v>
@@ -11871,13 +11871,13 @@
         <v>-1.0</v>
       </c>
       <c r="AD109" t="n">
-        <v>1.8461538461538463</v>
+        <v>12.0</v>
       </c>
       <c r="AE109" t="n">
-        <v>-1.3076923076923077</v>
+        <v>0.0</v>
       </c>
       <c r="AF109" t="n">
-        <v>0.5585284280936459</v>
+        <v>1.0</v>
       </c>
       <c r="AG109" t="n">
         <v>0.0</v>
@@ -11972,13 +11972,13 @@
         <v>-0.26829268292682923</v>
       </c>
       <c r="AD110" t="n">
-        <v>2.1538461538461537</v>
+        <v>6.0</v>
       </c>
       <c r="AE110" t="n">
-        <v>-1.1538461538461537</v>
+        <v>-1.0</v>
       </c>
       <c r="AF110" t="n">
-        <v>0.645797906405847</v>
+        <v>1.0</v>
       </c>
       <c r="AG110" t="n">
         <v>0.0</v>
@@ -12073,16 +12073,16 @@
         <v>-0.30789049919484696</v>
       </c>
       <c r="AD111" t="n">
-        <v>4.769230769230769</v>
+        <v>12.0</v>
       </c>
       <c r="AE111" t="n">
-        <v>-0.07692307692307693</v>
+        <v>0.0</v>
       </c>
       <c r="AF111" t="n">
-        <v>0.636791278896542</v>
+        <v>1.0</v>
       </c>
       <c r="AG111" t="n">
-        <v>0.7965034965034965</v>
+        <v>0.287878787878788</v>
       </c>
     </row>
     <row r="112">
@@ -12117,7 +12117,7 @@
         <v>0.8533333333333334</v>
       </c>
       <c r="K112" t="n">
-        <v>0.7896680211760521</v>
+        <v>0.7896680211760522</v>
       </c>
       <c r="L112" t="n">
         <v>1.3181818181818181</v>
@@ -12174,13 +12174,13 @@
         <v>-0.3530066815144768</v>
       </c>
       <c r="AD112" t="n">
-        <v>1.875</v>
+        <v>8.0</v>
       </c>
       <c r="AE112" t="n">
-        <v>-1.375</v>
+        <v>-2.0</v>
       </c>
       <c r="AF112" t="n">
-        <v>0.5898470801364023</v>
+        <v>1.0</v>
       </c>
       <c r="AG112" t="n">
         <v>0.0</v>
@@ -12275,13 +12275,13 @@
         <v>-0.43181818181818177</v>
       </c>
       <c r="AD113" t="n">
-        <v>1.8333333333333333</v>
+        <v>6.0</v>
       </c>
       <c r="AE113" t="n">
-        <v>-1.75</v>
+        <v>0.0</v>
       </c>
       <c r="AF113" t="n">
-        <v>0.6198295168883403</v>
+        <v>1.0</v>
       </c>
       <c r="AG113" t="n">
         <v>0.0</v>
@@ -12319,7 +12319,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K114" t="n">
-        <v>0.6922340897759259</v>
+        <v>0.6922340897759256</v>
       </c>
       <c r="L114" t="n">
         <v>1.8571428571428572</v>
@@ -12376,13 +12376,13 @@
         <v>0.07874015748031477</v>
       </c>
       <c r="AD114" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE114" t="n">
-        <v>0.15384615384615385</v>
+        <v>0.0</v>
       </c>
       <c r="AF114" t="n">
-        <v>0.6861820920710676</v>
+        <v>1.0</v>
       </c>
       <c r="AG114" t="n">
         <v>0.0</v>
@@ -12420,7 +12420,7 @@
         <v>0.6760330578512397</v>
       </c>
       <c r="K115" t="n">
-        <v>0.6817290787845062</v>
+        <v>0.6817290787845063</v>
       </c>
       <c r="L115" t="n">
         <v>3.4516129032258065</v>
@@ -12477,16 +12477,16 @@
         <v>-0.10638297872340459</v>
       </c>
       <c r="AD115" t="n">
-        <v>2.1666666666666665</v>
+        <v>5.0</v>
       </c>
       <c r="AE115" t="n">
-        <v>-1.0833333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="AF115" t="n">
-        <v>0.6543145212630506</v>
+        <v>1.0</v>
       </c>
       <c r="AG115" t="n">
-        <v>0.3476190476190477</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="116">
@@ -12521,7 +12521,7 @@
         <v>0.7171717171717171</v>
       </c>
       <c r="K116" t="n">
-        <v>0.7161395173470759</v>
+        <v>0.7161395173470756</v>
       </c>
       <c r="L116" t="n">
         <v>6.3076923076923075</v>
@@ -12578,16 +12578,16 @@
         <v>-0.44302325581395346</v>
       </c>
       <c r="AD116" t="n">
-        <v>2.6153846153846154</v>
+        <v>9.0</v>
       </c>
       <c r="AE116" t="n">
-        <v>-0.46153846153846156</v>
+        <v>0.0</v>
       </c>
       <c r="AF116" t="n">
-        <v>0.627963830656715</v>
+        <v>1.0</v>
       </c>
       <c r="AG116" t="n">
-        <v>0.275</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="117">
@@ -12622,7 +12622,7 @@
         <v>0.5997474747474747</v>
       </c>
       <c r="K117" t="n">
-        <v>0.6402035492877842</v>
+        <v>0.640203549287784</v>
       </c>
       <c r="L117" t="n">
         <v>4.785714285714286</v>
@@ -12679,13 +12679,13 @@
         <v>-0.7528089887640448</v>
       </c>
       <c r="AD117" t="n">
-        <v>1.8461538461538463</v>
+        <v>3.0</v>
       </c>
       <c r="AE117" t="n">
-        <v>1.3076923076923077</v>
+        <v>0.0</v>
       </c>
       <c r="AF117" t="n">
-        <v>0.6624860067167762</v>
+        <v>1.0</v>
       </c>
       <c r="AG117" t="n">
         <v>0.0</v>
@@ -12780,16 +12780,16 @@
         <v>-0.5413402959094862</v>
       </c>
       <c r="AD118" t="n">
-        <v>2.8</v>
+        <v>6.0</v>
       </c>
       <c r="AE118" t="n">
-        <v>-0.4666666666666667</v>
+        <v>-3.0</v>
       </c>
       <c r="AF118" t="n">
-        <v>0.653583103534084</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="AG118" t="n">
-        <v>0.5318181818181819</v>
+        <v>0.266666666666667</v>
       </c>
     </row>
     <row r="119">
@@ -12824,7 +12824,7 @@
         <v>0.5147174254317112</v>
       </c>
       <c r="K119" t="n">
-        <v>0.5581881001638296</v>
+        <v>0.5581881001638294</v>
       </c>
       <c r="L119" t="n">
         <v>3.323943661971831</v>
@@ -12881,16 +12881,16 @@
         <v>0.0011098779134287855</v>
       </c>
       <c r="AD119" t="n">
-        <v>3.3333333333333335</v>
+        <v>6.0</v>
       </c>
       <c r="AE119" t="n">
-        <v>-0.26666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="AF119" t="n">
-        <v>0.6846499322527755</v>
+        <v>1.0</v>
       </c>
       <c r="AG119" t="n">
-        <v>0.49555555555555547</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="120">
@@ -12925,7 +12925,7 @@
         <v>0.5611439842209073</v>
       </c>
       <c r="K120" t="n">
-        <v>0.6462097425793838</v>
+        <v>0.6462097425793841</v>
       </c>
       <c r="L120" t="n">
         <v>2.5</v>
@@ -12982,16 +12982,16 @@
         <v>-0.6054054054054059</v>
       </c>
       <c r="AD120" t="n">
-        <v>2.5714285714285716</v>
+        <v>2.0</v>
       </c>
       <c r="AE120" t="n">
-        <v>-1.5</v>
+        <v>-3.0</v>
       </c>
       <c r="AF120" t="n">
-        <v>0.6972466975425242</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="AG120" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
@@ -13026,7 +13026,7 @@
         <v>0.32386363636363635</v>
       </c>
       <c r="K121" t="n">
-        <v>0.5757134300352925</v>
+        <v>0.5757134300352917</v>
       </c>
       <c r="L121" t="n">
         <v>6.988095238095238</v>
@@ -13083,16 +13083,16 @@
         <v>-0.05865522174535</v>
       </c>
       <c r="AD121" t="n">
-        <v>3.076923076923077</v>
+        <v>6.0</v>
       </c>
       <c r="AE121" t="n">
-        <v>-0.3076923076923077</v>
+        <v>-2.0</v>
       </c>
       <c r="AF121" t="n">
-        <v>0.7237985064948507</v>
+        <v>1.0</v>
       </c>
       <c r="AG121" t="n">
-        <v>0.20277777777777767</v>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="122">
@@ -13127,7 +13127,7 @@
         <v>0.4810606060606061</v>
       </c>
       <c r="K122" t="n">
-        <v>0.640015748728792</v>
+        <v>0.6400157487287917</v>
       </c>
       <c r="L122" t="n">
         <v>1.3888888888888888</v>
@@ -13184,13 +13184,13 @@
         <v>0.18644067796610206</v>
       </c>
       <c r="AD122" t="n">
-        <v>1.8461538461538463</v>
+        <v>3.0</v>
       </c>
       <c r="AE122" t="n">
-        <v>-1.4615384615384615</v>
+        <v>0.0</v>
       </c>
       <c r="AF122" t="n">
-        <v>0.7031294534886344</v>
+        <v>0.90625</v>
       </c>
       <c r="AG122" t="n">
         <v>0.0</v>

--- a/t12_segCAMs/outputs/networkIndicators.xlsx
+++ b/t12_segCAMs/outputs/networkIndicators.xlsx
@@ -1015,7 +1015,7 @@
         <v>0.373015873015873</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7403856875758612</v>
+        <v>0.7403856875758613</v>
       </c>
       <c r="L2" t="n">
         <v>2.1333333333333333</v>
@@ -1069,7 +1069,7 @@
         <v>0.060498220640569096</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.3253856942496493</v>
+        <v>-0.3253856942496497</v>
       </c>
       <c r="AD2" t="n">
         <v>8.0</v>
@@ -1217,7 +1217,7 @@
         <v>0.6502525252525253</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6459729144432845</v>
+        <v>0.6459729144432846</v>
       </c>
       <c r="L4" t="n">
         <v>4.181818181818182</v>
@@ -1271,7 +1271,7 @@
         <v>0.23076923076922995</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5527777777777781</v>
+        <v>-0.5527777777777784</v>
       </c>
       <c r="AD4" t="n">
         <v>5.0</v>
@@ -1318,7 +1318,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7256314504280088</v>
+        <v>0.7256314504280086</v>
       </c>
       <c r="L5" t="n">
         <v>4.517241379310345</v>
@@ -1372,7 +1372,7 @@
         <v>0.13253012048192697</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.24414715719063534</v>
+        <v>-0.2441471571906356</v>
       </c>
       <c r="AD5" t="n">
         <v>5.0</v>
@@ -1419,7 +1419,7 @@
         <v>0.5735537190082645</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5821576144967798</v>
+        <v>0.5821576144967797</v>
       </c>
       <c r="L6" t="n">
         <v>4.035714285714286</v>
@@ -1473,7 +1473,7 @@
         <v>-0.3506493506493507</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.17293233082706774</v>
+        <v>-0.172932330827067</v>
       </c>
       <c r="AD6" t="n">
         <v>4.0</v>
@@ -1520,7 +1520,7 @@
         <v>0.8699494949494949</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7730948816876566</v>
+        <v>0.7730948816876565</v>
       </c>
       <c r="L7" t="n">
         <v>3.391304347826087</v>
@@ -1621,7 +1621,7 @@
         <v>0.7950413223140496</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6992949937059292</v>
+        <v>0.6992949937059293</v>
       </c>
       <c r="L8" t="n">
         <v>3.6</v>
@@ -1722,7 +1722,7 @@
         <v>0.40067340067340057</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5001923783242048</v>
+        <v>0.5001923783242049</v>
       </c>
       <c r="L9" t="n">
         <v>3.017543859649123</v>
@@ -1823,7 +1823,7 @@
         <v>0.4940828402366864</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6661966366553169</v>
+        <v>0.666196636655317</v>
       </c>
       <c r="L10" t="n">
         <v>6.016949152542373</v>
@@ -1877,7 +1877,7 @@
         <v>-0.3636363636363669</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.22448979591836785</v>
+        <v>-0.22448979591836743</v>
       </c>
       <c r="AD10" t="n">
         <v>3.0</v>
@@ -1924,7 +1924,7 @@
         <v>0.4911616161616162</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6687610599583357</v>
+        <v>0.6687610599583356</v>
       </c>
       <c r="L11" t="n">
         <v>6.057142857142857</v>
@@ -1978,7 +1978,7 @@
         <v>-0.04557640750670103</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.06306306306306307</v>
+        <v>0.06306306306306309</v>
       </c>
       <c r="AD11" t="n">
         <v>4.0</v>
@@ -2079,7 +2079,7 @@
         <v>-0.7333333333333338</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.804705882352941</v>
+        <v>-0.8047058823529413</v>
       </c>
       <c r="AD12" t="n">
         <v>11.0</v>
@@ -2126,7 +2126,7 @@
         <v>0.4683597883597884</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6898248328535831</v>
+        <v>0.689824832853583</v>
       </c>
       <c r="L13" t="n">
         <v>3.7260273972602738</v>
@@ -2180,7 +2180,7 @@
         <v>-0.38518518518518435</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.5165794066317627</v>
+        <v>-0.5165794066317622</v>
       </c>
       <c r="AD13" t="n">
         <v>3.0</v>
@@ -2227,7 +2227,7 @@
         <v>0.5256410256410257</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6445011396907582</v>
+        <v>0.6445011396907581</v>
       </c>
       <c r="L14" t="n">
         <v>4.5</v>
@@ -2328,7 +2328,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="L15" t="n">
         <v>1.625</v>
@@ -2429,7 +2429,7 @@
         <v>0.97534516765286</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7860614906997361</v>
+        <v>0.7860614906997364</v>
       </c>
       <c r="L16" t="n">
         <v>1.7346938775510203</v>
@@ -2530,7 +2530,7 @@
         <v>0.8005050505050505</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7094200825169515</v>
+        <v>0.7094200825169514</v>
       </c>
       <c r="L17" t="n">
         <v>3.425925925925926</v>
@@ -2584,7 +2584,7 @@
         <v>0.5403225806451615</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.46527777777777773</v>
+        <v>-0.46527777777777796</v>
       </c>
       <c r="AD17" t="n">
         <v>11.0</v>
@@ -2631,7 +2631,7 @@
         <v>0.5943458251150558</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6384209554272582</v>
+        <v>0.6384209554272583</v>
       </c>
       <c r="L18" t="n">
         <v>5.568181818181818</v>
@@ -2732,7 +2732,7 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6800727431914516</v>
+        <v>0.6800727431914517</v>
       </c>
       <c r="L19" t="n">
         <v>1.641025641025641</v>
@@ -2786,7 +2786,7 @@
         <v>0.4892473118279571</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.13586956521739185</v>
+        <v>-0.1358695652173923</v>
       </c>
       <c r="AD19" t="n">
         <v>5.0</v>
@@ -2833,7 +2833,7 @@
         <v>0.18543956043956045</v>
       </c>
       <c r="K20" t="n">
-        <v>0.583629107664448</v>
+        <v>0.5836291076644481</v>
       </c>
       <c r="L20" t="n">
         <v>5.4520547945205475</v>
@@ -2887,7 +2887,7 @@
         <v>-0.1274509803921497</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.02678571428571349</v>
+        <v>-0.026785714285715616</v>
       </c>
       <c r="AD20" t="n">
         <v>2.0</v>
@@ -2934,7 +2934,7 @@
         <v>0.6656200941915228</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7456299505271813</v>
+        <v>0.745629950527181</v>
       </c>
       <c r="L21" t="n">
         <v>5.257142857142857</v>
@@ -2988,7 +2988,7 @@
         <v>0.25000000000000083</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.06578947368421083</v>
+        <v>-0.06578947368421025</v>
       </c>
       <c r="AD21" t="n">
         <v>5.0</v>
@@ -3035,7 +3035,7 @@
         <v>0.8648915187376726</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7802593038528182</v>
+        <v>0.7802593038528179</v>
       </c>
       <c r="L22" t="n">
         <v>1.7222222222222223</v>
@@ -3089,7 +3089,7 @@
         <v>-0.309352517985611</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.464546056991385</v>
+        <v>-0.4645460569913849</v>
       </c>
       <c r="AD22" t="n">
         <v>8.0</v>
@@ -3136,7 +3136,7 @@
         <v>0.5482731554160125</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6305888847153068</v>
+        <v>0.6305888847153066</v>
       </c>
       <c r="L23" t="n">
         <v>3.0833333333333335</v>
@@ -3190,7 +3190,7 @@
         <v>0.5128205128205103</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.23021582733813</v>
+        <v>-0.23021582733812843</v>
       </c>
       <c r="AD23" t="n">
         <v>5.0</v>
@@ -3237,7 +3237,7 @@
         <v>0.7389473684210527</v>
       </c>
       <c r="K24" t="n">
-        <v>0.756250031643444</v>
+        <v>0.7562500316434443</v>
       </c>
       <c r="L24" t="n">
         <v>2.0943396226415096</v>
@@ -3291,7 +3291,7 @@
         <v>-0.0029850746268649912</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.37978339350180496</v>
+        <v>-0.37978339350180446</v>
       </c>
       <c r="AD24" t="n">
         <v>6.0</v>
@@ -3493,7 +3493,7 @@
         <v>0.05489260143198313</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.193702290076336</v>
+        <v>-0.19370229007633635</v>
       </c>
       <c r="AD26" t="n">
         <v>8.0</v>
@@ -3540,7 +3540,7 @@
         <v>0.9818181818181818</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7561930600795043</v>
+        <v>0.7561930600795044</v>
       </c>
       <c r="L27" t="n">
         <v>2.6666666666666665</v>
@@ -3641,7 +3641,7 @@
         <v>0.29945286195286186</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6165075123235563</v>
+        <v>0.6165075123235559</v>
       </c>
       <c r="L28" t="n">
         <v>4.67741935483871</v>
@@ -3695,7 +3695,7 @@
         <v>-0.1333333333333356</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.31933842239185756</v>
+        <v>-0.3193384223918579</v>
       </c>
       <c r="AD28" t="n">
         <v>5.0</v>
@@ -3742,7 +3742,7 @@
         <v>0.5276134122287969</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6452743060553275</v>
+        <v>0.645274306055327</v>
       </c>
       <c r="L29" t="n">
         <v>6.611111111111111</v>
@@ -3796,7 +3796,7 @@
         <v>-0.5168539325842689</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.40816326530612274</v>
+        <v>-0.40816326530612196</v>
       </c>
       <c r="AD29" t="n">
         <v>4.0</v>
@@ -3897,7 +3897,7 @@
         <v>0.24999999999999906</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.3480801335559264</v>
+        <v>-0.3480801335559265</v>
       </c>
       <c r="AD30" t="n">
         <v>7.0</v>
@@ -3944,7 +3944,7 @@
         <v>0.39641003460207613</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6416182230273744</v>
+        <v>0.6416182230273743</v>
       </c>
       <c r="L31" t="n">
         <v>5.7894736842105265</v>
@@ -3998,7 +3998,7 @@
         <v>-0.3827160493827148</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.2480620155038759</v>
+        <v>-0.2480620155038754</v>
       </c>
       <c r="AD31" t="n">
         <v>7.0</v>
@@ -4045,7 +4045,7 @@
         <v>0.648989898989899</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6614982610536</v>
+        <v>0.6614982610535999</v>
       </c>
       <c r="L32" t="n">
         <v>3.28</v>
@@ -4146,7 +4146,7 @@
         <v>0.3869165023011177</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5535908241110465</v>
+        <v>0.5535908241110464</v>
       </c>
       <c r="L33" t="n">
         <v>5.504504504504505</v>
@@ -4200,7 +4200,7 @@
         <v>-0.08333333333333542</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.2481997119539121</v>
+        <v>-0.24819971195391283</v>
       </c>
       <c r="AD33" t="n">
         <v>8.0</v>
@@ -4301,7 +4301,7 @@
         <v>-0.002531645569622271</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.2099056603773584</v>
+        <v>-0.20990566037735817</v>
       </c>
       <c r="AD34" t="n">
         <v>6.0</v>
@@ -4402,7 +4402,7 @@
         <v>-0.5247524752475208</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.07317073170731705</v>
+        <v>-0.07317073170731846</v>
       </c>
       <c r="AD35" t="n">
         <v>4.0</v>
@@ -4503,7 +4503,7 @@
         <v>0.3519379844961237</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.43116883116883137</v>
+        <v>-0.43116883116883215</v>
       </c>
       <c r="AD36" t="n">
         <v>5.0</v>
@@ -4550,7 +4550,7 @@
         <v>0.6734375</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7192975424790959</v>
+        <v>0.7192975424790958</v>
       </c>
       <c r="L37" t="n">
         <v>3.8461538461538463</v>
@@ -4604,7 +4604,7 @@
         <v>-0.36802973977695136</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.12888888888888894</v>
+        <v>-0.12888888888888878</v>
       </c>
       <c r="AD37" t="n">
         <v>8.0</v>
@@ -4806,7 +4806,7 @@
         <v>0.11111111111110954</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.3277525022747954</v>
+        <v>-0.32775250227479497</v>
       </c>
       <c r="AD39" t="n">
         <v>10.0</v>
@@ -4853,7 +4853,7 @@
         <v>0.8446969696969697</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7067166389319384</v>
+        <v>0.7067166389319381</v>
       </c>
       <c r="L40" t="n">
         <v>1.8387096774193548</v>
@@ -4954,7 +4954,7 @@
         <v>0.7919132149901381</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7472947271454687</v>
+        <v>0.7472947271454689</v>
       </c>
       <c r="L41" t="n">
         <v>4.131578947368421</v>
@@ -5008,7 +5008,7 @@
         <v>0.12359550561797865</v>
       </c>
       <c r="AC41" t="n">
-        <v>-0.26729559748427667</v>
+        <v>-0.26729559748427617</v>
       </c>
       <c r="AD41" t="n">
         <v>6.0</v>
@@ -5055,7 +5055,7 @@
         <v>0.6300505050505051</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6814509521019756</v>
+        <v>0.6814509521019757</v>
       </c>
       <c r="L42" t="n">
         <v>1.4838709677419355</v>
@@ -5109,7 +5109,7 @@
         <v>-0.2666666666666672</v>
       </c>
       <c r="AC42" t="n">
-        <v>-0.19847743338771093</v>
+        <v>-0.19847743338771126</v>
       </c>
       <c r="AD42" t="n">
         <v>8.0</v>
@@ -5156,7 +5156,7 @@
         <v>0.22776859504132224</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5171739316071912</v>
+        <v>0.5171739316071913</v>
       </c>
       <c r="L43" t="n">
         <v>3.411764705882353</v>
@@ -5210,7 +5210,7 @@
         <v>0.1666666666666683</v>
       </c>
       <c r="AC43" t="n">
-        <v>-0.35285505124451</v>
+        <v>-0.35285505124450767</v>
       </c>
       <c r="AD43" t="n">
         <v>7.0</v>
@@ -5257,7 +5257,7 @@
         <v>0.3963893249607535</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5528351157564726</v>
+        <v>0.5528351157564725</v>
       </c>
       <c r="L44" t="n">
         <v>6.206185567010309</v>
@@ -5311,7 +5311,7 @@
         <v>-0.10091743119266035</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.12340425531914963</v>
+        <v>-0.12340425531914864</v>
       </c>
       <c r="AD44" t="n">
         <v>5.0</v>
@@ -5513,7 +5513,7 @@
         <v>-0.4117647058823519</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.6380697050938341</v>
+        <v>-0.638069705093834</v>
       </c>
       <c r="AD46" t="n">
         <v>12.0</v>
@@ -5560,7 +5560,7 @@
         <v>0.9002525252525253</v>
       </c>
       <c r="K47" t="n">
-        <v>0.758488450651388</v>
+        <v>0.7584884506513881</v>
       </c>
       <c r="L47" t="n">
         <v>2.7142857142857144</v>
@@ -5614,7 +5614,7 @@
         <v>-0.5145631067961167</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.6614210777300907</v>
+        <v>-0.6614210777300906</v>
       </c>
       <c r="AD47" t="n">
         <v>9.0</v>
@@ -5762,7 +5762,7 @@
         <v>0.6429752066115703</v>
       </c>
       <c r="K49" t="n">
-        <v>0.6001663826186265</v>
+        <v>0.6001663826186264</v>
       </c>
       <c r="L49" t="n">
         <v>3.462686567164179</v>
@@ -5816,7 +5816,7 @@
         <v>0.09430051813471563</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.37931034482758624</v>
+        <v>-0.3793103448275861</v>
       </c>
       <c r="AD49" t="n">
         <v>10.0</v>
@@ -5917,7 +5917,7 @@
         <v>0.4805194805194794</v>
       </c>
       <c r="AC50" t="n">
-        <v>-0.9882491186839014</v>
+        <v>-0.9882491186839015</v>
       </c>
       <c r="AD50" t="n">
         <v>2.0</v>
@@ -5964,7 +5964,7 @@
         <v>0.8793388429752066</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7649371473690575</v>
+        <v>0.7649371473690574</v>
       </c>
       <c r="L51" t="n">
         <v>1.6666666666666667</v>
@@ -6065,7 +6065,7 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6991548881373778</v>
+        <v>0.6991548881373776</v>
       </c>
       <c r="L52" t="n">
         <v>3.4375</v>
@@ -6119,7 +6119,7 @@
         <v>-0.06403940886699572</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.6112621359223303</v>
+        <v>-0.61126213592233</v>
       </c>
       <c r="AD52" t="n">
         <v>11.0</v>
@@ -6166,7 +6166,7 @@
         <v>1.0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="L53" t="n">
         <v>4.212765957446808</v>
@@ -6267,7 +6267,7 @@
         <v>0.827020202020202</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7608344969958327</v>
+        <v>0.7608344969958325</v>
       </c>
       <c r="L54" t="n">
         <v>3.1621621621621623</v>
@@ -6321,7 +6321,7 @@
         <v>-0.00934579439252423</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.479638009049774</v>
+        <v>-0.47963800904977416</v>
       </c>
       <c r="AD54" t="n">
         <v>7.0</v>
@@ -6368,7 +6368,7 @@
         <v>0.2632996632996633</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5579632877250358</v>
+        <v>0.5579632877250357</v>
       </c>
       <c r="L55" t="n">
         <v>4.096774193548387</v>
@@ -6422,7 +6422,7 @@
         <v>0.16953907815631106</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.25148514851485176</v>
+        <v>-0.25148514851485193</v>
       </c>
       <c r="AD55" t="n">
         <v>6.0</v>
@@ -6469,7 +6469,7 @@
         <v>1.0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7683375209644601</v>
+        <v>0.76833752096446</v>
       </c>
       <c r="L56" t="n">
         <v>2.1379310344827585</v>
@@ -6624,7 +6624,7 @@
         <v>-0.5124653739612182</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.48477157360406076</v>
+        <v>-0.4847715736040605</v>
       </c>
       <c r="AD57" t="n">
         <v>5.0</v>
@@ -6725,7 +6725,7 @@
         <v>0.45034642032332595</v>
       </c>
       <c r="AC58" t="n">
-        <v>-0.16315789473684197</v>
+        <v>-0.16315789473684272</v>
       </c>
       <c r="AD58" t="n">
         <v>5.0</v>
@@ -6772,7 +6772,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6864100233833476</v>
+        <v>0.6864100233833474</v>
       </c>
       <c r="L59" t="n">
         <v>2.7222222222222223</v>
@@ -6873,7 +6873,7 @@
         <v>0.5250544662309368</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6096235412027468</v>
+        <v>0.6096235412027471</v>
       </c>
       <c r="L60" t="n">
         <v>3.408333333333333</v>
@@ -6927,7 +6927,7 @@
         <v>0.6630434782608674</v>
       </c>
       <c r="AC60" t="n">
-        <v>-0.29166666666666674</v>
+        <v>-0.2916666666666669</v>
       </c>
       <c r="AD60" t="n">
         <v>6.0</v>
@@ -6974,7 +6974,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6303361469402875</v>
+        <v>0.6303361469402877</v>
       </c>
       <c r="L61" t="n">
         <v>2.65</v>
@@ -7028,7 +7028,7 @@
         <v>-0.012987012987015519</v>
       </c>
       <c r="AC61" t="n">
-        <v>-0.13043478260869637</v>
+        <v>-0.1304347826086945</v>
       </c>
       <c r="AD61" t="n">
         <v>3.0</v>
@@ -7075,7 +7075,7 @@
         <v>0.9381313131313131</v>
       </c>
       <c r="K62" t="n">
-        <v>0.7419796269483414</v>
+        <v>0.7419796269483413</v>
       </c>
       <c r="L62" t="n">
         <v>1.6875</v>
@@ -7176,7 +7176,7 @@
         <v>0.7915456305979182</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7704379740217012</v>
+        <v>0.7704379740217014</v>
       </c>
       <c r="L63" t="n">
         <v>4.157407407407407</v>
@@ -7230,7 +7230,7 @@
         <v>-0.12806539509536743</v>
       </c>
       <c r="AC63" t="n">
-        <v>-0.3315128345166575</v>
+        <v>-0.3315128345166582</v>
       </c>
       <c r="AD63" t="n">
         <v>10.0</v>
@@ -7331,7 +7331,7 @@
         <v>-0.003802281368821995</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.3267882187938283</v>
+        <v>-0.3267882187938289</v>
       </c>
       <c r="AD64" t="n">
         <v>5.0</v>
@@ -7378,7 +7378,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7670059672747956</v>
+        <v>0.7670059672747959</v>
       </c>
       <c r="L65" t="n">
         <v>4.764705882352941</v>
@@ -7432,7 +7432,7 @@
         <v>0.505300353356888</v>
       </c>
       <c r="AC65" t="n">
-        <v>-0.9444444444444444</v>
+        <v>-0.9444444444444448</v>
       </c>
       <c r="AD65" t="n">
         <v>2.0</v>
@@ -7479,7 +7479,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="K66" t="n">
-        <v>0.6518436414268681</v>
+        <v>0.6518436414268682</v>
       </c>
       <c r="L66" t="n">
         <v>3.806451612903226</v>
@@ -7580,7 +7580,7 @@
         <v>0.6301775147928994</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6487310688403936</v>
+        <v>0.6487310688403934</v>
       </c>
       <c r="L67" t="n">
         <v>2.967741935483871</v>
@@ -7634,7 +7634,7 @@
         <v>0.8095238095238102</v>
       </c>
       <c r="AC67" t="n">
-        <v>-0.4313099041533548</v>
+        <v>-0.4313099041533542</v>
       </c>
       <c r="AD67" t="n">
         <v>4.0</v>
@@ -7681,7 +7681,7 @@
         <v>0.5907297830374754</v>
       </c>
       <c r="K68" t="n">
-        <v>0.6972948089468821</v>
+        <v>0.6972948089468822</v>
       </c>
       <c r="L68" t="n">
         <v>4.645161290322581</v>
@@ -7735,7 +7735,7 @@
         <v>0.09144542772861512</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.41830065359477103</v>
+        <v>-0.41830065359477187</v>
       </c>
       <c r="AD68" t="n">
         <v>4.0</v>
@@ -7782,7 +7782,7 @@
         <v>0.4751683501683501</v>
       </c>
       <c r="K69" t="n">
-        <v>0.699590077739283</v>
+        <v>0.6995900777392827</v>
       </c>
       <c r="L69" t="n">
         <v>1.8157894736842106</v>
@@ -7836,7 +7836,7 @@
         <v>-0.062500000000001</v>
       </c>
       <c r="AC69" t="n">
-        <v>-0.16031746031746022</v>
+        <v>-0.16031746031746116</v>
       </c>
       <c r="AD69" t="n">
         <v>6.0</v>
@@ -7883,7 +7883,7 @@
         <v>1.0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="L70" t="n">
         <v>4.425531914893617</v>
@@ -7984,7 +7984,7 @@
         <v>0.1671085858585859</v>
       </c>
       <c r="K71" t="n">
-        <v>0.4150188528908394</v>
+        <v>0.41501885289083923</v>
       </c>
       <c r="L71" t="n">
         <v>4.8977272727272725</v>
@@ -8083,7 +8083,7 @@
         <v>0.40622895622895616</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5890297335340973</v>
+        <v>0.5890297335340975</v>
       </c>
       <c r="L72" t="n">
         <v>6.423076923076923</v>
@@ -8137,7 +8137,7 @@
         <v>-0.23809523809523686</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.3617472434266336</v>
+        <v>-0.36174724342663295</v>
       </c>
       <c r="AD72" t="n">
         <v>10.0</v>
@@ -8238,7 +8238,7 @@
         <v>-0.11111111111110689</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.21794871794871837</v>
+        <v>-0.2179487179487189</v>
       </c>
       <c r="AD73" t="n">
         <v>4.0</v>
@@ -8285,7 +8285,7 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="K74" t="n">
-        <v>0.741952649166942</v>
+        <v>0.7419526491669419</v>
       </c>
       <c r="L74" t="n">
         <v>3.9622641509433962</v>
@@ -8386,7 +8386,7 @@
         <v>0.6856060606060606</v>
       </c>
       <c r="K75" t="n">
-        <v>0.690363171835452</v>
+        <v>0.6903631718354521</v>
       </c>
       <c r="L75" t="n">
         <v>1.72</v>
@@ -8440,7 +8440,7 @@
         <v>0.17241379310344807</v>
       </c>
       <c r="AC75" t="n">
-        <v>-0.07784431137724564</v>
+        <v>-0.0778443113772446</v>
       </c>
       <c r="AD75" t="n">
         <v>4.0</v>
@@ -8487,7 +8487,7 @@
         <v>0.39730639730639733</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6646145954904611</v>
+        <v>0.6646145954904613</v>
       </c>
       <c r="L76" t="n">
         <v>3.475</v>
@@ -8541,7 +8541,7 @@
         <v>0.16740088105726927</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.3017319963536909</v>
+        <v>-0.30173199635369097</v>
       </c>
       <c r="AD76" t="n">
         <v>2.0</v>
@@ -8588,7 +8588,7 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="K77" t="n">
-        <v>0.6864100233833474</v>
+        <v>0.6864100233833473</v>
       </c>
       <c r="L77" t="n">
         <v>2.888888888888889</v>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="AB78"/>
       <c r="AC78" t="n">
-        <v>-0.6560885608856084</v>
+        <v>-0.6560885608856087</v>
       </c>
       <c r="AD78" t="n">
         <v>2.0</v>
@@ -8842,7 +8842,7 @@
         <v>-0.04761904761904616</v>
       </c>
       <c r="AC79" t="n">
-        <v>-0.16260162601626008</v>
+        <v>-0.1626016260162616</v>
       </c>
       <c r="AD79" t="n">
         <v>3.0</v>
@@ -8943,7 +8943,7 @@
         <v>-0.25</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.17799352750809064</v>
+        <v>-0.17799352750809103</v>
       </c>
       <c r="AD80" t="n">
         <v>5.0</v>
@@ -8990,7 +8990,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6470989296530395</v>
+        <v>0.6470989296530403</v>
       </c>
       <c r="L81" t="n">
         <v>2.656716417910448</v>
@@ -9044,7 +9044,7 @@
         <v>0.12</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.3955715140634348</v>
+        <v>-0.3955715140634367</v>
       </c>
       <c r="AD81" t="n">
         <v>5.0</v>
@@ -9091,7 +9091,7 @@
         <v>1.0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="L82" t="n">
         <v>1.7446808510638299</v>
@@ -9192,7 +9192,7 @@
         <v>0.8907828282828283</v>
       </c>
       <c r="K83" t="n">
-        <v>0.7628503064972033</v>
+        <v>0.762850306497203</v>
       </c>
       <c r="L83" t="n">
         <v>1.9069767441860466</v>
@@ -9246,7 +9246,7 @@
         <v>-0.6956521739130426</v>
       </c>
       <c r="AC83" t="n">
-        <v>-0.582236842105263</v>
+        <v>-0.5822368421052636</v>
       </c>
       <c r="AD83" t="n">
         <v>9.0</v>
@@ -9293,7 +9293,7 @@
         <v>0.5661718750000001</v>
       </c>
       <c r="K84" t="n">
-        <v>0.6724618248782623</v>
+        <v>0.6724618248782626</v>
       </c>
       <c r="L84" t="n">
         <v>2.6161137440758293</v>
@@ -9347,7 +9347,7 @@
         <v>-0.23047619047619056</v>
       </c>
       <c r="AC84" t="n">
-        <v>-0.3609565829017203</v>
+        <v>-0.36095658290171984</v>
       </c>
       <c r="AD84" t="n">
         <v>13.0</v>
@@ -9394,7 +9394,7 @@
         <v>0.6891679748822606</v>
       </c>
       <c r="K85" t="n">
-        <v>0.691973782751383</v>
+        <v>0.6919737827513828</v>
       </c>
       <c r="L85" t="n">
         <v>1.375</v>
@@ -9448,7 +9448,7 @@
         <v>0.44099378881987417</v>
       </c>
       <c r="AC85" t="n">
-        <v>-0.2585616438356163</v>
+        <v>-0.2585616438356157</v>
       </c>
       <c r="AD85" t="n">
         <v>5.0</v>
@@ -9495,7 +9495,7 @@
         <v>0.6439842209072978</v>
       </c>
       <c r="K86" t="n">
-        <v>0.6286140034427038</v>
+        <v>0.6286140034427034</v>
       </c>
       <c r="L86" t="n">
         <v>3.0714285714285716</v>
@@ -9549,7 +9549,7 @@
         <v>0.29014084507042254</v>
       </c>
       <c r="AC86" t="n">
-        <v>-0.20491803278688497</v>
+        <v>-0.2049180327868867</v>
       </c>
       <c r="AD86" t="n">
         <v>4.0</v>
@@ -9596,7 +9596,7 @@
         <v>0.18550084175084178</v>
       </c>
       <c r="K87" t="n">
-        <v>0.4892434027867937</v>
+        <v>0.4892434027867939</v>
       </c>
       <c r="L87" t="n">
         <v>7.4</v>
@@ -9650,7 +9650,7 @@
         <v>-0.05882352941176022</v>
       </c>
       <c r="AC87" t="n">
-        <v>-0.0037174721189577836</v>
+        <v>-0.0037174721189577875</v>
       </c>
       <c r="AD87" t="n">
         <v>3.0</v>
@@ -9697,7 +9697,7 @@
         <v>0.4403453689167976</v>
       </c>
       <c r="K88" t="n">
-        <v>0.6463453681635188</v>
+        <v>0.6463453681635186</v>
       </c>
       <c r="L88" t="n">
         <v>5.966101694915254</v>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="AB88"/>
       <c r="AC88" t="n">
-        <v>-0.1282798833819244</v>
+        <v>-0.1282798833819248</v>
       </c>
       <c r="AD88" t="n">
         <v>5.0</v>
@@ -9796,7 +9796,7 @@
         <v>0.7060439560439561</v>
       </c>
       <c r="K89" t="n">
-        <v>0.6669611518351822</v>
+        <v>0.6669611518351826</v>
       </c>
       <c r="L89" t="n">
         <v>2.127659574468085</v>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="AB89"/>
       <c r="AC89" t="n">
-        <v>-0.17782909930715926</v>
+        <v>-0.1778290993071603</v>
       </c>
       <c r="AD89" t="n">
         <v>5.0</v>
@@ -9895,7 +9895,7 @@
         <v>0.8802083333333334</v>
       </c>
       <c r="K90" t="n">
-        <v>0.7930455728646292</v>
+        <v>0.7930455728646293</v>
       </c>
       <c r="L90" t="n">
         <v>4.0588235294117645</v>
@@ -9949,7 +9949,7 @@
         <v>-0.34955185659411153</v>
       </c>
       <c r="AC90" t="n">
-        <v>-0.5216434336023477</v>
+        <v>-0.5216434336023476</v>
       </c>
       <c r="AD90" t="n">
         <v>10.0</v>
@@ -9996,7 +9996,7 @@
         <v>0.2819834710743802</v>
       </c>
       <c r="K91" t="n">
-        <v>0.328601761666982</v>
+        <v>0.3286017616669815</v>
       </c>
       <c r="L91" t="n">
         <v>3.2222222222222223</v>
@@ -10151,7 +10151,7 @@
         <v>0.06042553191489376</v>
       </c>
       <c r="AC92" t="n">
-        <v>-0.4539205155746513</v>
+        <v>-0.4539205155746517</v>
       </c>
       <c r="AD92" t="n">
         <v>10.0</v>
@@ -10198,7 +10198,7 @@
         <v>0.5464856902356902</v>
       </c>
       <c r="K93" t="n">
-        <v>0.6728497817027038</v>
+        <v>0.6728497817027043</v>
       </c>
       <c r="L93" t="n">
         <v>4.3076923076923075</v>
@@ -10299,7 +10299,7 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="K94" t="n">
-        <v>0.6794615015976844</v>
+        <v>0.6794615015976846</v>
       </c>
       <c r="L94" t="n">
         <v>3.696969696969697</v>
@@ -10353,7 +10353,7 @@
         <v>0.11290322580645329</v>
       </c>
       <c r="AC94" t="n">
-        <v>-0.07317073170731705</v>
+        <v>-0.07317073170731846</v>
       </c>
       <c r="AD94" t="n">
         <v>3.0</v>
@@ -10400,7 +10400,7 @@
         <v>0.6382575757575758</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7514790618967372</v>
+        <v>0.7514790618967375</v>
       </c>
       <c r="L95" t="n">
         <v>2.227272727272727</v>
@@ -10454,7 +10454,7 @@
         <v>0.048543689320387495</v>
       </c>
       <c r="AC95" t="n">
-        <v>-0.6833667334669334</v>
+        <v>-0.6833667334669337</v>
       </c>
       <c r="AD95" t="n">
         <v>3.0</v>
@@ -10501,7 +10501,7 @@
         <v>0.8358585858585859</v>
       </c>
       <c r="K96" t="n">
-        <v>0.7243148930851244</v>
+        <v>0.7243148930851242</v>
       </c>
       <c r="L96" t="n">
         <v>2.27027027027027</v>
@@ -10555,7 +10555,7 @@
         <v>0.0836879432624113</v>
       </c>
       <c r="AC96" t="n">
-        <v>-0.5475797579757974</v>
+        <v>-0.5475797579757978</v>
       </c>
       <c r="AD96" t="n">
         <v>10.0</v>
@@ -10602,7 +10602,7 @@
         <v>0.7291666666666666</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7281974999558518</v>
+        <v>0.7281974999558514</v>
       </c>
       <c r="L97" t="n">
         <v>2.5238095238095237</v>
@@ -10656,7 +10656,7 @@
         <v>0.08196721311475405</v>
       </c>
       <c r="AC97" t="n">
-        <v>-0.18954248366013055</v>
+        <v>-0.18954248366013027</v>
       </c>
       <c r="AD97" t="n">
         <v>6.0</v>
@@ -10703,7 +10703,7 @@
         <v>1.0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.7759907622602044</v>
       </c>
       <c r="L98" t="n">
         <v>1.0</v>
@@ -10804,7 +10804,7 @@
         <v>0.9848484848484849</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7659569903204869</v>
+        <v>0.7659569903204871</v>
       </c>
       <c r="L99" t="n">
         <v>2.4489795918367347</v>
@@ -10858,7 +10858,7 @@
         <v>-0.17419354838709644</v>
       </c>
       <c r="AC99" t="n">
-        <v>-0.8935950413223142</v>
+        <v>-0.8935950413223139</v>
       </c>
       <c r="AD99" t="n">
         <v>12.0</v>
@@ -10905,7 +10905,7 @@
         <v>0.9305785123966942</v>
       </c>
       <c r="K100" t="n">
-        <v>0.7717188152054519</v>
+        <v>0.771718815205452</v>
       </c>
       <c r="L100" t="n">
         <v>1.9565217391304348</v>
@@ -10959,7 +10959,7 @@
         <v>-0.2643678160919544</v>
       </c>
       <c r="AC100" t="n">
-        <v>-0.7262313860252004</v>
+        <v>-0.7262313860252</v>
       </c>
       <c r="AD100" t="n">
         <v>9.0</v>
@@ -11006,7 +11006,7 @@
         <v>0.5019723865877712</v>
       </c>
       <c r="K101" t="n">
-        <v>0.696491429139917</v>
+        <v>0.6964914291399168</v>
       </c>
       <c r="L101" t="n">
         <v>1.5</v>
@@ -11060,7 +11060,7 @@
         <v>-0.12000000000000316</v>
       </c>
       <c r="AC101" t="n">
-        <v>-0.15923566878980935</v>
+        <v>-0.1592356687898095</v>
       </c>
       <c r="AD101" t="n">
         <v>4.0</v>
@@ -11107,7 +11107,7 @@
         <v>0.7563131313131313</v>
       </c>
       <c r="K102" t="n">
-        <v>0.7391624752530125</v>
+        <v>0.7391624752530123</v>
       </c>
       <c r="L102" t="n">
         <v>2.5555555555555554</v>
@@ -11161,7 +11161,7 @@
         <v>-0.3054393305439333</v>
       </c>
       <c r="AC102" t="n">
-        <v>-0.08333333333333326</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="AD102" t="n">
         <v>5.0</v>
@@ -11262,7 +11262,7 @@
         <v>-0.08108108108108471</v>
       </c>
       <c r="AC103" t="n">
-        <v>-0.038961038961039286</v>
+        <v>-0.03896103896103931</v>
       </c>
       <c r="AD103" t="n">
         <v>3.0</v>
@@ -11309,7 +11309,7 @@
         <v>0.5140495867768595</v>
       </c>
       <c r="K104" t="n">
-        <v>0.5035429159959741</v>
+        <v>0.5035429159959739</v>
       </c>
       <c r="L104" t="n">
         <v>4.011627906976744</v>
@@ -11410,7 +11410,7 @@
         <v>0.5088383838383839</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5298498999513523</v>
+        <v>0.5298498999513528</v>
       </c>
       <c r="L105" t="n">
         <v>2.2045454545454546</v>
@@ -11464,7 +11464,7 @@
         <v>0.228865979381445</v>
       </c>
       <c r="AC105" t="n">
-        <v>-0.26378896882493935</v>
+        <v>-0.2637889688249392</v>
       </c>
       <c r="AD105" t="n">
         <v>4.0</v>
@@ -11511,7 +11511,7 @@
         <v>0.5801652892561984</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5996258034517246</v>
+        <v>0.5996258034517243</v>
       </c>
       <c r="L106" t="n">
         <v>1.588235294117647</v>
@@ -11565,7 +11565,7 @@
         <v>-0.6097560975609749</v>
       </c>
       <c r="AC106" t="n">
-        <v>-0.6754966887417219</v>
+        <v>-0.6754966887417223</v>
       </c>
       <c r="AD106" t="n">
         <v>3.0</v>
@@ -11612,7 +11612,7 @@
         <v>0.577020202020202</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5919173910257381</v>
+        <v>0.5919173910257377</v>
       </c>
       <c r="L107" t="n">
         <v>2.7625</v>
@@ -11666,7 +11666,7 @@
         <v>-0.26760563380281566</v>
       </c>
       <c r="AC107" t="n">
-        <v>-0.20491803278688578</v>
+        <v>-0.20491803278688514</v>
       </c>
       <c r="AD107" t="n">
         <v>7.0</v>
@@ -11767,7 +11767,7 @@
         <v>-0.15254237288135483</v>
       </c>
       <c r="AC108" t="n">
-        <v>-0.2414089347079042</v>
+        <v>-0.2414089347079041</v>
       </c>
       <c r="AD108" t="n">
         <v>7.0</v>
@@ -11814,7 +11814,7 @@
         <v>1.0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7759907622602042</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="L109" t="n">
         <v>1.6923076923076923</v>
@@ -11969,7 +11969,7 @@
         <v>0.4166666666666715</v>
       </c>
       <c r="AC110" t="n">
-        <v>-0.26829268292682923</v>
+        <v>-0.2682926829268295</v>
       </c>
       <c r="AD110" t="n">
         <v>6.0</v>
@@ -12070,7 +12070,7 @@
         <v>0.13888888888888976</v>
       </c>
       <c r="AC111" t="n">
-        <v>-0.30789049919484696</v>
+        <v>-0.3078904991948474</v>
       </c>
       <c r="AD111" t="n">
         <v>12.0</v>
@@ -12117,7 +12117,7 @@
         <v>0.8533333333333334</v>
       </c>
       <c r="K112" t="n">
-        <v>0.7896680211760522</v>
+        <v>0.7896680211760521</v>
       </c>
       <c r="L112" t="n">
         <v>1.3181818181818181</v>
@@ -12171,7 +12171,7 @@
         <v>0.44099378881987417</v>
       </c>
       <c r="AC112" t="n">
-        <v>-0.3530066815144768</v>
+        <v>-0.3530066815144769</v>
       </c>
       <c r="AD112" t="n">
         <v>8.0</v>
@@ -12272,7 +12272,7 @@
         <v>-0.12820512820513</v>
       </c>
       <c r="AC113" t="n">
-        <v>-0.43181818181818177</v>
+        <v>-0.4318181818181819</v>
       </c>
       <c r="AD113" t="n">
         <v>6.0</v>
@@ -12319,7 +12319,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K114" t="n">
-        <v>0.6922340897759256</v>
+        <v>0.6922340897759257</v>
       </c>
       <c r="L114" t="n">
         <v>1.8571428571428572</v>
@@ -12373,7 +12373,7 @@
         <v>0.2613636363636385</v>
       </c>
       <c r="AC114" t="n">
-        <v>0.07874015748031477</v>
+        <v>0.07874015748031704</v>
       </c>
       <c r="AD114" t="n">
         <v>4.0</v>
@@ -12420,7 +12420,7 @@
         <v>0.6760330578512397</v>
       </c>
       <c r="K115" t="n">
-        <v>0.6817290787845063</v>
+        <v>0.6817290787845065</v>
       </c>
       <c r="L115" t="n">
         <v>3.4516129032258065</v>
@@ -12474,7 +12474,7 @@
         <v>-0.2133333333333335</v>
       </c>
       <c r="AC115" t="n">
-        <v>-0.10638297872340459</v>
+        <v>-0.10638297872340453</v>
       </c>
       <c r="AD115" t="n">
         <v>5.0</v>
@@ -12575,7 +12575,7 @@
         <v>-0.21240310077519223</v>
       </c>
       <c r="AC116" t="n">
-        <v>-0.44302325581395346</v>
+        <v>-0.4430232558139528</v>
       </c>
       <c r="AD116" t="n">
         <v>9.0</v>
@@ -12622,7 +12622,7 @@
         <v>0.5997474747474747</v>
       </c>
       <c r="K117" t="n">
-        <v>0.640203549287784</v>
+        <v>0.6402035492877842</v>
       </c>
       <c r="L117" t="n">
         <v>4.785714285714286</v>
@@ -12676,7 +12676,7 @@
         <v>0.24738675958188214</v>
       </c>
       <c r="AC117" t="n">
-        <v>-0.7528089887640448</v>
+        <v>-0.7528089887640453</v>
       </c>
       <c r="AD117" t="n">
         <v>3.0</v>
@@ -12723,7 +12723,7 @@
         <v>0.6483516483516484</v>
       </c>
       <c r="K118" t="n">
-        <v>0.6438228895554109</v>
+        <v>0.6438228895554112</v>
       </c>
       <c r="L118" t="n">
         <v>3.9056603773584904</v>
@@ -12777,7 +12777,7 @@
         <v>0.2573673870333987</v>
       </c>
       <c r="AC118" t="n">
-        <v>-0.5413402959094862</v>
+        <v>-0.5413402959094872</v>
       </c>
       <c r="AD118" t="n">
         <v>6.0</v>
@@ -12878,7 +12878,7 @@
         <v>0.26787252368647757</v>
       </c>
       <c r="AC119" t="n">
-        <v>0.0011098779134287855</v>
+        <v>0.0011098779134281701</v>
       </c>
       <c r="AD119" t="n">
         <v>6.0</v>
@@ -12979,7 +12979,7 @@
         <v>0.32075471698113345</v>
       </c>
       <c r="AC120" t="n">
-        <v>-0.6054054054054059</v>
+        <v>-0.6054054054054061</v>
       </c>
       <c r="AD120" t="n">
         <v>2.0</v>
@@ -13026,7 +13026,7 @@
         <v>0.32386363636363635</v>
       </c>
       <c r="K121" t="n">
-        <v>0.5757134300352917</v>
+        <v>0.5757134300352919</v>
       </c>
       <c r="L121" t="n">
         <v>6.988095238095238</v>
@@ -13127,7 +13127,7 @@
         <v>0.4810606060606061</v>
       </c>
       <c r="K122" t="n">
-        <v>0.6400157487287917</v>
+        <v>0.6400157487287914</v>
       </c>
       <c r="L122" t="n">
         <v>1.3888888888888888</v>
@@ -13181,7 +13181,7 @@
         <v>0.1884057971014497</v>
       </c>
       <c r="AC122" t="n">
-        <v>0.18644067796610206</v>
+        <v>0.18644067796610084</v>
       </c>
       <c r="AD122" t="n">
         <v>3.0</v>

--- a/t12_segCAMs/outputs/networkIndicators.xlsx
+++ b/t12_segCAMs/outputs/networkIndicators.xlsx
@@ -1000,13 +1000,13 @@
         <v>-0.13636363636363635</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="G2" t="n">
         <v>0.20192307692307693</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1360544217687075</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="I2" t="n">
         <v>0.46590180041916407</v>
@@ -1015,10 +1015,10 @@
         <v>0.373015873015873</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7403856875758613</v>
+        <v>0.7403856875758612</v>
       </c>
       <c r="L2" t="n">
-        <v>2.1333333333333333</v>
+        <v>2.593073593073593</v>
       </c>
       <c r="M2" t="n">
         <v>2.593073593073593</v>
@@ -1030,7 +1030,7 @@
         <v>4.0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q2" t="n">
         <v>22.0</v>
@@ -1063,7 +1063,7 @@
         <v>1.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB2" t="n">
         <v>0.060498220640569096</v>
@@ -1101,13 +1101,13 @@
         <v>-0.15384615384615385</v>
       </c>
       <c r="F3" t="n">
-        <v>0.10256410256410257</v>
+        <v>0.20512820512820515</v>
       </c>
       <c r="G3" t="n">
         <v>0.15384615384615385</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.3782051282051282</v>
       </c>
       <c r="I3" t="n">
         <v>0.5593134357459918</v>
@@ -1116,10 +1116,10 @@
         <v>0.6723484848484849</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7039631414544358</v>
+        <v>0.7039631414544361</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5789473684210527</v>
+        <v>4.6923076923076925</v>
       </c>
       <c r="M3" t="n">
         <v>4.6923076923076925</v>
@@ -1158,13 +1158,13 @@
         <v>3.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z3" t="n">
         <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB3" t="n">
         <v>-0.28735632183908044</v>
@@ -1202,13 +1202,13 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G4" t="n">
         <v>0.125</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13541666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="I4" t="n">
         <v>0.4325239999561398</v>
@@ -1217,10 +1217,10 @@
         <v>0.6502525252525253</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6459729144432846</v>
+        <v>0.645972914443285</v>
       </c>
       <c r="L4" t="n">
-        <v>4.181818181818182</v>
+        <v>5.448717948717949</v>
       </c>
       <c r="M4" t="n">
         <v>5.448717948717949</v>
@@ -1232,7 +1232,7 @@
         <v>5.0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q4" t="n">
         <v>13.0</v>
@@ -1259,13 +1259,13 @@
         <v>4.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z4" t="n">
         <v>2.076923076923077</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB4" t="n">
         <v>0.23076923076922995</v>
@@ -1303,13 +1303,13 @@
         <v>-0.23076923076923078</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1423611111111111</v>
+        <v>0.26282051282051283</v>
       </c>
       <c r="I5" t="n">
         <v>0.452642894799214</v>
@@ -1318,10 +1318,10 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7256314504280086</v>
+        <v>0.7256314504280085</v>
       </c>
       <c r="L5" t="n">
-        <v>4.517241379310345</v>
+        <v>6.461538461538462</v>
       </c>
       <c r="M5" t="n">
         <v>6.461538461538462</v>
@@ -1333,7 +1333,7 @@
         <v>5.0</v>
       </c>
       <c r="P5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q5" t="n">
         <v>13.0</v>
@@ -1366,7 +1366,7 @@
         <v>2.25</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB5" t="n">
         <v>0.13253012048192697</v>
@@ -1404,13 +1404,13 @@
         <v>-0.16666666666666666</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09848484848484848</v>
+        <v>0.19696969696969696</v>
       </c>
       <c r="G6" t="n">
         <v>0.15</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I6" t="n">
         <v>0.4260216580277827</v>
@@ -1419,10 +1419,10 @@
         <v>0.5735537190082645</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5821576144967797</v>
+        <v>0.5821576144967796</v>
       </c>
       <c r="L6" t="n">
-        <v>4.035714285714286</v>
+        <v>6.409090909090909</v>
       </c>
       <c r="M6" t="n">
         <v>6.409090909090909</v>
@@ -1434,7 +1434,7 @@
         <v>5.0</v>
       </c>
       <c r="P6" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q6" t="n">
         <v>12.0</v>
@@ -1461,13 +1461,13 @@
         <v>0.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z6" t="n">
         <v>2.230769230769231</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB6" t="n">
         <v>-0.3506493506493507</v>
@@ -1505,16 +1505,16 @@
         <v>-0.38461538461538464</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6836383442265797</v>
+        <v>0.6836383442265795</v>
       </c>
       <c r="J7" t="n">
         <v>0.8699494949494949</v>
@@ -1523,7 +1523,7 @@
         <v>0.7730948816876565</v>
       </c>
       <c r="L7" t="n">
-        <v>3.391304347826087</v>
+        <v>4.9743589743589745</v>
       </c>
       <c r="M7" t="n">
         <v>4.9743589743589745</v>
@@ -1535,7 +1535,7 @@
         <v>4.0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q7" t="n">
         <v>13.0</v>
@@ -1568,7 +1568,7 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0.05000000000000064</v>
@@ -1606,13 +1606,13 @@
         <v>-0.08333333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="G8" t="n">
         <v>0.125</v>
       </c>
       <c r="H8" t="n">
-        <v>0.19834710743801653</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="I8" t="n">
         <v>0.5945346399331218</v>
@@ -1621,10 +1621,10 @@
         <v>0.7950413223140496</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6992949937059293</v>
+        <v>0.6992949937059294</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>5.575757575757576</v>
       </c>
       <c r="M8" t="n">
         <v>5.575757575757576</v>
@@ -1636,7 +1636,7 @@
         <v>4.0</v>
       </c>
       <c r="P8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q8" t="n">
         <v>12.0</v>
@@ -1669,7 +1669,7 @@
         <v>2.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB8" t="n">
         <v>0.13253012048192697</v>
@@ -1707,13 +1707,13 @@
         <v>0.15384615384615385</v>
       </c>
       <c r="F9" t="n">
-        <v>0.10256410256410257</v>
+        <v>0.20512820512820515</v>
       </c>
       <c r="G9" t="n">
         <v>0.0967741935483871</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="I9" t="n">
         <v>0.34972605980557664</v>
@@ -1725,7 +1725,7 @@
         <v>0.5001923783242049</v>
       </c>
       <c r="L9" t="n">
-        <v>3.017543859649123</v>
+        <v>2.782051282051282</v>
       </c>
       <c r="M9" t="n">
         <v>2.782051282051282</v>
@@ -1737,7 +1737,7 @@
         <v>5.0</v>
       </c>
       <c r="P9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q9" t="n">
         <v>13.0</v>
@@ -1770,7 +1770,7 @@
         <v>1.125</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB9" t="n">
         <v>-0.11627906976744186</v>
@@ -1808,13 +1808,13 @@
         <v>-0.7142857142857143</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08241758241758242</v>
+        <v>0.16483516483516483</v>
       </c>
       <c r="G10" t="n">
         <v>0.12</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I10" t="n">
         <v>0.3582912082662984</v>
@@ -1826,7 +1826,7 @@
         <v>0.666196636655317</v>
       </c>
       <c r="L10" t="n">
-        <v>6.016949152542373</v>
+        <v>6.076923076923077</v>
       </c>
       <c r="M10" t="n">
         <v>6.076923076923077</v>
@@ -1865,13 +1865,13 @@
         <v>2.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
         <v>2.1333333333333333</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0.3636363636363669</v>
@@ -1909,13 +1909,13 @@
         <v>0.15384615384615385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G11" t="n">
         <v>0.14285714285714285</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09027777777777778</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I11" t="n">
         <v>0.39727651874264563</v>
@@ -1927,7 +1927,7 @@
         <v>0.6687610599583356</v>
       </c>
       <c r="L11" t="n">
-        <v>6.057142857142857</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="M11" t="n">
         <v>7.6923076923076925</v>
@@ -1972,7 +1972,7 @@
         <v>2.6153846153846154</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB11" t="n">
         <v>-0.04557640750670103</v>
@@ -2010,13 +2010,13 @@
         <v>-0.46153846153846156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.40625</v>
+        <v>0.75</v>
       </c>
       <c r="I12" t="n">
         <v>0.8884476959990159</v>
@@ -2028,7 +2028,7 @@
         <v>0.7643437522066272</v>
       </c>
       <c r="L12" t="n">
-        <v>2.3902439024390243</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="M12" t="n">
         <v>2.6666666666666665</v>
@@ -2040,7 +2040,7 @@
         <v>3.0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q12" t="n">
         <v>13.0</v>
@@ -2073,7 +2073,7 @@
         <v>1.3846153846153846</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0.7333333333333338</v>
@@ -2111,13 +2111,13 @@
         <v>-0.125</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09166666666666666</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="G13" t="n">
         <v>0.08571428571428572</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="I13" t="n">
         <v>0.34484919877151793</v>
@@ -2129,7 +2129,7 @@
         <v>0.689824832853583</v>
       </c>
       <c r="L13" t="n">
-        <v>3.7260273972602738</v>
+        <v>4.241666666666666</v>
       </c>
       <c r="M13" t="n">
         <v>4.241666666666666</v>
@@ -2174,7 +2174,7 @@
         <v>2.0454545454545454</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0.38518518518518435</v>
@@ -2212,13 +2212,13 @@
         <v>-0.5714285714285714</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08875739644970414</v>
+        <v>0.16483516483516483</v>
       </c>
       <c r="I14" t="n">
         <v>0.3410312776216246</v>
@@ -2227,10 +2227,10 @@
         <v>0.5256410256410257</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6445011396907581</v>
+        <v>0.644501139690758</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>8.175824175824175</v>
       </c>
       <c r="M14" t="n">
         <v>8.175824175824175</v>
@@ -2242,7 +2242,7 @@
         <v>5.0</v>
       </c>
       <c r="P14" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q14" t="n">
         <v>14.0</v>
@@ -2275,7 +2275,7 @@
         <v>2.6923076923076925</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0.02631578947368338</v>
@@ -2313,13 +2313,13 @@
         <v>-0.46153846153846156</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="I15" t="n">
         <v>1.0000000000000002</v>
@@ -2331,7 +2331,7 @@
         <v>0.775990762260204</v>
       </c>
       <c r="L15" t="n">
-        <v>1.625</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="M15" t="n">
         <v>1.8461538461538463</v>
@@ -2376,7 +2376,7 @@
         <v>1.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB15" t="n">
         <v>-0.6000000000000002</v>
@@ -2414,25 +2414,25 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.42011834319526625</v>
+        <v>0.7802197802197802</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9084376271876273</v>
+        <v>0.9084376271876271</v>
       </c>
       <c r="J16" t="n">
         <v>0.97534516765286</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7860614906997364</v>
+        <v>0.7860614906997361</v>
       </c>
       <c r="L16" t="n">
-        <v>1.7346938775510203</v>
+        <v>1.978021978021978</v>
       </c>
       <c r="M16" t="n">
         <v>1.978021978021978</v>
@@ -2444,7 +2444,7 @@
         <v>3.0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q16" t="n">
         <v>14.0</v>
@@ -2471,13 +2471,13 @@
         <v>0.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z16" t="n">
         <v>1.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB16" t="n">
         <v>-0.37694704049844435</v>
@@ -2515,13 +2515,13 @@
         <v>-0.38461538461538464</v>
       </c>
       <c r="F17" t="n">
-        <v>0.12179487179487179</v>
+        <v>0.24358974358974358</v>
       </c>
       <c r="G17" t="n">
         <v>0.27631578947368424</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3645833333333333</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="I17" t="n">
         <v>0.8384106423879154</v>
@@ -2530,10 +2530,10 @@
         <v>0.8005050505050505</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7094200825169514</v>
+        <v>0.7094200825169515</v>
       </c>
       <c r="L17" t="n">
-        <v>3.425925925925926</v>
+        <v>3.4743589743589745</v>
       </c>
       <c r="M17" t="n">
         <v>3.4743589743589745</v>
@@ -2578,7 +2578,7 @@
         <v>1.7894736842105263</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB17" t="n">
         <v>0.5403225806451615</v>
@@ -2616,13 +2616,13 @@
         <v>-0.42857142857142855</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0879120879120879</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.11242603550295859</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="I18" t="n">
         <v>0.45006607916214686</v>
@@ -2634,7 +2634,7 @@
         <v>0.6384209554272583</v>
       </c>
       <c r="L18" t="n">
-        <v>5.568181818181818</v>
+        <v>4.450549450549451</v>
       </c>
       <c r="M18" t="n">
         <v>4.450549450549451</v>
@@ -2646,7 +2646,7 @@
         <v>5.0</v>
       </c>
       <c r="P18" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q18" t="n">
         <v>14.0</v>
@@ -2679,7 +2679,7 @@
         <v>2.0625</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB18" t="n">
         <v>0.8171428571428572</v>
@@ -2717,13 +2717,13 @@
         <v>-0.23076923076923078</v>
       </c>
       <c r="F19" t="n">
-        <v>0.12179487179487179</v>
+        <v>0.24358974358974358</v>
       </c>
       <c r="G19" t="n">
         <v>0.3829787234042553</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="I19" t="n">
         <v>0.3946103485738526</v>
@@ -2732,10 +2732,10 @@
         <v>0.4659090909090909</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6800727431914517</v>
+        <v>0.680072743191452</v>
       </c>
       <c r="L19" t="n">
-        <v>1.641025641025641</v>
+        <v>2.4358974358974357</v>
       </c>
       <c r="M19" t="n">
         <v>2.4358974358974357</v>
@@ -2747,7 +2747,7 @@
         <v>5.0</v>
       </c>
       <c r="P19" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q19" t="n">
         <v>13.0</v>
@@ -2780,7 +2780,7 @@
         <v>1.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB19" t="n">
         <v>0.4892473118279571</v>
@@ -2818,13 +2818,13 @@
         <v>-0.4666666666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>0.10952380952380954</v>
+        <v>0.21904761904761907</v>
       </c>
       <c r="G20" t="n">
         <v>0.32727272727272727</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07397959183673469</v>
+        <v>0.1380952380952381</v>
       </c>
       <c r="I20" t="n">
         <v>0.18451996870400028</v>
@@ -2833,10 +2833,10 @@
         <v>0.18543956043956045</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5836291076644481</v>
+        <v>0.583629107664448</v>
       </c>
       <c r="L20" t="n">
-        <v>5.4520547945205475</v>
+        <v>6.752380952380952</v>
       </c>
       <c r="M20" t="n">
         <v>6.752380952380952</v>
@@ -2848,7 +2848,7 @@
         <v>7.0</v>
       </c>
       <c r="P20" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q20" t="n">
         <v>15.0</v>
@@ -2881,7 +2881,7 @@
         <v>2.347826086956522</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB20" t="n">
         <v>-0.1274509803921497</v>
@@ -2919,13 +2919,13 @@
         <v>-0.26666666666666666</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G21" t="n">
         <v>0.12</v>
       </c>
       <c r="H21" t="n">
-        <v>0.11479591836734694</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I21" t="n">
         <v>0.43502753614895284</v>
@@ -2934,10 +2934,10 @@
         <v>0.6656200941915228</v>
       </c>
       <c r="K21" t="n">
-        <v>0.745629950527181</v>
+        <v>0.7456299505271811</v>
       </c>
       <c r="L21" t="n">
-        <v>5.257142857142857</v>
+        <v>8.19047619047619</v>
       </c>
       <c r="M21" t="n">
         <v>8.19047619047619</v>
@@ -2949,7 +2949,7 @@
         <v>6.0</v>
       </c>
       <c r="P21" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q21" t="n">
         <v>15.0</v>
@@ -2982,7 +2982,7 @@
         <v>2.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB21" t="n">
         <v>0.25000000000000083</v>
@@ -3020,13 +3020,13 @@
         <v>-0.14285714285714285</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.25443786982248523</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="I22" t="n">
         <v>0.6576102382023432</v>
@@ -3038,7 +3038,7 @@
         <v>0.7802593038528179</v>
       </c>
       <c r="L22" t="n">
-        <v>1.7222222222222223</v>
+        <v>3.010989010989011</v>
       </c>
       <c r="M22" t="n">
         <v>3.010989010989011</v>
@@ -3050,7 +3050,7 @@
         <v>4.0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q22" t="n">
         <v>14.0</v>
@@ -3083,7 +3083,7 @@
         <v>1.3076923076923077</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB22" t="n">
         <v>-0.309352517985611</v>
@@ -3121,13 +3121,13 @@
         <v>-0.4</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09047619047619047</v>
+        <v>0.18095238095238095</v>
       </c>
       <c r="G23" t="n">
         <v>0.24324324324324326</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09438775510204081</v>
+        <v>0.1761904761904762</v>
       </c>
       <c r="I23" t="n">
         <v>0.3452720719544624</v>
@@ -3136,10 +3136,10 @@
         <v>0.5482731554160125</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6305888847153066</v>
+        <v>0.6305888847153068</v>
       </c>
       <c r="L23" t="n">
-        <v>3.0833333333333335</v>
+        <v>5.495238095238095</v>
       </c>
       <c r="M23" t="n">
         <v>5.495238095238095</v>
@@ -3151,7 +3151,7 @@
         <v>6.0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q23" t="n">
         <v>15.0</v>
@@ -3184,7 +3184,7 @@
         <v>1.894736842105263</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB23" t="n">
         <v>0.5128205128205103</v>
@@ -3222,13 +3222,13 @@
         <v>0.047619047619047616</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="n">
         <v>0.43911694147837554</v>
@@ -3237,10 +3237,10 @@
         <v>0.7389473684210527</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7562500316434443</v>
+        <v>0.7562500316434445</v>
       </c>
       <c r="L24" t="n">
-        <v>2.0943396226415096</v>
+        <v>3.238095238095238</v>
       </c>
       <c r="M24" t="n">
         <v>3.238095238095238</v>
@@ -3252,7 +3252,7 @@
         <v>6.0</v>
       </c>
       <c r="P24" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q24" t="n">
         <v>21.0</v>
@@ -3279,13 +3279,13 @@
         <v>1.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z24" t="n">
         <v>1.0476190476190477</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB24" t="n">
         <v>-0.0029850746268649912</v>
@@ -3323,13 +3323,13 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="F25" t="n">
-        <v>0.20512820512820515</v>
+        <v>0.4102564102564103</v>
       </c>
       <c r="G25" t="n">
         <v>0.5240963855421686</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="I25" t="n">
         <v>0.8075051508206589</v>
@@ -3338,10 +3338,10 @@
         <v>0.44938973063973064</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5604292923717346</v>
+        <v>0.5604292923717349</v>
       </c>
       <c r="L25" t="n">
-        <v>2.1327433628318584</v>
+        <v>1.5897435897435896</v>
       </c>
       <c r="M25" t="n">
         <v>1.5897435897435896</v>
@@ -3353,7 +3353,7 @@
         <v>2.0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q25" t="n">
         <v>13.0</v>
@@ -3380,13 +3380,13 @@
         <v>0.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z25" t="n">
         <v>1.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB25" t="n">
         <v>-0.009619084263178146</v>
@@ -3424,13 +3424,13 @@
         <v>-0.11764705882352941</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0661764705882353</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="G26" t="n">
         <v>0.13636363636363635</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1953125</v>
+        <v>0.36764705882352944</v>
       </c>
       <c r="I26" t="n">
         <v>0.5581285228184661</v>
@@ -3439,10 +3439,10 @@
         <v>0.7901041666666667</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7848416809344698</v>
+        <v>0.7848416809344694</v>
       </c>
       <c r="L26" t="n">
-        <v>3.7674418604651163</v>
+        <v>6.132352941176471</v>
       </c>
       <c r="M26" t="n">
         <v>6.132352941176471</v>
@@ -3454,7 +3454,7 @@
         <v>5.0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q26" t="n">
         <v>17.0</v>
@@ -3481,13 +3481,13 @@
         <v>7.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z26" t="n">
         <v>2.1666666666666665</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB26" t="n">
         <v>0.05489260143198313</v>
@@ -3525,13 +3525,13 @@
         <v>0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="G27" t="n">
         <v>0.05263157894736842</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4462809917355372</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="I27" t="n">
         <v>0.9900000000000002</v>
@@ -3540,10 +3540,10 @@
         <v>0.9818181818181818</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7561930600795044</v>
+        <v>0.7561930600795045</v>
       </c>
       <c r="L27" t="n">
-        <v>2.6666666666666665</v>
+        <v>2.6363636363636362</v>
       </c>
       <c r="M27" t="n">
         <v>2.6363636363636362</v>
@@ -3588,7 +3588,7 @@
         <v>1.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB27" t="n">
         <v>-0.3012048192771089</v>
@@ -3626,13 +3626,13 @@
         <v>-0.8461538461538461</v>
       </c>
       <c r="F28" t="n">
-        <v>0.10897435897435898</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="G28" t="n">
         <v>0.21428571428571427</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.28205128205128205</v>
       </c>
       <c r="I28" t="n">
         <v>0.34538788855870967</v>
@@ -3641,10 +3641,10 @@
         <v>0.29945286195286186</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6165075123235559</v>
+        <v>0.616507512323556</v>
       </c>
       <c r="L28" t="n">
-        <v>4.67741935483871</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="M28" t="n">
         <v>6.833333333333333</v>
@@ -3656,7 +3656,7 @@
         <v>5.0</v>
       </c>
       <c r="P28" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q28" t="n">
         <v>13.0</v>
@@ -3689,7 +3689,7 @@
         <v>2.8823529411764706</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB28" t="n">
         <v>-0.1333333333333356</v>
@@ -3727,13 +3727,13 @@
         <v>-0.2857142857142857</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08241758241758242</v>
+        <v>0.16483516483516483</v>
       </c>
       <c r="G29" t="n">
         <v>0.12</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I29" t="n">
         <v>0.3306626560625003</v>
@@ -3742,10 +3742,10 @@
         <v>0.5276134122287969</v>
       </c>
       <c r="K29" t="n">
-        <v>0.645274306055327</v>
+        <v>0.6452743060553275</v>
       </c>
       <c r="L29" t="n">
-        <v>6.611111111111111</v>
+        <v>7.912087912087912</v>
       </c>
       <c r="M29" t="n">
         <v>7.912087912087912</v>
@@ -3757,7 +3757,7 @@
         <v>6.0</v>
       </c>
       <c r="P29" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q29" t="n">
         <v>14.0</v>
@@ -3790,7 +3790,7 @@
         <v>2.533333333333333</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB29" t="n">
         <v>-0.5168539325842689</v>
@@ -3828,16 +3828,16 @@
         <v>-0.3333333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08095238095238096</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="G30" t="n">
         <v>0.08108108108108109</v>
       </c>
       <c r="H30" t="n">
-        <v>0.18112244897959184</v>
+        <v>0.3380952380952381</v>
       </c>
       <c r="I30" t="n">
-        <v>0.43521615262358043</v>
+        <v>0.43521615262358027</v>
       </c>
       <c r="J30" t="n">
         <v>0.6981946624803768</v>
@@ -3846,7 +3846,7 @@
         <v>0.7545868038477972</v>
       </c>
       <c r="L30" t="n">
-        <v>2.4310344827586206</v>
+        <v>2.8857142857142857</v>
       </c>
       <c r="M30" t="n">
         <v>2.8857142857142857</v>
@@ -3858,7 +3858,7 @@
         <v>7.0</v>
       </c>
       <c r="P30" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q30" t="n">
         <v>15.0</v>
@@ -3891,7 +3891,7 @@
         <v>1.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB30" t="n">
         <v>0.24999999999999906</v>
@@ -3929,13 +3929,13 @@
         <v>-0.5</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09150326797385622</v>
+        <v>0.18300653594771243</v>
       </c>
       <c r="G31" t="n">
         <v>0.19230769230769232</v>
       </c>
       <c r="H31" t="n">
-        <v>0.12110726643598616</v>
+        <v>0.22875816993464052</v>
       </c>
       <c r="I31" t="n">
         <v>0.403454015211841</v>
@@ -3944,10 +3944,10 @@
         <v>0.39641003460207613</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6416182230273743</v>
+        <v>0.6416182230273746</v>
       </c>
       <c r="L31" t="n">
-        <v>5.7894736842105265</v>
+        <v>3.8758169934640523</v>
       </c>
       <c r="M31" t="n">
         <v>3.8758169934640523</v>
@@ -3959,7 +3959,7 @@
         <v>5.0</v>
       </c>
       <c r="P31" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q31" t="n">
         <v>18.0</v>
@@ -3986,13 +3986,13 @@
         <v>2.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z31" t="n">
         <v>1.8571428571428572</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB31" t="n">
         <v>-0.3827160493827148</v>
@@ -4030,13 +4030,13 @@
         <v>-0.23076923076923078</v>
       </c>
       <c r="F32" t="n">
-        <v>0.12820512820512822</v>
+        <v>0.25641025641025644</v>
       </c>
       <c r="G32" t="n">
         <v>0.21818181818181817</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="I32" t="n">
         <v>0.9184573002754826</v>
@@ -4048,7 +4048,7 @@
         <v>0.6614982610535999</v>
       </c>
       <c r="L32" t="n">
-        <v>3.28</v>
+        <v>3.5256410256410255</v>
       </c>
       <c r="M32" t="n">
         <v>3.5256410256410255</v>
@@ -4087,13 +4087,13 @@
         <v>15.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z32" t="n">
         <v>2.05</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB32" t="n">
         <v>0.07928388746803469</v>
@@ -4131,13 +4131,13 @@
         <v>-0.6428571428571429</v>
       </c>
       <c r="F33" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G33" t="n">
         <v>0.24705882352941178</v>
       </c>
       <c r="H33" t="n">
-        <v>0.17751479289940827</v>
+        <v>0.32967032967032966</v>
       </c>
       <c r="I33" t="n">
         <v>0.4470558397032659</v>
@@ -4149,7 +4149,7 @@
         <v>0.5535908241110464</v>
       </c>
       <c r="L33" t="n">
-        <v>5.504504504504505</v>
+        <v>4.34065934065934</v>
       </c>
       <c r="M33" t="n">
         <v>4.34065934065934</v>
@@ -4161,7 +4161,7 @@
         <v>4.0</v>
       </c>
       <c r="P33" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q33" t="n">
         <v>14.0</v>
@@ -4188,13 +4188,13 @@
         <v>3.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z33" t="n">
         <v>2.4615384615384617</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB33" t="n">
         <v>-0.08333333333333542</v>
@@ -4232,13 +4232,13 @@
         <v>-0.4444444444444444</v>
       </c>
       <c r="F34" t="n">
-        <v>0.058823529411764705</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G34" t="n">
         <v>0.0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1245674740484429</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="I34" t="n">
         <v>0.43319155470781606</v>
@@ -4250,7 +4250,7 @@
         <v>0.7655454620458135</v>
       </c>
       <c r="L34" t="n">
-        <v>2.96875</v>
+        <v>5.73202614379085</v>
       </c>
       <c r="M34" t="n">
         <v>5.73202614379085</v>
@@ -4262,7 +4262,7 @@
         <v>6.0</v>
       </c>
       <c r="P34" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q34" t="n">
         <v>18.0</v>
@@ -4295,7 +4295,7 @@
         <v>2.0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB34" t="n">
         <v>-0.002531645569622271</v>
@@ -4333,13 +4333,13 @@
         <v>-0.75</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G35" t="n">
         <v>0.0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.10743801652892562</v>
+        <v>0.19696969696969696</v>
       </c>
       <c r="I35" t="n">
         <v>0.3424349472990778</v>
@@ -4348,10 +4348,10 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6794615015976848</v>
+        <v>0.679461501597685</v>
       </c>
       <c r="L35" t="n">
-        <v>3.55</v>
+        <v>7.590909090909091</v>
       </c>
       <c r="M35" t="n">
         <v>7.590909090909091</v>
@@ -4363,7 +4363,7 @@
         <v>6.0</v>
       </c>
       <c r="P35" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q35" t="n">
         <v>12.0</v>
@@ -4396,7 +4396,7 @@
         <v>2.4545454545454546</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB35" t="n">
         <v>-0.5247524752475208</v>
@@ -4434,13 +4434,13 @@
         <v>-0.3333333333333333</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09047619047619047</v>
+        <v>0.18095238095238095</v>
       </c>
       <c r="G36" t="n">
         <v>0.2727272727272727</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1326530612244898</v>
+        <v>0.24761904761904763</v>
       </c>
       <c r="I36" t="n">
         <v>0.42697760939025553</v>
@@ -4449,10 +4449,10 @@
         <v>0.3194662480376766</v>
       </c>
       <c r="K36" t="n">
-        <v>0.6561121091631205</v>
+        <v>0.6561121091631203</v>
       </c>
       <c r="L36" t="n">
-        <v>4.222222222222222</v>
+        <v>6.552380952380952</v>
       </c>
       <c r="M36" t="n">
         <v>6.552380952380952</v>
@@ -4464,7 +4464,7 @@
         <v>4.0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q36" t="n">
         <v>15.0</v>
@@ -4497,7 +4497,7 @@
         <v>2.789473684210526</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB36" t="n">
         <v>0.3519379844961237</v>
@@ -4535,13 +4535,13 @@
         <v>-0.47058823529411764</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="G37" t="n">
         <v>0.3181818181818182</v>
       </c>
       <c r="H37" t="n">
-        <v>0.171875</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="I37" t="n">
         <v>0.5479442661383652</v>
@@ -4550,10 +4550,10 @@
         <v>0.6734375</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7192975424790958</v>
+        <v>0.719297542479096</v>
       </c>
       <c r="L37" t="n">
-        <v>3.8461538461538463</v>
+        <v>6.470588235294118</v>
       </c>
       <c r="M37" t="n">
         <v>6.470588235294118</v>
@@ -4565,7 +4565,7 @@
         <v>4.0</v>
       </c>
       <c r="P37" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q37" t="n">
         <v>17.0</v>
@@ -4598,7 +4598,7 @@
         <v>2.625</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB37" t="n">
         <v>-0.36802973977695136</v>
@@ -4636,13 +4636,13 @@
         <v>-0.7692307692307693</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G38" t="n">
         <v>0.0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2326388888888889</v>
+        <v>0.42948717948717946</v>
       </c>
       <c r="I38" t="n">
         <v>0.5512206972653221</v>
@@ -4651,10 +4651,10 @@
         <v>0.7159090909090909</v>
       </c>
       <c r="K38" t="n">
-        <v>0.6948826958819585</v>
+        <v>0.6948826958819586</v>
       </c>
       <c r="L38" t="n">
-        <v>6.519230769230769</v>
+        <v>6.384615384615385</v>
       </c>
       <c r="M38" t="n">
         <v>6.384615384615385</v>
@@ -4699,7 +4699,7 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB38" t="n">
         <v>-0.5384615384615388</v>
@@ -4737,13 +4737,13 @@
         <v>-0.2222222222222222</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0784313725490196</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="G39" t="n">
         <v>0.11688311688311688</v>
       </c>
       <c r="H39" t="n">
-        <v>0.22837370242214533</v>
+        <v>0.43137254901960786</v>
       </c>
       <c r="I39" t="n">
         <v>0.6016857019155565</v>
@@ -4755,7 +4755,7 @@
         <v>0.7448042470895522</v>
       </c>
       <c r="L39" t="n">
-        <v>4.2272727272727275</v>
+        <v>4.9411764705882355</v>
       </c>
       <c r="M39" t="n">
         <v>4.9411764705882355</v>
@@ -4800,7 +4800,7 @@
         <v>2.25</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB39" t="n">
         <v>0.11111111111110954</v>
@@ -4838,13 +4838,13 @@
         <v>-0.9230769230769231</v>
       </c>
       <c r="F40" t="n">
-        <v>0.12179487179487179</v>
+        <v>0.24358974358974358</v>
       </c>
       <c r="G40" t="n">
         <v>0.2441860465116279</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.7564102564102564</v>
       </c>
       <c r="I40" t="n">
         <v>0.9397284533648173</v>
@@ -4853,10 +4853,10 @@
         <v>0.8446969696969697</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7067166389319381</v>
+        <v>0.706716638931938</v>
       </c>
       <c r="L40" t="n">
-        <v>1.8387096774193548</v>
+        <v>1.7564102564102564</v>
       </c>
       <c r="M40" t="n">
         <v>1.7564102564102564</v>
@@ -4868,7 +4868,7 @@
         <v>2.0</v>
       </c>
       <c r="P40" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q40" t="n">
         <v>13.0</v>
@@ -4901,7 +4901,7 @@
         <v>1.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB40" t="n">
         <v>-0.4615384615384579</v>
@@ -4939,13 +4939,13 @@
         <v>0.21428571428571427</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G41" t="n">
         <v>0.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.17159763313609466</v>
+        <v>0.31868131868131866</v>
       </c>
       <c r="I41" t="n">
         <v>0.5682701344707922</v>
@@ -4954,10 +4954,10 @@
         <v>0.7919132149901381</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7472947271454689</v>
+        <v>0.7472947271454687</v>
       </c>
       <c r="L41" t="n">
-        <v>4.131578947368421</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="M41" t="n">
         <v>5.285714285714286</v>
@@ -4969,7 +4969,7 @@
         <v>4.0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q41" t="n">
         <v>14.0</v>
@@ -5002,7 +5002,7 @@
         <v>1.8461538461538463</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB41" t="n">
         <v>0.12359550561797865</v>
@@ -5040,13 +5040,13 @@
         <v>-0.9230769230769231</v>
       </c>
       <c r="F42" t="n">
-        <v>0.12179487179487179</v>
+        <v>0.24358974358974358</v>
       </c>
       <c r="G42" t="n">
         <v>0.32727272727272727</v>
       </c>
       <c r="H42" t="n">
-        <v>0.22916666666666666</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="I42" t="n">
         <v>0.5530070705122009</v>
@@ -5058,7 +5058,7 @@
         <v>0.6814509521019757</v>
       </c>
       <c r="L42" t="n">
-        <v>1.4838709677419355</v>
+        <v>2.269230769230769</v>
       </c>
       <c r="M42" t="n">
         <v>2.269230769230769</v>
@@ -5070,7 +5070,7 @@
         <v>5.0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q42" t="n">
         <v>13.0</v>
@@ -5103,7 +5103,7 @@
         <v>1.0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB42" t="n">
         <v>-0.2666666666666672</v>
@@ -5141,13 +5141,13 @@
         <v>-0.5</v>
       </c>
       <c r="F43" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G43" t="n">
         <v>0.32432432432432434</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1652892561983471</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="I43" t="n">
         <v>0.40435204583185463</v>
@@ -5156,10 +5156,10 @@
         <v>0.22776859504132224</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5171739316071913</v>
+        <v>0.5171739316071914</v>
       </c>
       <c r="L43" t="n">
-        <v>3.411764705882353</v>
+        <v>2.590909090909091</v>
       </c>
       <c r="M43" t="n">
         <v>2.590909090909091</v>
@@ -5171,7 +5171,7 @@
         <v>3.0</v>
       </c>
       <c r="P43" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q43" t="n">
         <v>12.0</v>
@@ -5204,7 +5204,7 @@
         <v>1.7727272727272727</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB43" t="n">
         <v>0.1666666666666683</v>
@@ -5242,13 +5242,13 @@
         <v>-0.26666666666666666</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="G44" t="n">
         <v>0.2727272727272727</v>
       </c>
       <c r="H44" t="n">
-        <v>0.10714285714285714</v>
+        <v>0.2</v>
       </c>
       <c r="I44" t="n">
         <v>0.3861710589519372</v>
@@ -5257,10 +5257,10 @@
         <v>0.3963893249607535</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5528351157564725</v>
+        <v>0.5528351157564727</v>
       </c>
       <c r="L44" t="n">
-        <v>6.206185567010309</v>
+        <v>5.847619047619047</v>
       </c>
       <c r="M44" t="n">
         <v>5.847619047619047</v>
@@ -5272,7 +5272,7 @@
         <v>4.0</v>
       </c>
       <c r="P44" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q44" t="n">
         <v>15.0</v>
@@ -5305,7 +5305,7 @@
         <v>2.375</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB44" t="n">
         <v>-0.10091743119266035</v>
@@ -5343,13 +5343,13 @@
         <v>-0.1875</v>
       </c>
       <c r="F45" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="G45" t="n">
         <v>0.2647058823529412</v>
       </c>
       <c r="H45" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.4</v>
       </c>
       <c r="I45" t="n">
         <v>0.4848432621767127</v>
@@ -5361,7 +5361,7 @@
         <v>0.6109976549649964</v>
       </c>
       <c r="L45" t="n">
-        <v>2.888</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="M45" t="n">
         <v>2.3666666666666667</v>
@@ -5373,7 +5373,7 @@
         <v>3.0</v>
       </c>
       <c r="P45" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q45" t="n">
         <v>16.0</v>
@@ -5400,13 +5400,13 @@
         <v>2.0</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" t="n">
         <v>1.375</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB45" t="n">
         <v>-0.3136038186157518</v>
@@ -5444,13 +5444,13 @@
         <v>-0.46153846153846156</v>
       </c>
       <c r="F46" t="n">
-        <v>0.11538461538461538</v>
+        <v>0.23076923076923075</v>
       </c>
       <c r="G46" t="n">
         <v>0.21428571428571427</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="I46" t="n">
         <v>0.9479929161747348</v>
@@ -5459,10 +5459,10 @@
         <v>0.8598484848484849</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7117226763030794</v>
+        <v>0.7117226763030792</v>
       </c>
       <c r="L46" t="n">
-        <v>4.1</v>
+        <v>5.128205128205129</v>
       </c>
       <c r="M46" t="n">
         <v>5.128205128205129</v>
@@ -5501,13 +5501,13 @@
         <v>0.0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z46" t="n">
         <v>2.888888888888889</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB46" t="n">
         <v>-0.4117647058823519</v>
@@ -5545,13 +5545,13 @@
         <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G47" t="n">
         <v>0.07142857142857142</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3159722222222222</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="I47" t="n">
         <v>0.7372055974328701</v>
@@ -5560,10 +5560,10 @@
         <v>0.9002525252525253</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7584884506513881</v>
+        <v>0.758488450651388</v>
       </c>
       <c r="L47" t="n">
-        <v>2.7142857142857144</v>
+        <v>3.551282051282051</v>
       </c>
       <c r="M47" t="n">
         <v>3.551282051282051</v>
@@ -5608,7 +5608,7 @@
         <v>1.7692307692307692</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB47" t="n">
         <v>-0.5145631067961167</v>
@@ -5646,13 +5646,13 @@
         <v>-0.07692307692307693</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="I48" t="n">
         <v>1.0000000000000002</v>
@@ -5664,7 +5664,7 @@
         <v>0.7759907622602039</v>
       </c>
       <c r="L48" t="n">
-        <v>3.25</v>
+        <v>3.5384615384615383</v>
       </c>
       <c r="M48" t="n">
         <v>3.5384615384615383</v>
@@ -5709,7 +5709,7 @@
         <v>1.9166666666666667</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB48" t="n">
         <v>-0.3333333333333333</v>
@@ -5747,13 +5747,13 @@
         <v>-0.3333333333333333</v>
       </c>
       <c r="F49" t="n">
-        <v>0.17424242424242425</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="G49" t="n">
         <v>0.42391304347826086</v>
       </c>
       <c r="H49" t="n">
-        <v>0.30578512396694213</v>
+        <v>0.5606060606060606</v>
       </c>
       <c r="I49" t="n">
         <v>0.7374634112018011</v>
@@ -5762,10 +5762,10 @@
         <v>0.6429752066115703</v>
       </c>
       <c r="K49" t="n">
-        <v>0.6001663826186264</v>
+        <v>0.6001663826186265</v>
       </c>
       <c r="L49" t="n">
-        <v>3.462686567164179</v>
+        <v>3.484848484848485</v>
       </c>
       <c r="M49" t="n">
         <v>3.484848484848485</v>
@@ -5810,7 +5810,7 @@
         <v>2.347826086956522</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB49" t="n">
         <v>0.09430051813471563</v>
@@ -5848,13 +5848,13 @@
         <v>0.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G50" t="n">
         <v>0.0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1875</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="I50" t="n">
         <v>0.34370442391832756</v>
@@ -5863,10 +5863,10 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535702</v>
       </c>
       <c r="L50" t="n">
-        <v>1.52</v>
+        <v>2.6153846153846154</v>
       </c>
       <c r="M50" t="n">
         <v>2.6153846153846154</v>
@@ -5878,7 +5878,7 @@
         <v>4.0</v>
       </c>
       <c r="P50" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q50" t="n">
         <v>13.0</v>
@@ -5911,7 +5911,7 @@
         <v>1.0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB50" t="n">
         <v>0.4805194805194794</v>
@@ -5949,13 +5949,13 @@
         <v>0.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.30578512396694213</v>
+        <v>0.5606060606060606</v>
       </c>
       <c r="I51" t="n">
         <v>0.7189204545454548</v>
@@ -5964,10 +5964,10 @@
         <v>0.8793388429752066</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7649371473690574</v>
+        <v>0.7649371473690575</v>
       </c>
       <c r="L51" t="n">
-        <v>1.6666666666666667</v>
+        <v>2.212121212121212</v>
       </c>
       <c r="M51" t="n">
         <v>2.212121212121212</v>
@@ -5979,7 +5979,7 @@
         <v>4.0</v>
       </c>
       <c r="P51" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q51" t="n">
         <v>12.0</v>
@@ -6012,7 +6012,7 @@
         <v>1.0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB51" t="n">
         <v>-0.23860589812332475</v>
@@ -6050,13 +6050,13 @@
         <v>-0.15384615384615385</v>
       </c>
       <c r="F52" t="n">
-        <v>0.11538461538461538</v>
+        <v>0.23076923076923075</v>
       </c>
       <c r="G52" t="n">
         <v>0.23684210526315788</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3715277777777778</v>
+        <v>0.6858974358974359</v>
       </c>
       <c r="I52" t="n">
         <v>0.8329276728880756</v>
@@ -6065,10 +6065,10 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6991548881373776</v>
+        <v>0.6991548881373775</v>
       </c>
       <c r="L52" t="n">
-        <v>3.4375</v>
+        <v>3.128205128205128</v>
       </c>
       <c r="M52" t="n">
         <v>3.128205128205128</v>
@@ -6080,7 +6080,7 @@
         <v>3.0</v>
       </c>
       <c r="P52" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q52" t="n">
         <v>13.0</v>
@@ -6113,7 +6113,7 @@
         <v>1.7222222222222223</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB52" t="n">
         <v>-0.06403940886699572</v>
@@ -6151,13 +6151,13 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G53" t="n">
         <v>0.0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="I53" t="n">
         <v>1.0000000000000002</v>
@@ -6166,10 +6166,10 @@
         <v>1.0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.775990762260204</v>
+        <v>0.7759907622602039</v>
       </c>
       <c r="L53" t="n">
-        <v>4.212765957446808</v>
+        <v>4.461538461538462</v>
       </c>
       <c r="M53" t="n">
         <v>4.461538461538462</v>
@@ -6214,7 +6214,7 @@
         <v>2.4166666666666665</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB53" t="n">
         <v>-0.7297297297297296</v>
@@ -6252,13 +6252,13 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="F54" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G54" t="n">
         <v>0.0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2326388888888889</v>
+        <v>0.42948717948717946</v>
       </c>
       <c r="I54" t="n">
         <v>0.6271004300416069</v>
@@ -6267,10 +6267,10 @@
         <v>0.827020202020202</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7608344969958325</v>
+        <v>0.760834496995833</v>
       </c>
       <c r="L54" t="n">
-        <v>3.1621621621621623</v>
+        <v>3.8205128205128207</v>
       </c>
       <c r="M54" t="n">
         <v>3.8205128205128207</v>
@@ -6315,7 +6315,7 @@
         <v>1.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB54" t="n">
         <v>-0.00934579439252423</v>
@@ -6353,25 +6353,25 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="G55" t="n">
         <v>0.4789915966386555</v>
       </c>
       <c r="H55" t="n">
-        <v>0.21180555555555555</v>
+        <v>0.391025641025641</v>
       </c>
       <c r="I55" t="n">
         <v>0.5098952907804584</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2632996632996633</v>
+        <v>0.2632996632996634</v>
       </c>
       <c r="K55" t="n">
         <v>0.5579632877250357</v>
       </c>
       <c r="L55" t="n">
-        <v>4.096774193548387</v>
+        <v>3.1923076923076925</v>
       </c>
       <c r="M55" t="n">
         <v>3.1923076923076925</v>
@@ -6383,7 +6383,7 @@
         <v>3.0</v>
       </c>
       <c r="P55" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q55" t="n">
         <v>13.0</v>
@@ -6410,13 +6410,13 @@
         <v>7.0</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z55" t="n">
         <v>2.0357142857142856</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB55" t="n">
         <v>0.16953907815631106</v>
@@ -6454,13 +6454,13 @@
         <v>-0.08333333333333333</v>
       </c>
       <c r="F56" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G56" t="n">
         <v>0.0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.45454545454545453</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I56" t="n">
         <v>1.0000000000000002</v>
@@ -6469,10 +6469,10 @@
         <v>1.0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.76833752096446</v>
+        <v>0.7683375209644601</v>
       </c>
       <c r="L56" t="n">
-        <v>2.1379310344827585</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="M56" t="n">
         <v>2.6666666666666665</v>
@@ -6517,7 +6517,7 @@
         <v>1.4545454545454546</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB56" t="n">
         <v>-0.8101265822784812</v>
@@ -6555,13 +6555,13 @@
         <v>-0.14285714285714285</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G57" t="n">
         <v>0.0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1301775147928994</v>
+        <v>0.24175824175824176</v>
       </c>
       <c r="I57" t="n">
         <v>0.4569275817334358</v>
@@ -6573,7 +6573,7 @@
         <v>0.721472565065563</v>
       </c>
       <c r="L57" t="n">
-        <v>4.585365853658536</v>
+        <v>5.626373626373627</v>
       </c>
       <c r="M57" t="n">
         <v>5.626373626373627</v>
@@ -6618,7 +6618,7 @@
         <v>2.076923076923077</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB57" t="n">
         <v>-0.5124653739612182</v>
@@ -6656,25 +6656,25 @@
         <v>-0.5</v>
       </c>
       <c r="F58" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G58" t="n">
         <v>0.0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09688581314878893</v>
+        <v>0.1830065359477124</v>
       </c>
       <c r="I58" t="n">
-        <v>0.4643923716588531</v>
+        <v>0.4643923716588532</v>
       </c>
       <c r="J58" t="n">
         <v>0.740484429065744</v>
       </c>
       <c r="K58" t="n">
-        <v>0.7467269103335877</v>
+        <v>0.7467269103335878</v>
       </c>
       <c r="L58" t="n">
-        <v>2.727272727272727</v>
+        <v>4.42483660130719</v>
       </c>
       <c r="M58" t="n">
         <v>4.42483660130719</v>
@@ -6686,7 +6686,7 @@
         <v>5.0</v>
       </c>
       <c r="P58" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q58" t="n">
         <v>18.0</v>
@@ -6719,7 +6719,7 @@
         <v>1.2352941176470589</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB58" t="n">
         <v>0.45034642032332595</v>
@@ -6757,13 +6757,13 @@
         <v>-0.23076923076923078</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G59" t="n">
         <v>0.0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="I59" t="n">
         <v>0.5045897572213361</v>
@@ -6775,7 +6775,7 @@
         <v>0.6864100233833474</v>
       </c>
       <c r="L59" t="n">
-        <v>2.7222222222222223</v>
+        <v>6.076923076923077</v>
       </c>
       <c r="M59" t="n">
         <v>6.076923076923077</v>
@@ -6787,7 +6787,7 @@
         <v>4.0</v>
       </c>
       <c r="P59" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q59" t="n">
         <v>13.0</v>
@@ -6820,7 +6820,7 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB59" t="n">
         <v>0.15112540192926058</v>
@@ -6858,13 +6858,13 @@
         <v>-0.47368421052631576</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09064327485380116</v>
+        <v>0.18128654970760233</v>
       </c>
       <c r="G60" t="n">
         <v>0.3</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1095679012345679</v>
+        <v>0.20760233918128654</v>
       </c>
       <c r="I60" t="n">
         <v>0.3813058930975386</v>
@@ -6873,10 +6873,10 @@
         <v>0.5250544662309368</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6096235412027471</v>
+        <v>0.609623541202747</v>
       </c>
       <c r="L60" t="n">
-        <v>3.408333333333333</v>
+        <v>3.672514619883041</v>
       </c>
       <c r="M60" t="n">
         <v>3.672514619883041</v>
@@ -6888,7 +6888,7 @@
         <v>6.0</v>
       </c>
       <c r="P60" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q60" t="n">
         <v>19.0</v>
@@ -6921,7 +6921,7 @@
         <v>1.5806451612903225</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB60" t="n">
         <v>0.6630434782608674</v>
@@ -6959,13 +6959,13 @@
         <v>-0.23076923076923078</v>
       </c>
       <c r="F61" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.08333333333333333</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.04513888888888889</v>
       </c>
       <c r="I61" t="n">
         <v>0.24332271877426995</v>
@@ -6974,10 +6974,10 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6303361469402877</v>
+        <v>0.6303361469402874</v>
       </c>
       <c r="L61" t="n">
-        <v>2.65</v>
+        <v>3.5641025641025643</v>
       </c>
       <c r="M61" t="n">
         <v>3.5641025641025643</v>
@@ -6989,7 +6989,7 @@
         <v>8.0</v>
       </c>
       <c r="P61" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q61" t="n">
         <v>13.0</v>
@@ -7022,7 +7022,7 @@
         <v>1.0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB61" t="n">
         <v>-0.012987012987015519</v>
@@ -7060,13 +7060,13 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="F62" t="n">
-        <v>0.09615384615384615</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G62" t="n">
         <v>0.12162162162162163</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4375</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="I62" t="n">
         <v>0.9744195198740656</v>
@@ -7075,10 +7075,10 @@
         <v>0.9381313131313131</v>
       </c>
       <c r="K62" t="n">
-        <v>0.7419796269483413</v>
+        <v>0.7419796269483414</v>
       </c>
       <c r="L62" t="n">
-        <v>1.6875</v>
+        <v>1.8076923076923077</v>
       </c>
       <c r="M62" t="n">
         <v>1.8076923076923077</v>
@@ -7123,7 +7123,7 @@
         <v>1.0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB62" t="n">
         <v>-0.6363636363636358</v>
@@ -7161,13 +7161,13 @@
         <v>-0.15789473684210525</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06725146198830409</v>
+        <v>0.13450292397660818</v>
       </c>
       <c r="G63" t="n">
         <v>0.08450704225352113</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="I63" t="n">
         <v>0.6093982623557517</v>
@@ -7179,7 +7179,7 @@
         <v>0.7704379740217014</v>
       </c>
       <c r="L63" t="n">
-        <v>4.157407407407407</v>
+        <v>4.485380116959064</v>
       </c>
       <c r="M63" t="n">
         <v>4.485380116959064</v>
@@ -7191,7 +7191,7 @@
         <v>4.0</v>
       </c>
       <c r="P63" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q63" t="n">
         <v>19.0</v>
@@ -7224,7 +7224,7 @@
         <v>1.826086956521739</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB63" t="n">
         <v>-0.12806539509536743</v>
@@ -7262,13 +7262,13 @@
         <v>-0.35714285714285715</v>
       </c>
       <c r="F64" t="n">
-        <v>0.12087912087912088</v>
+        <v>0.24175824175824176</v>
       </c>
       <c r="G64" t="n">
         <v>0.35294117647058826</v>
       </c>
       <c r="H64" t="n">
-        <v>0.15976331360946747</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="I64" t="n">
         <v>0.37548418137962086</v>
@@ -7280,7 +7280,7 @@
         <v>0.6591804531074174</v>
       </c>
       <c r="L64" t="n">
-        <v>5.34</v>
+        <v>3.7362637362637363</v>
       </c>
       <c r="M64" t="n">
         <v>3.7362637362637363</v>
@@ -7292,7 +7292,7 @@
         <v>4.0</v>
       </c>
       <c r="P64" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q64" t="n">
         <v>14.0</v>
@@ -7325,7 +7325,7 @@
         <v>1.9090909090909092</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB64" t="n">
         <v>-0.003802281368821995</v>
@@ -7363,13 +7363,13 @@
         <v>-0.13333333333333333</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G65" t="n">
         <v>0.0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.23469387755102042</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="I65" t="n">
         <v>0.3817333887667549</v>
@@ -7378,10 +7378,10 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7670059672747959</v>
+        <v>0.7670059672747953</v>
       </c>
       <c r="L65" t="n">
-        <v>4.764705882352941</v>
+        <v>7.942857142857143</v>
       </c>
       <c r="M65" t="n">
         <v>7.942857142857143</v>
@@ -7393,7 +7393,7 @@
         <v>4.0</v>
       </c>
       <c r="P65" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q65" t="n">
         <v>15.0</v>
@@ -7426,7 +7426,7 @@
         <v>3.0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB65" t="n">
         <v>0.505300353356888</v>
@@ -7464,13 +7464,13 @@
         <v>-0.5384615384615384</v>
       </c>
       <c r="F66" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G66" t="n">
         <v>0.11538461538461539</v>
       </c>
       <c r="H66" t="n">
-        <v>0.13541666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="I66" t="n">
         <v>0.4620411163754817</v>
@@ -7479,10 +7479,10 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="K66" t="n">
-        <v>0.6518436414268682</v>
+        <v>0.651843641426868</v>
       </c>
       <c r="L66" t="n">
-        <v>3.806451612903226</v>
+        <v>5.641025641025641</v>
       </c>
       <c r="M66" t="n">
         <v>5.641025641025641</v>
@@ -7494,7 +7494,7 @@
         <v>4.0</v>
       </c>
       <c r="P66" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q66" t="n">
         <v>13.0</v>
@@ -7521,13 +7521,13 @@
         <v>1.0</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z66" t="n">
         <v>2.230769230769231</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB66" t="n">
         <v>-0.01960784313725877</v>
@@ -7565,13 +7565,13 @@
         <v>-0.42857142857142855</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G67" t="n">
         <v>0.0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08284023668639054</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="I67" t="n">
         <v>0.47626563251563236</v>
@@ -7580,10 +7580,10 @@
         <v>0.6301775147928994</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6487310688403934</v>
+        <v>0.6487310688403937</v>
       </c>
       <c r="L67" t="n">
-        <v>2.967741935483871</v>
+        <v>4.4945054945054945</v>
       </c>
       <c r="M67" t="n">
         <v>4.4945054945054945</v>
@@ -7595,7 +7595,7 @@
         <v>4.0</v>
       </c>
       <c r="P67" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q67" t="n">
         <v>14.0</v>
@@ -7622,13 +7622,13 @@
         <v>0.0</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z67" t="n">
         <v>1.6428571428571428</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB67" t="n">
         <v>0.8095238095238102</v>
@@ -7666,13 +7666,13 @@
         <v>-0.21428571428571427</v>
       </c>
       <c r="F68" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G68" t="n">
         <v>0.125</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08284023668639054</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="I68" t="n">
         <v>0.39220166292512376</v>
@@ -7684,7 +7684,7 @@
         <v>0.6972948089468822</v>
       </c>
       <c r="L68" t="n">
-        <v>4.645161290322581</v>
+        <v>4.076923076923077</v>
       </c>
       <c r="M68" t="n">
         <v>4.076923076923077</v>
@@ -7696,7 +7696,7 @@
         <v>6.0</v>
       </c>
       <c r="P68" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q68" t="n">
         <v>14.0</v>
@@ -7729,7 +7729,7 @@
         <v>1.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB68" t="n">
         <v>0.09144542772861512</v>
@@ -7767,13 +7767,13 @@
         <v>-0.7692307692307693</v>
       </c>
       <c r="F69" t="n">
-        <v>0.10897435897435898</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="G69" t="n">
         <v>0.23684210526315788</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.28205128205128205</v>
       </c>
       <c r="I69" t="n">
         <v>0.377067533580452</v>
@@ -7785,7 +7785,7 @@
         <v>0.6995900777392827</v>
       </c>
       <c r="L69" t="n">
-        <v>1.8157894736842106</v>
+        <v>2.5641025641025643</v>
       </c>
       <c r="M69" t="n">
         <v>2.5641025641025643</v>
@@ -7797,7 +7797,7 @@
         <v>5.0</v>
       </c>
       <c r="P69" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q69" t="n">
         <v>13.0</v>
@@ -7824,13 +7824,13 @@
         <v>0.0</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z69" t="n">
         <v>1.0</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB69" t="n">
         <v>-0.062500000000001</v>
@@ -7868,13 +7868,13 @@
         <v>-0.6153846153846154</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G70" t="n">
         <v>0.0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="I70" t="n">
         <v>1.0000000000000002</v>
@@ -7883,10 +7883,10 @@
         <v>1.0</v>
       </c>
       <c r="K70" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="L70" t="n">
-        <v>4.425531914893617</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="M70" t="n">
         <v>4.615384615384615</v>
@@ -7931,7 +7931,7 @@
         <v>2.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB70" t="n">
         <v>-0.014084507042242967</v>
@@ -7969,13 +7969,13 @@
         <v>-1.0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G71" t="n">
         <v>0.625</v>
       </c>
       <c r="H71" t="n">
-        <v>0.25</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="I71" t="n">
         <v>0.6598285486443382</v>
@@ -7984,10 +7984,10 @@
         <v>0.1671085858585859</v>
       </c>
       <c r="K71" t="n">
-        <v>0.41501885289083923</v>
+        <v>0.4150188528908394</v>
       </c>
       <c r="L71" t="n">
-        <v>4.8977272727272725</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="M71" t="n">
         <v>4.333333333333333</v>
@@ -7999,7 +7999,7 @@
         <v>2.0</v>
       </c>
       <c r="P71" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q71" t="n">
         <v>13.0</v>
@@ -8032,7 +8032,7 @@
         <v>2.9761904761904763</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB71"/>
       <c r="AC71" t="n">
@@ -8068,13 +8068,13 @@
         <v>-0.9230769230769231</v>
       </c>
       <c r="F72" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G72" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I72" t="n">
         <v>0.6043016924595874</v>
@@ -8083,10 +8083,10 @@
         <v>0.40622895622895616</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5890297335340975</v>
+        <v>0.5890297335340974</v>
       </c>
       <c r="L72" t="n">
-        <v>6.423076923076923</v>
+        <v>4.846153846153846</v>
       </c>
       <c r="M72" t="n">
         <v>4.846153846153846</v>
@@ -8098,7 +8098,7 @@
         <v>3.0</v>
       </c>
       <c r="P72" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q72" t="n">
         <v>13.0</v>
@@ -8131,7 +8131,7 @@
         <v>2.8846153846153846</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB72" t="n">
         <v>-0.23809523809523686</v>
@@ -8169,13 +8169,13 @@
         <v>-0.2857142857142857</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08241758241758242</v>
+        <v>0.16483516483516483</v>
       </c>
       <c r="G73" t="n">
         <v>0.25</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I73" t="n">
         <v>0.3251205862687587</v>
@@ -8184,10 +8184,10 @@
         <v>0.5128205128205128</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6541075676695761</v>
+        <v>0.6541075676695763</v>
       </c>
       <c r="L73" t="n">
-        <v>5.931818181818182</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="M73" t="n">
         <v>7.428571428571429</v>
@@ -8232,7 +8232,7 @@
         <v>2.4</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB73" t="n">
         <v>-0.11111111111110689</v>
@@ -8270,13 +8270,13 @@
         <v>-0.3076923076923077</v>
       </c>
       <c r="F74" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G74" t="n">
         <v>0.0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1875</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="I74" t="n">
         <v>0.5782445141065831</v>
@@ -8285,10 +8285,10 @@
         <v>0.7840909090909091</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7419526491669419</v>
+        <v>0.741952649166942</v>
       </c>
       <c r="L74" t="n">
-        <v>3.9622641509433962</v>
+        <v>4.153846153846154</v>
       </c>
       <c r="M74" t="n">
         <v>4.153846153846154</v>
@@ -8333,7 +8333,7 @@
         <v>1.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB74" t="n">
         <v>-0.4623655913978498</v>
@@ -8371,13 +8371,13 @@
         <v>-0.07692307692307693</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G75" t="n">
         <v>0.0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="I75" t="n">
         <v>0.4681821364748194</v>
@@ -8386,10 +8386,10 @@
         <v>0.6856060606060606</v>
       </c>
       <c r="K75" t="n">
-        <v>0.6903631718354521</v>
+        <v>0.6903631718354523</v>
       </c>
       <c r="L75" t="n">
-        <v>1.72</v>
+        <v>2.871794871794872</v>
       </c>
       <c r="M75" t="n">
         <v>2.871794871794872</v>
@@ -8401,7 +8401,7 @@
         <v>5.0</v>
       </c>
       <c r="P75" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q75" t="n">
         <v>13.0</v>
@@ -8434,7 +8434,7 @@
         <v>1.0</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB75" t="n">
         <v>0.17241379310344807</v>
@@ -8472,13 +8472,13 @@
         <v>-0.3076923076923077</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="G76" t="n">
         <v>0.5084745762711864</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1701388888888889</v>
+        <v>0.3141025641025641</v>
       </c>
       <c r="I76" t="n">
         <v>0.3214491526053394</v>
@@ -8487,10 +8487,10 @@
         <v>0.39730639730639733</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6646145954904613</v>
+        <v>0.6646145954904612</v>
       </c>
       <c r="L76" t="n">
-        <v>3.475</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="M76" t="n">
         <v>4.666666666666667</v>
@@ -8502,7 +8502,7 @@
         <v>4.0</v>
       </c>
       <c r="P76" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q76" t="n">
         <v>13.0</v>
@@ -8535,7 +8535,7 @@
         <v>2.4761904761904763</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB76" t="n">
         <v>0.16740088105726927</v>
@@ -8573,13 +8573,13 @@
         <v>-0.46153846153846156</v>
       </c>
       <c r="F77" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G77" t="n">
         <v>0.0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.09722222222222222</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="I77" t="n">
         <v>0.5045897572213361</v>
@@ -8588,10 +8588,10 @@
         <v>0.7121212121212122</v>
       </c>
       <c r="K77" t="n">
-        <v>0.6864100233833473</v>
+        <v>0.6864100233833476</v>
       </c>
       <c r="L77" t="n">
-        <v>2.888888888888889</v>
+        <v>6.0</v>
       </c>
       <c r="M77" t="n">
         <v>6.0</v>
@@ -8603,7 +8603,7 @@
         <v>4.0</v>
       </c>
       <c r="P77" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q77" t="n">
         <v>13.0</v>
@@ -8636,7 +8636,7 @@
         <v>2.0</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB77" t="n">
         <v>0.2186046511627926</v>
@@ -8674,25 +8674,25 @@
         <v>-1.0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G78" t="n">
         <v>0.0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6662283549783549</v>
+        <v>0.666228354978355</v>
       </c>
       <c r="J78" t="n">
         <v>0.8421717171717171</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7633270405226223</v>
+        <v>0.7633270405226221</v>
       </c>
       <c r="L78" t="n">
-        <v>3.48</v>
+        <v>4.384615384615385</v>
       </c>
       <c r="M78" t="n">
         <v>4.384615384615385</v>
@@ -8704,7 +8704,7 @@
         <v>4.0</v>
       </c>
       <c r="P78" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q78" t="n">
         <v>13.0</v>
@@ -8737,7 +8737,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB78"/>
       <c r="AC78" t="n">
@@ -8773,13 +8773,13 @@
         <v>-0.9166666666666666</v>
       </c>
       <c r="F79" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G79" t="n">
         <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.10743801652892562</v>
+        <v>0.19696969696969696</v>
       </c>
       <c r="I79" t="n">
         <v>0.3646116289765333</v>
@@ -8788,10 +8788,10 @@
         <v>0.5851239669421487</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6929632483024006</v>
+        <v>0.6929632483024005</v>
       </c>
       <c r="L79" t="n">
-        <v>1.7272727272727273</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="M79" t="n">
         <v>3.090909090909091</v>
@@ -8803,7 +8803,7 @@
         <v>7.0</v>
       </c>
       <c r="P79" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q79" t="n">
         <v>12.0</v>
@@ -8836,7 +8836,7 @@
         <v>1.0</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB79" t="n">
         <v>-0.04761904761904616</v>
@@ -8874,13 +8874,13 @@
         <v>-0.38461538461538464</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G80" t="n">
         <v>0.13636363636363635</v>
       </c>
       <c r="H80" t="n">
-        <v>0.13541666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="I80" t="n">
         <v>0.5391242312294939</v>
@@ -8889,10 +8889,10 @@
         <v>0.7563131313131313</v>
       </c>
       <c r="K80" t="n">
-        <v>0.6818432807724641</v>
+        <v>0.6818432807724645</v>
       </c>
       <c r="L80" t="n">
-        <v>1.84375</v>
+        <v>2.6538461538461537</v>
       </c>
       <c r="M80" t="n">
         <v>2.6538461538461537</v>
@@ -8904,7 +8904,7 @@
         <v>4.0</v>
       </c>
       <c r="P80" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q80" t="n">
         <v>13.0</v>
@@ -8931,13 +8931,13 @@
         <v>0.0</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z80" t="n">
         <v>1.0</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB80" t="n">
         <v>-0.25</v>
@@ -8975,13 +8975,13 @@
         <v>-0.4666666666666667</v>
       </c>
       <c r="F81" t="n">
-        <v>0.10476190476190475</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="G81" t="n">
         <v>0.3582089552238806</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1556122448979592</v>
+        <v>0.2904761904761905</v>
       </c>
       <c r="I81" t="n">
         <v>0.44125679454104827</v>
@@ -8990,10 +8990,10 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6470989296530403</v>
+        <v>0.6470989296530398</v>
       </c>
       <c r="L81" t="n">
-        <v>2.656716417910448</v>
+        <v>3.038095238095238</v>
       </c>
       <c r="M81" t="n">
         <v>3.038095238095238</v>
@@ -9005,7 +9005,7 @@
         <v>5.0</v>
       </c>
       <c r="P81" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q81" t="n">
         <v>15.0</v>
@@ -9038,7 +9038,7 @@
         <v>1.2272727272727273</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB81" t="n">
         <v>0.12</v>
@@ -9076,13 +9076,13 @@
         <v>-0.8461538461538461</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G82" t="n">
         <v>0.0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="I82" t="n">
         <v>1.0000000000000002</v>
@@ -9091,10 +9091,10 @@
         <v>1.0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.775990762260204</v>
+        <v>0.7759907622602042</v>
       </c>
       <c r="L82" t="n">
-        <v>1.7446808510638299</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="M82" t="n">
         <v>1.8461538461538463</v>
@@ -9139,7 +9139,7 @@
         <v>1.0</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB82" t="n">
         <v>-0.04347826086953234</v>
@@ -9177,13 +9177,13 @@
         <v>-0.46153846153846156</v>
       </c>
       <c r="F83" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G83" t="n">
         <v>0.0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3159722222222222</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="I83" t="n">
         <v>0.7393031211213031</v>
@@ -9192,10 +9192,10 @@
         <v>0.8907828282828283</v>
       </c>
       <c r="K83" t="n">
-        <v>0.762850306497203</v>
+        <v>0.7628503064972033</v>
       </c>
       <c r="L83" t="n">
-        <v>1.9069767441860466</v>
+        <v>2.2051282051282053</v>
       </c>
       <c r="M83" t="n">
         <v>2.2051282051282053</v>
@@ -9207,7 +9207,7 @@
         <v>4.0</v>
       </c>
       <c r="P83" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q83" t="n">
         <v>13.0</v>
@@ -9240,7 +9240,7 @@
         <v>1.0</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB83" t="n">
         <v>-0.6956521739130426</v>
@@ -9278,13 +9278,13 @@
         <v>-0.47058823529411764</v>
       </c>
       <c r="F84" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="G84" t="n">
         <v>0.3684210526315789</v>
       </c>
       <c r="H84" t="n">
-        <v>0.298828125</v>
+        <v>0.5625</v>
       </c>
       <c r="I84" t="n">
         <v>0.6917739226481362</v>
@@ -9296,7 +9296,7 @@
         <v>0.6724618248782626</v>
       </c>
       <c r="L84" t="n">
-        <v>2.6161137440758293</v>
+        <v>2.0</v>
       </c>
       <c r="M84" t="n">
         <v>2.0</v>
@@ -9308,7 +9308,7 @@
         <v>4.0</v>
       </c>
       <c r="P84" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q84" t="n">
         <v>17.0</v>
@@ -9341,7 +9341,7 @@
         <v>1.0294117647058822</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB84" t="n">
         <v>-0.23047619047619056</v>
@@ -9379,25 +9379,25 @@
         <v>-0.3333333333333333</v>
       </c>
       <c r="F85" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G85" t="n">
         <v>0.10344827586206896</v>
       </c>
       <c r="H85" t="n">
-        <v>0.11479591836734694</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4638509400179878</v>
+        <v>0.4638509400179881</v>
       </c>
       <c r="J85" t="n">
         <v>0.6891679748822606</v>
       </c>
       <c r="K85" t="n">
-        <v>0.6919737827513828</v>
+        <v>0.6919737827513825</v>
       </c>
       <c r="L85" t="n">
-        <v>1.375</v>
+        <v>2.780952380952381</v>
       </c>
       <c r="M85" t="n">
         <v>2.780952380952381</v>
@@ -9409,7 +9409,7 @@
         <v>5.0</v>
       </c>
       <c r="P85" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q85" t="n">
         <v>15.0</v>
@@ -9442,7 +9442,7 @@
         <v>1.0</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB85" t="n">
         <v>0.44099378881987417</v>
@@ -9480,13 +9480,13 @@
         <v>-0.35714285714285715</v>
       </c>
       <c r="F86" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G86" t="n">
         <v>0.13636363636363635</v>
       </c>
       <c r="H86" t="n">
-        <v>0.08284023668639054</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="I86" t="n">
         <v>0.3985185665179263</v>
@@ -9495,10 +9495,10 @@
         <v>0.6439842209072978</v>
       </c>
       <c r="K86" t="n">
-        <v>0.6286140034427034</v>
+        <v>0.6286140034427032</v>
       </c>
       <c r="L86" t="n">
-        <v>3.0714285714285716</v>
+        <v>3.6923076923076925</v>
       </c>
       <c r="M86" t="n">
         <v>3.6923076923076925</v>
@@ -9510,7 +9510,7 @@
         <v>6.0</v>
       </c>
       <c r="P86" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q86" t="n">
         <v>14.0</v>
@@ -9543,7 +9543,7 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="AA86" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB86" t="n">
         <v>0.29014084507042254</v>
@@ -9581,13 +9581,13 @@
         <v>-0.9230769230769231</v>
       </c>
       <c r="F87" t="n">
-        <v>0.11538461538461538</v>
+        <v>0.23076923076923075</v>
       </c>
       <c r="G87" t="n">
         <v>0.08108108108108109</v>
       </c>
       <c r="H87" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="I87" t="n">
         <v>0.22090899514918586</v>
@@ -9596,10 +9596,10 @@
         <v>0.18550084175084178</v>
       </c>
       <c r="K87" t="n">
-        <v>0.4892434027867939</v>
+        <v>0.48924340278679374</v>
       </c>
       <c r="L87" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="M87" t="n">
         <v>6.5</v>
@@ -9611,7 +9611,7 @@
         <v>4.0</v>
       </c>
       <c r="P87" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q87" t="n">
         <v>13.0</v>
@@ -9644,7 +9644,7 @@
         <v>2.888888888888889</v>
       </c>
       <c r="AA87" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB87" t="n">
         <v>-0.05882352941176022</v>
@@ -9682,13 +9682,13 @@
         <v>-1.0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="G88" t="n">
         <v>0.15</v>
       </c>
       <c r="H88" t="n">
-        <v>0.09948979591836735</v>
+        <v>0.18571428571428572</v>
       </c>
       <c r="I88" t="n">
         <v>0.3733221304400591</v>
@@ -9700,7 +9700,7 @@
         <v>0.6463453681635186</v>
       </c>
       <c r="L88" t="n">
-        <v>5.966101694915254</v>
+        <v>6.733333333333333</v>
       </c>
       <c r="M88" t="n">
         <v>6.733333333333333</v>
@@ -9745,7 +9745,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AA88" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB88"/>
       <c r="AC88" t="n">
@@ -9781,13 +9781,13 @@
         <v>-1.0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.08095238095238096</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="G89" t="n">
         <v>0.1935483870967742</v>
       </c>
       <c r="H89" t="n">
-        <v>0.10459183673469388</v>
+        <v>0.19523809523809524</v>
       </c>
       <c r="I89" t="n">
         <v>0.45394321601840465</v>
@@ -9796,10 +9796,10 @@
         <v>0.7060439560439561</v>
       </c>
       <c r="K89" t="n">
-        <v>0.6669611518351826</v>
+        <v>0.6669611518351822</v>
       </c>
       <c r="L89" t="n">
-        <v>2.127659574468085</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="M89" t="n">
         <v>2.933333333333333</v>
@@ -9811,7 +9811,7 @@
         <v>5.0</v>
       </c>
       <c r="P89" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q89" t="n">
         <v>15.0</v>
@@ -9844,7 +9844,7 @@
         <v>1.0</v>
       </c>
       <c r="AA89" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB89"/>
       <c r="AC89" t="n">
@@ -9880,13 +9880,13 @@
         <v>-0.11764705882352941</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="G90" t="n">
         <v>0.05357142857142857</v>
       </c>
       <c r="H90" t="n">
-        <v>0.265625</v>
+        <v>0.5</v>
       </c>
       <c r="I90" t="n">
         <v>0.6639950395269542</v>
@@ -9898,7 +9898,7 @@
         <v>0.7930455728646293</v>
       </c>
       <c r="L90" t="n">
-        <v>4.0588235294117645</v>
+        <v>5.632352941176471</v>
       </c>
       <c r="M90" t="n">
         <v>5.632352941176471</v>
@@ -9910,7 +9910,7 @@
         <v>4.0</v>
       </c>
       <c r="P90" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q90" t="n">
         <v>17.0</v>
@@ -9943,7 +9943,7 @@
         <v>2.1176470588235294</v>
       </c>
       <c r="AA90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB90" t="n">
         <v>-0.34955185659411153</v>
@@ -9981,13 +9981,13 @@
         <v>-0.75</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="G91" t="n">
         <v>0.10344827586206896</v>
       </c>
       <c r="H91" t="n">
-        <v>0.06611570247933884</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="I91" t="n">
         <v>0.22369896913431403</v>
@@ -9996,10 +9996,10 @@
         <v>0.2819834710743802</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3286017616669815</v>
+        <v>0.328601761666982</v>
       </c>
       <c r="L91" t="n">
-        <v>3.2222222222222223</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="M91" t="n">
         <v>3.0303030303030303</v>
@@ -10011,7 +10011,7 @@
         <v>5.0</v>
       </c>
       <c r="P91" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q91" t="n">
         <v>12.0</v>
@@ -10044,7 +10044,7 @@
         <v>1.1875</v>
       </c>
       <c r="AA91" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB91" t="n">
         <v>-0.3333333333333333</v>
@@ -10082,13 +10082,13 @@
         <v>-0.3076923076923077</v>
       </c>
       <c r="F92" t="n">
-        <v>0.15384615384615385</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="G92" t="n">
         <v>0.30927835051546393</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2847222222222222</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="I92" t="n">
         <v>0.6216544575396251</v>
@@ -10097,10 +10097,10 @@
         <v>0.4972643097643097</v>
       </c>
       <c r="K92" t="n">
-        <v>0.6061860976384705</v>
+        <v>0.6061860976384703</v>
       </c>
       <c r="L92" t="n">
-        <v>6.856060606060606</v>
+        <v>4.794871794871795</v>
       </c>
       <c r="M92" t="n">
         <v>4.794871794871795</v>
@@ -10112,7 +10112,7 @@
         <v>3.0</v>
       </c>
       <c r="P92" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q92" t="n">
         <v>13.0</v>
@@ -10145,7 +10145,7 @@
         <v>2.7916666666666665</v>
       </c>
       <c r="AA92" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB92" t="n">
         <v>0.06042553191489376</v>
@@ -10183,25 +10183,25 @@
         <v>-0.6923076923076923</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09615384615384615</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G93" t="n">
         <v>0.0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I93" t="n">
         <v>0.418145035551371</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5464856902356902</v>
+        <v>0.5464856902356903</v>
       </c>
       <c r="K93" t="n">
         <v>0.6728497817027043</v>
       </c>
       <c r="L93" t="n">
-        <v>4.3076923076923075</v>
+        <v>5.487179487179487</v>
       </c>
       <c r="M93" t="n">
         <v>5.487179487179487</v>
@@ -10213,7 +10213,7 @@
         <v>5.0</v>
       </c>
       <c r="P93" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q93" t="n">
         <v>13.0</v>
@@ -10246,7 +10246,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="AA93" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB93" t="n">
         <v>0.39597315436241604</v>
@@ -10284,13 +10284,13 @@
         <v>0.0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G94" t="n">
         <v>0.0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.10743801652892562</v>
+        <v>0.19696969696969696</v>
       </c>
       <c r="I94" t="n">
         <v>0.3424349472990776</v>
@@ -10299,10 +10299,10 @@
         <v>0.5355371900826447</v>
       </c>
       <c r="K94" t="n">
-        <v>0.6794615015976846</v>
+        <v>0.6794615015976848</v>
       </c>
       <c r="L94" t="n">
-        <v>3.696969696969697</v>
+        <v>4.878787878787879</v>
       </c>
       <c r="M94" t="n">
         <v>4.878787878787879</v>
@@ -10347,7 +10347,7 @@
         <v>1.7272727272727273</v>
       </c>
       <c r="AA94" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB94" t="n">
         <v>0.11290322580645329</v>
@@ -10385,25 +10385,25 @@
         <v>-0.23076923076923078</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08974358974358974</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="G95" t="n">
         <v>0.14634146341463414</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.48717948717948717</v>
       </c>
       <c r="I95" t="n">
-        <v>0.4633479390738916</v>
+        <v>0.46334793907389143</v>
       </c>
       <c r="J95" t="n">
         <v>0.6382575757575758</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7514790618967375</v>
+        <v>0.7514790618967372</v>
       </c>
       <c r="L95" t="n">
-        <v>2.227272727272727</v>
+        <v>2.4358974358974357</v>
       </c>
       <c r="M95" t="n">
         <v>2.4358974358974357</v>
@@ -10448,7 +10448,7 @@
         <v>1.0</v>
       </c>
       <c r="AA95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB95" t="n">
         <v>0.048543689320387495</v>
@@ -10486,13 +10486,13 @@
         <v>-0.07692307692307693</v>
       </c>
       <c r="F96" t="n">
-        <v>0.10897435897435898</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="G96" t="n">
         <v>0.24193548387096775</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="I96" t="n">
         <v>0.7758838278046486</v>
@@ -10504,7 +10504,7 @@
         <v>0.7243148930851242</v>
       </c>
       <c r="L96" t="n">
-        <v>2.27027027027027</v>
+        <v>2.0128205128205128</v>
       </c>
       <c r="M96" t="n">
         <v>2.0128205128205128</v>
@@ -10516,7 +10516,7 @@
         <v>3.0</v>
       </c>
       <c r="P96" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q96" t="n">
         <v>13.0</v>
@@ -10549,7 +10549,7 @@
         <v>1.0</v>
       </c>
       <c r="AA96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB96" t="n">
         <v>0.0836879432624113</v>
@@ -10587,25 +10587,25 @@
         <v>0.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08974358974358974</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="G97" t="n">
         <v>0.2</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.32051282051282054</v>
       </c>
       <c r="I97" t="n">
-        <v>0.5652791068580545</v>
+        <v>0.5652791068580543</v>
       </c>
       <c r="J97" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7281974999558514</v>
+        <v>0.7281974999558517</v>
       </c>
       <c r="L97" t="n">
-        <v>2.5238095238095237</v>
+        <v>3.0128205128205128</v>
       </c>
       <c r="M97" t="n">
         <v>3.0128205128205128</v>
@@ -10650,7 +10650,7 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="AA97" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB97" t="n">
         <v>0.08196721311475405</v>
@@ -10688,13 +10688,13 @@
         <v>-0.23076923076923078</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G98" t="n">
         <v>0.0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="I98" t="n">
         <v>1.0000000000000002</v>
@@ -10703,10 +10703,10 @@
         <v>1.0</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7759907622602044</v>
+        <v>0.7759907622602042</v>
       </c>
       <c r="L98" t="n">
-        <v>1.0</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="M98" t="n">
         <v>1.8461538461538463</v>
@@ -10718,7 +10718,7 @@
         <v>2.0</v>
       </c>
       <c r="P98" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q98" t="n">
         <v>13.0</v>
@@ -10751,7 +10751,7 @@
         <v>1.0</v>
       </c>
       <c r="AA98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB98" t="n">
         <v>-0.23076923076923084</v>
@@ -10789,13 +10789,13 @@
         <v>-0.07692307692307693</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G99" t="n">
         <v>0.04411764705882353</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I99" t="n">
         <v>0.9917355371900829</v>
@@ -10804,10 +10804,10 @@
         <v>0.9848484848484849</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7659569903204871</v>
+        <v>0.7659569903204869</v>
       </c>
       <c r="L99" t="n">
-        <v>2.4489795918367347</v>
+        <v>2.58974358974359</v>
       </c>
       <c r="M99" t="n">
         <v>2.58974358974359</v>
@@ -10852,7 +10852,7 @@
         <v>1.3846153846153846</v>
       </c>
       <c r="AA99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB99" t="n">
         <v>-0.17419354838709644</v>
@@ -10890,25 +10890,25 @@
         <v>-0.4166666666666667</v>
       </c>
       <c r="F100" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G100" t="n">
         <v>0.0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.35537190082644626</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="I100" t="n">
-        <v>0.8023087711727263</v>
+        <v>0.8023087711727261</v>
       </c>
       <c r="J100" t="n">
         <v>0.9305785123966942</v>
       </c>
       <c r="K100" t="n">
-        <v>0.771718815205452</v>
+        <v>0.7717188152054522</v>
       </c>
       <c r="L100" t="n">
-        <v>1.9565217391304348</v>
+        <v>2.712121212121212</v>
       </c>
       <c r="M100" t="n">
         <v>2.712121212121212</v>
@@ -10920,7 +10920,7 @@
         <v>4.0</v>
       </c>
       <c r="P100" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q100" t="n">
         <v>12.0</v>
@@ -10953,7 +10953,7 @@
         <v>1.1818181818181819</v>
       </c>
       <c r="AA100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB100" t="n">
         <v>-0.2643678160919544</v>
@@ -10991,25 +10991,25 @@
         <v>-0.07142857142857142</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G101" t="n">
         <v>0.0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.08284023668639054</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2853954327516719</v>
+        <v>0.2853954327516718</v>
       </c>
       <c r="J101" t="n">
         <v>0.5019723865877712</v>
       </c>
       <c r="K101" t="n">
-        <v>0.6964914291399168</v>
+        <v>0.6964914291399169</v>
       </c>
       <c r="L101" t="n">
-        <v>1.5</v>
+        <v>3.4065934065934065</v>
       </c>
       <c r="M101" t="n">
         <v>3.4065934065934065</v>
@@ -11021,7 +11021,7 @@
         <v>7.0</v>
       </c>
       <c r="P101" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q101" t="n">
         <v>14.0</v>
@@ -11054,7 +11054,7 @@
         <v>1.0</v>
       </c>
       <c r="AA101" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB101" t="n">
         <v>-0.12000000000000316</v>
@@ -11092,13 +11092,13 @@
         <v>-0.3076923076923077</v>
       </c>
       <c r="F102" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G102" t="n">
         <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1423611111111111</v>
+        <v>0.26282051282051283</v>
       </c>
       <c r="I102" t="n">
         <v>0.5139280949693354</v>
@@ -11110,7 +11110,7 @@
         <v>0.7391624752530123</v>
       </c>
       <c r="L102" t="n">
-        <v>2.5555555555555554</v>
+        <v>4.282051282051282</v>
       </c>
       <c r="M102" t="n">
         <v>4.282051282051282</v>
@@ -11122,7 +11122,7 @@
         <v>5.0</v>
       </c>
       <c r="P102" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q102" t="n">
         <v>13.0</v>
@@ -11155,7 +11155,7 @@
         <v>1.5833333333333333</v>
       </c>
       <c r="AA102" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB102" t="n">
         <v>-0.3054393305439333</v>
@@ -11193,13 +11193,13 @@
         <v>-0.9230769230769231</v>
       </c>
       <c r="F103" t="n">
-        <v>0.12820512820512822</v>
+        <v>0.25641025641025644</v>
       </c>
       <c r="G103" t="n">
         <v>0.34615384615384615</v>
       </c>
       <c r="H103" t="n">
-        <v>0.08680555555555555</v>
+        <v>0.16025641025641027</v>
       </c>
       <c r="I103" t="n">
         <v>0.3306170144026602</v>
@@ -11211,7 +11211,7 @@
         <v>0.5248565426737829</v>
       </c>
       <c r="L103" t="n">
-        <v>5.855555555555555</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="M103" t="n">
         <v>4.666666666666667</v>
@@ -11223,7 +11223,7 @@
         <v>5.0</v>
       </c>
       <c r="P103" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q103" t="n">
         <v>13.0</v>
@@ -11256,7 +11256,7 @@
         <v>2.15</v>
       </c>
       <c r="AA103" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB103" t="n">
         <v>-0.08108108108108471</v>
@@ -11294,13 +11294,13 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="G104" t="n">
         <v>0.17647058823529413</v>
       </c>
       <c r="H104" t="n">
-        <v>0.11570247933884298</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="I104" t="n">
         <v>0.41467395308755883</v>
@@ -11312,7 +11312,7 @@
         <v>0.5035429159959739</v>
       </c>
       <c r="L104" t="n">
-        <v>4.011627906976744</v>
+        <v>3.742424242424242</v>
       </c>
       <c r="M104" t="n">
         <v>3.742424242424242</v>
@@ -11324,7 +11324,7 @@
         <v>5.0</v>
       </c>
       <c r="P104" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q104" t="n">
         <v>12.0</v>
@@ -11357,7 +11357,7 @@
         <v>1.5</v>
       </c>
       <c r="AA104" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB104" t="n">
         <v>-0.25654450261780104</v>
@@ -11395,13 +11395,13 @@
         <v>-0.3076923076923077</v>
       </c>
       <c r="F105" t="n">
-        <v>0.10897435897435898</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="G105" t="n">
         <v>0.38461538461538464</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1076388888888889</v>
+        <v>0.1987179487179487</v>
       </c>
       <c r="I105" t="n">
         <v>0.34980483549571</v>
@@ -11410,10 +11410,10 @@
         <v>0.5088383838383839</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5298498999513528</v>
+        <v>0.5298498999513522</v>
       </c>
       <c r="L105" t="n">
-        <v>2.2045454545454546</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="M105" t="n">
         <v>2.6666666666666665</v>
@@ -11425,7 +11425,7 @@
         <v>6.0</v>
       </c>
       <c r="P105" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q105" t="n">
         <v>13.0</v>
@@ -11458,7 +11458,7 @@
         <v>1.0</v>
       </c>
       <c r="AA105" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB105" t="n">
         <v>0.228865979381445</v>
@@ -11496,13 +11496,13 @@
         <v>-0.5</v>
       </c>
       <c r="F106" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G106" t="n">
         <v>0.0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.10743801652892562</v>
+        <v>0.19696969696969696</v>
       </c>
       <c r="I106" t="n">
         <v>0.39052774883459407</v>
@@ -11511,10 +11511,10 @@
         <v>0.5801652892561984</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5996258034517243</v>
+        <v>0.5996258034517239</v>
       </c>
       <c r="L106" t="n">
-        <v>1.588235294117647</v>
+        <v>3.696969696969697</v>
       </c>
       <c r="M106" t="n">
         <v>3.696969696969697</v>
@@ -11526,7 +11526,7 @@
         <v>5.0</v>
       </c>
       <c r="P106" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q106" t="n">
         <v>12.0</v>
@@ -11559,7 +11559,7 @@
         <v>1.2727272727272727</v>
       </c>
       <c r="AA106" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB106" t="n">
         <v>-0.6097560975609749</v>
@@ -11597,13 +11597,13 @@
         <v>-0.6923076923076923</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="G107" t="n">
         <v>0.3157894736842105</v>
       </c>
       <c r="H107" t="n">
-        <v>0.1701388888888889</v>
+        <v>0.3141025641025641</v>
       </c>
       <c r="I107" t="n">
         <v>0.5116562772357389</v>
@@ -11612,10 +11612,10 @@
         <v>0.577020202020202</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5919173910257377</v>
+        <v>0.5919173910257384</v>
       </c>
       <c r="L107" t="n">
-        <v>2.7625</v>
+        <v>2.4358974358974357</v>
       </c>
       <c r="M107" t="n">
         <v>2.4358974358974357</v>
@@ -11627,7 +11627,7 @@
         <v>4.0</v>
       </c>
       <c r="P107" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q107" t="n">
         <v>13.0</v>
@@ -11654,13 +11654,13 @@
         <v>0.0</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z107" t="n">
         <v>1.2857142857142858</v>
       </c>
       <c r="AA107" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB107" t="n">
         <v>-0.26760563380281566</v>
@@ -11698,13 +11698,13 @@
         <v>-0.7692307692307693</v>
       </c>
       <c r="F108" t="n">
-        <v>0.10897435897435898</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="G108" t="n">
         <v>0.3125</v>
       </c>
       <c r="H108" t="n">
-        <v>0.19791666666666666</v>
+        <v>0.36538461538461536</v>
       </c>
       <c r="I108" t="n">
         <v>0.5424701994444968</v>
@@ -11713,10 +11713,10 @@
         <v>0.509469696969697</v>
       </c>
       <c r="K108" t="n">
-        <v>0.6856155533238777</v>
+        <v>0.6856155533238778</v>
       </c>
       <c r="L108" t="n">
-        <v>2.8</v>
+        <v>3.3205128205128207</v>
       </c>
       <c r="M108" t="n">
         <v>3.3205128205128207</v>
@@ -11755,13 +11755,13 @@
         <v>1.0</v>
       </c>
       <c r="Y108" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z108" t="n">
         <v>1.411764705882353</v>
       </c>
       <c r="AA108" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB108" t="n">
         <v>-0.15254237288135483</v>
@@ -11799,13 +11799,13 @@
         <v>-0.46153846153846156</v>
       </c>
       <c r="F109" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G109" t="n">
         <v>0.0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="I109" t="n">
         <v>1.0000000000000002</v>
@@ -11814,10 +11814,10 @@
         <v>1.0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7759907622602039</v>
+        <v>0.775990762260204</v>
       </c>
       <c r="L109" t="n">
-        <v>1.6923076923076923</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="M109" t="n">
         <v>1.8461538461538463</v>
@@ -11862,7 +11862,7 @@
         <v>1.0</v>
       </c>
       <c r="AA109" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB109" t="n">
         <v>-0.8064516129032258</v>
@@ -11900,25 +11900,25 @@
         <v>-0.5384615384615384</v>
       </c>
       <c r="F110" t="n">
-        <v>0.08974358974358974</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="G110" t="n">
         <v>0.0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.32051282051282054</v>
       </c>
       <c r="I110" t="n">
         <v>0.5067293109313481</v>
       </c>
       <c r="J110" t="n">
-        <v>0.6475168350168351</v>
+        <v>0.6475168350168349</v>
       </c>
       <c r="K110" t="n">
         <v>0.6949192071523783</v>
       </c>
       <c r="L110" t="n">
-        <v>2.3043478260869565</v>
+        <v>3.8846153846153846</v>
       </c>
       <c r="M110" t="n">
         <v>3.8846153846153846</v>
@@ -11930,7 +11930,7 @@
         <v>5.0</v>
       </c>
       <c r="P110" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q110" t="n">
         <v>13.0</v>
@@ -11963,7 +11963,7 @@
         <v>1.6428571428571428</v>
       </c>
       <c r="AA110" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB110" t="n">
         <v>0.4166666666666715</v>
@@ -12001,13 +12001,13 @@
         <v>0.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1987179487179487</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="G111" t="n">
         <v>0.5761589403973509</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3263888888888889</v>
+        <v>0.6025641025641025</v>
       </c>
       <c r="I111" t="n">
         <v>0.8227227849237424</v>
@@ -12019,7 +12019,7 @@
         <v>0.5885273831521242</v>
       </c>
       <c r="L111" t="n">
-        <v>5.152941176470589</v>
+        <v>4.410256410256411</v>
       </c>
       <c r="M111" t="n">
         <v>4.410256410256411</v>
@@ -12031,7 +12031,7 @@
         <v>2.0</v>
       </c>
       <c r="P111" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q111" t="n">
         <v>13.0</v>
@@ -12064,7 +12064,7 @@
         <v>2.838709677419355</v>
       </c>
       <c r="AA111" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB111" t="n">
         <v>0.13888888888888976</v>
@@ -12102,13 +12102,13 @@
         <v>-0.5</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="G112" t="n">
         <v>0.0</v>
       </c>
       <c r="H112" t="n">
-        <v>0.21777777777777776</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="I112" t="n">
         <v>0.6178927104438613</v>
@@ -12120,7 +12120,7 @@
         <v>0.7896680211760521</v>
       </c>
       <c r="L112" t="n">
-        <v>1.3181818181818181</v>
+        <v>2.6</v>
       </c>
       <c r="M112" t="n">
         <v>2.6</v>
@@ -12132,7 +12132,7 @@
         <v>4.0</v>
       </c>
       <c r="P112" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q112" t="n">
         <v>16.0</v>
@@ -12159,13 +12159,13 @@
         <v>0.0</v>
       </c>
       <c r="Y112" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z112" t="n">
         <v>1.0</v>
       </c>
       <c r="AA112" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB112" t="n">
         <v>0.44099378881987417</v>
@@ -12203,13 +12203,13 @@
         <v>-0.5833333333333334</v>
       </c>
       <c r="F113" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G113" t="n">
         <v>0.0</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2066115702479339</v>
+        <v>0.3787878787878788</v>
       </c>
       <c r="I113" t="n">
         <v>0.5987685109008636</v>
@@ -12218,10 +12218,10 @@
         <v>0.7933884297520661</v>
       </c>
       <c r="K113" t="n">
-        <v>0.7387592154231896</v>
+        <v>0.7387592154231895</v>
       </c>
       <c r="L113" t="n">
-        <v>1.72</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="M113" t="n">
         <v>2.4545454545454546</v>
@@ -12233,7 +12233,7 @@
         <v>4.0</v>
       </c>
       <c r="P113" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q113" t="n">
         <v>12.0</v>
@@ -12266,7 +12266,7 @@
         <v>1.0</v>
       </c>
       <c r="AA113" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB113" t="n">
         <v>-0.12820512820513</v>
@@ -12304,13 +12304,13 @@
         <v>0.0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G114" t="n">
         <v>0.0</v>
       </c>
       <c r="H114" t="n">
-        <v>0.09027777777777778</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I114" t="n">
         <v>0.3280823582893383</v>
@@ -12319,10 +12319,10 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K114" t="n">
-        <v>0.6922340897759257</v>
+        <v>0.6922340897759255</v>
       </c>
       <c r="L114" t="n">
-        <v>1.8571428571428572</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M114" t="n">
         <v>3.3333333333333335</v>
@@ -12334,7 +12334,7 @@
         <v>8.0</v>
       </c>
       <c r="P114" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q114" t="n">
         <v>13.0</v>
@@ -12367,7 +12367,7 @@
         <v>1.0</v>
       </c>
       <c r="AA114" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB114" t="n">
         <v>0.2613636363636385</v>
@@ -12405,13 +12405,13 @@
         <v>-0.4166666666666667</v>
       </c>
       <c r="F115" t="n">
-        <v>0.09848484848484848</v>
+        <v>0.19696969696969696</v>
       </c>
       <c r="G115" t="n">
         <v>0.25</v>
       </c>
       <c r="H115" t="n">
-        <v>0.14049586776859505</v>
+        <v>0.25757575757575757</v>
       </c>
       <c r="I115" t="n">
         <v>0.4839596702317291</v>
@@ -12420,10 +12420,10 @@
         <v>0.6760330578512397</v>
       </c>
       <c r="K115" t="n">
-        <v>0.6817290787845065</v>
+        <v>0.6817290787845062</v>
       </c>
       <c r="L115" t="n">
-        <v>3.4516129032258065</v>
+        <v>5.318181818181818</v>
       </c>
       <c r="M115" t="n">
         <v>5.318181818181818</v>
@@ -12435,7 +12435,7 @@
         <v>5.0</v>
       </c>
       <c r="P115" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q115" t="n">
         <v>12.0</v>
@@ -12468,7 +12468,7 @@
         <v>2.0</v>
       </c>
       <c r="AA115" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB115" t="n">
         <v>-0.2133333333333335</v>
@@ -12506,13 +12506,13 @@
         <v>-0.15384615384615385</v>
       </c>
       <c r="F116" t="n">
-        <v>0.10897435897435898</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="G116" t="n">
         <v>0.16981132075471697</v>
       </c>
       <c r="H116" t="n">
-        <v>0.2881944444444444</v>
+        <v>0.532051282051282</v>
       </c>
       <c r="I116" t="n">
         <v>0.6741746341432863</v>
@@ -12524,7 +12524,7 @@
         <v>0.7161395173470756</v>
       </c>
       <c r="L116" t="n">
-        <v>6.3076923076923075</v>
+        <v>5.756410256410256</v>
       </c>
       <c r="M116" t="n">
         <v>5.756410256410256</v>
@@ -12536,7 +12536,7 @@
         <v>3.0</v>
       </c>
       <c r="P116" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q116" t="n">
         <v>13.0</v>
@@ -12569,7 +12569,7 @@
         <v>2.764705882352941</v>
       </c>
       <c r="AA116" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB116" t="n">
         <v>-0.21240310077519223</v>
@@ -12607,25 +12607,25 @@
         <v>0.46153846153846156</v>
       </c>
       <c r="F117" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G117" t="n">
         <v>0.0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.1423611111111111</v>
+        <v>0.26282051282051283</v>
       </c>
       <c r="I117" t="n">
-        <v>0.4368687618687618</v>
+        <v>0.4368687618687616</v>
       </c>
       <c r="J117" t="n">
         <v>0.5997474747474747</v>
       </c>
       <c r="K117" t="n">
-        <v>0.6402035492877842</v>
+        <v>0.6402035492877841</v>
       </c>
       <c r="L117" t="n">
-        <v>4.785714285714286</v>
+        <v>5.410256410256411</v>
       </c>
       <c r="M117" t="n">
         <v>5.410256410256411</v>
@@ -12670,7 +12670,7 @@
         <v>1.9166666666666667</v>
       </c>
       <c r="AA117" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB117" t="n">
         <v>0.24738675958188214</v>
@@ -12708,13 +12708,13 @@
         <v>-0.13333333333333333</v>
       </c>
       <c r="F118" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="G118" t="n">
         <v>0.25</v>
       </c>
       <c r="H118" t="n">
-        <v>0.2372448979591837</v>
+        <v>0.44285714285714284</v>
       </c>
       <c r="I118" t="n">
         <v>0.5680115103995789</v>
@@ -12726,7 +12726,7 @@
         <v>0.6438228895554112</v>
       </c>
       <c r="L118" t="n">
-        <v>3.9056603773584904</v>
+        <v>4.876190476190477</v>
       </c>
       <c r="M118" t="n">
         <v>4.876190476190477</v>
@@ -12738,7 +12738,7 @@
         <v>3.0</v>
       </c>
       <c r="P118" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q118" t="n">
         <v>15.0</v>
@@ -12771,7 +12771,7 @@
         <v>2.380952380952381</v>
       </c>
       <c r="AA118" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB118" t="n">
         <v>0.2573673870333987</v>
@@ -12809,13 +12809,13 @@
         <v>0.0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.11904761904761905</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="G119" t="n">
         <v>0.39705882352941174</v>
       </c>
       <c r="H119" t="n">
-        <v>0.10204081632653061</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="I119" t="n">
         <v>0.44656215887281797</v>
@@ -12824,10 +12824,10 @@
         <v>0.5147174254317112</v>
       </c>
       <c r="K119" t="n">
-        <v>0.5581881001638294</v>
+        <v>0.5581881001638298</v>
       </c>
       <c r="L119" t="n">
-        <v>3.323943661971831</v>
+        <v>3.657142857142857</v>
       </c>
       <c r="M119" t="n">
         <v>3.657142857142857</v>
@@ -12839,7 +12839,7 @@
         <v>4.0</v>
       </c>
       <c r="P119" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q119" t="n">
         <v>15.0</v>
@@ -12866,13 +12866,13 @@
         <v>11.0</v>
       </c>
       <c r="Y119" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z119" t="n">
         <v>1.72</v>
       </c>
       <c r="AA119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB119" t="n">
         <v>0.26787252368647757</v>
@@ -12910,13 +12910,13 @@
         <v>-0.42857142857142855</v>
       </c>
       <c r="F120" t="n">
-        <v>0.09890109890109891</v>
+        <v>0.19780219780219782</v>
       </c>
       <c r="G120" t="n">
         <v>0.225</v>
       </c>
       <c r="H120" t="n">
-        <v>0.14201183431952663</v>
+        <v>0.26373626373626374</v>
       </c>
       <c r="I120" t="n">
         <v>0.36792936062540477</v>
@@ -12925,10 +12925,10 @@
         <v>0.5611439842209073</v>
       </c>
       <c r="K120" t="n">
-        <v>0.6462097425793841</v>
+        <v>0.646209742579384</v>
       </c>
       <c r="L120" t="n">
-        <v>2.5</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="M120" t="n">
         <v>4.571428571428571</v>
@@ -12940,7 +12940,7 @@
         <v>6.0</v>
       </c>
       <c r="P120" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q120" t="n">
         <v>14.0</v>
@@ -12973,7 +12973,7 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="AA120" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB120" t="n">
         <v>0.32075471698113345</v>
@@ -13011,13 +13011,13 @@
         <v>-0.15384615384615385</v>
       </c>
       <c r="F121" t="n">
-        <v>0.12820512820512822</v>
+        <v>0.25641025641025644</v>
       </c>
       <c r="G121" t="n">
         <v>0.17647058823529413</v>
       </c>
       <c r="H121" t="n">
-        <v>0.13194444444444445</v>
+        <v>0.24358974358974358</v>
       </c>
       <c r="I121" t="n">
         <v>0.4170921543335336</v>
@@ -13026,10 +13026,10 @@
         <v>0.32386363636363635</v>
       </c>
       <c r="K121" t="n">
-        <v>0.5757134300352919</v>
+        <v>0.5757134300352921</v>
       </c>
       <c r="L121" t="n">
-        <v>6.988095238095238</v>
+        <v>4.923076923076923</v>
       </c>
       <c r="M121" t="n">
         <v>4.923076923076923</v>
@@ -13041,7 +13041,7 @@
         <v>4.0</v>
       </c>
       <c r="P121" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q121" t="n">
         <v>13.0</v>
@@ -13074,7 +13074,7 @@
         <v>2.4</v>
       </c>
       <c r="AA121" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB121" t="n">
         <v>-0.3315579227696421</v>
@@ -13112,13 +13112,13 @@
         <v>-0.5384615384615384</v>
       </c>
       <c r="F122" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G122" t="n">
         <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.052083333333333336</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="I122" t="n">
         <v>0.27825797306237743</v>
@@ -13127,10 +13127,10 @@
         <v>0.4810606060606061</v>
       </c>
       <c r="K122" t="n">
-        <v>0.6400157487287914</v>
+        <v>0.640015748728792</v>
       </c>
       <c r="L122" t="n">
-        <v>1.3888888888888888</v>
+        <v>3.6153846153846154</v>
       </c>
       <c r="M122" t="n">
         <v>3.6153846153846154</v>
@@ -13142,7 +13142,7 @@
         <v>8.0</v>
       </c>
       <c r="P122" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q122" t="n">
         <v>13.0</v>
@@ -13175,7 +13175,7 @@
         <v>1.0</v>
       </c>
       <c r="AA122" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB122" t="n">
         <v>0.1884057971014497</v>
